--- a/data/Argentina.xlsx
+++ b/data/Argentina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,41 +469,6 @@
           <t>Link</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>País</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Objetivo</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cuantia</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Apertura</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Resultados Preliminares</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Publicación Resultados Definitivos</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Público Objetivo</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -511,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Premios RAICES y LELOIR</t>
+          <t>Proyectos Federales de Innovación - PFI 2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Los Premios RAICES están destinados a científicos/as, investigadores/as y tecnólogos/as argentinos/as que residen en el exterior y colaboran activamente con el fortalecimiento del Sistema Nacional de Ciencia, Tecnología e Innovación. Por su parte, los Premios LELOIR están destinados a científicos/as, investigadores/as y tecnólogos/as extranjeras/os que han trabajado en el fortalecimiento de las capacidades científicas y tecnológicas de Argentina. Ambos galardones buscan reconocer y visibilizar las contribuciones con el sistema nacional de ciencia y estrechar lazos de cooperación internacional. ¿Hasta qué fecha se puede enviar nominaciones?12 de mayo de 2021¿Quiénes podrán ser ganadores de los Premios RAICES y LELOIR?Los Premios RAICES están destinados a científicos/as, investigadores/as y tecnólogos/as argentinos/as que residen en el exterior y colaboran activamente con el fortalecimiento del sistema nacional de ciencia, tecnología e innovación.Los Premios LELOIR están destinados a científicos/as, investigadores/as y tecnólogos/as extranjero/as, que residan en la Argentina o en el exterior, y que hayan trabajado para el fortalecimiento de las capacidades científicas y tecnológicas de Argentina.¿Quiénes podrán nominar a los/as candidatos/as?Podrán enviar nominaciones a los/as coordinadores/as científicos de las Redes de Argentinos/as Investigadores/as, Científicos/as y Tecnólogos/as en el Exterior (Redes) del Programa RAICES y/o las máximas autoridades de las universidades e instituciones que integran el sistema nacional de ciencia.¿Qué deberán contener las nominaciones?La autoridad que nomina deberá remitir una nota conteniendo el nombre y apellido de los/as investigadores/as, científicos/as y/o tecnólogos/as postulados/as y un mail y teléfono de contacto de la persona nominada a [email protected].Luego de recibidas las postulaciones, la secretaria técnica de los Premios RAICES y LELOIR contactará a los investigadores/as, científicos/as y/o tecnólogos/as postulados/as para solicitarles completen la información requerida y de este modo avanzar con el proceso establecido en la reglamentación de los premios.¿Cómo participar?Escribinos a [email protected].---</t>
+          <t>Los PFI 2021 procuran dar solución a problemas sociales, productivos y ambientales concretos, de alcance municipal, provincial y regional, a través de proyectos de generación y transferencia del conocimiento científico-tecnológico, presentados por actores del sector público y privado. Fecha de cierre17 de junio de 2021.La presente convocatoria tiene como finalidad contribuir a la federalización de la ciencia y la tecnología promoviendo una cultura innovadora territorial e inclusiva, orientada a disminuir las asimetrías en el acceso al conocimiento, en el marco de los Objetivos de Desarrollo Sostenible (ODS) propiciados por la UNESCO.En ese sentido, las autoridades provinciales en el área gubernamental de Ciencia y Tecnología, acreditadas ante el Consejo Federal de Ciencia y Tecnología (COFECyT), evaluarán y jerarquizarán los proyectos de acuerdo a las áreas que cada una considere prioritarias, en el marco de los planes y agendas socio-productivas y ambientales de cada jurisdicción.FinanciaciónEl MINCyT destinará un monto total de cuatrocientos ochenta millones de pesos ($480.000.000) para la adjudicación de aportes no reembolsables (ANR). En tanto, cada jurisdicción podrá solicitar al ministerio un financiamiento de hasta veinte millones de pesos ($20.000.000).El ANR no podrá exceder el 80% del costo total del proyecto. La diferencia deberá ser desembolsada por los beneficiarios y/o por terceros, como aportes de contraparte. Cuando los beneficiarios fueran empresas privadas u otras entidades con fines de lucro, se exigirá una contrapartida dineraria no inferior al 30% del costo total del proyecto.---</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
+          <t>17 de junio de 2021.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/esp_-_bases_y_condiciones_premios_raices_y_leloir_0.pdf, https://www.argentina.gob.ar/sites/default/files/eng_-_bases_y_condiciones_premios_raices_y_leloir_0.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/2021/05/resol-2021-248-apn-mct.pdf, https://www.argentina.gob.ar/sites/default/files/2021/05/v.f_-_bases_y_condiciones_y_anexos_-_pfi_2021_-_if-2021-37789939-apn-ssfcteimct.pdf</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -539,20 +504,9 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premios-raices-leloir-2021</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/PFI2021</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -560,22 +514,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Distinción Argentino-Israelí en Innovación 2020</t>
+          <t>Premios RAICES y LELOIR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>El Ministerio de Ciencia, Tecnología e Innovación (MINCYT), junto con la Cámara de Comercio Argentino Israelí (CCAI) y la Embajada de Israel en la República Argentina, llama a la presentación de proyectos de innovación tecnológica en el marco de la “Distinción Argentino-Israelí en Innovación 2020”.La convocatoria tiene por objetivo promover la cooperación tecnológica entre empresas y emprendedores argentinos e israelíes por medio de la incorporación de conocimiento en el proceso productivo, para mejorar la calidad de vida de la sociedad y la competitividad de las empresas, y fomentar la colaboración del sector privado con los centros de investigación. En la presente edición se busca promover innovaciones en todas las áreas de la industria, con preponderancia en agrotecnología y salud, sin resultar excluyentes. Fecha de cierre9 de abril de 2021Podrán participar: emprendedores (cualquier persona o grupo de personas que estén vinculadas al mundo de la innovación mediante la invención, el diseño, la ingeniería, el emprendimiento, entre otras, con el fin de buscar nuevas ideas, soluciones, productos o procesos que necesitan ser mejorados o no existían) y empresas nacionales (micro, pequeñas, y medianas del sector industrial, comercial y de servicios, distinguidas en un marco jurídico como empresas individuales, societarias, cooperativas u otras organizaciones de economía social de mercado).Cómo participarA través del formulario en la página del concurso.Para más información, ingresá al archivo en el apartado Descargas.Contacto: [email protected]raelinnovationawards.org---</t>
+          <t>Los Premios RAICES están destinados a científicos/as, investigadores/as y tecnólogos/as argentinos/as que residen en el exterior y colaboran activamente con el fortalecimiento del Sistema Nacional de Ciencia, Tecnología e Innovación. Por su parte, los Premios LELOIR están destinados a científicos/as, investigadores/as y tecnólogos/as extranjeras/os que han trabajado en el fortalecimiento de las capacidades científicas y tecnológicas de Argentina. Ambos galardones buscan reconocer y visibilizar las contribuciones con el sistema nacional de ciencia y estrechar lazos de cooperación internacional. ¿Hasta qué fecha se pueden enviar nominaciones?24 de mayo de 2021¿Quiénes podrán ser ganadores de los Premios RAICES y LELOIR?Los Premios RAICES están destinados a científicos/as, investigadores/as y tecnólogos/as argentinos/as que residen en el exterior y colaboran activamente con el fortalecimiento del sistema nacional de ciencia, tecnología e innovación.Los Premios LELOIR están destinados a científicos/as, investigadores/as y tecnólogos/as extranjero/as, que residan en la Argentina o en el exterior, y que hayan trabajado para el fortalecimiento de las capacidades científicas y tecnológicas de Argentina.¿Quiénes podrán nominar a los/as candidatos/as?Podrán enviar nominaciones a los/as coordinadores/as científicos de las Redes de Argentinos/as Investigadores/as, Científicos/as y Tecnólogos/as en el Exterior (Redes) del Programa RAICES y/o las máximas autoridades de las universidades e instituciones que integran el sistema nacional de ciencia.¿Qué deberán contener las nominaciones?La autoridad que nomina deberá remitir una nota conteniendo el nombre y apellido de los/as investigadores/as, científicos/as y/o tecnólogos/as postulados/as y un mail y teléfono de contacto de la persona nominada a [email protected].Luego de recibidas las postulaciones, la secretaria técnica de los Premios RAICES y LELOIR contactará a los investigadores/as, científicos/as y/o tecnólogos/as postulados/as para solicitarles completen la información requerida y de este modo avanzar con el proceso establecido en la reglamentación de los premios.¿Cómo participar?Escribinos a [email protected].---</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9 de abril de 2021</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/israel_innovation_awards_2020_-_bases_y_condiciones.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/esp_-_bases_y_condiciones_premios_raices_y_leloir_0.pdf, https://www.argentina.gob.ar/sites/default/files/eng_-_bases_y_condiciones_premios_raices_y_leloir_0.pdf</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -588,20 +542,9 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/Distincion-Argentino-Israeli-en-Innovacion-2020</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premios-raices-leloir-2021</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -609,22 +552,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Concurso Innova Salud</t>
+          <t>Subsidios de retorno</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">El Ministerio de Ciencia, Tecnología e Innovación de la Nación (MINCYT), con el apoyo de Merck, Sharp &amp; Dome (MSD) Argentina S.R.L., convoca a emprendedores y a empresas de base tecnológica (EBT), que cuenten con un proyecto en el campo de la salud, a presentar propuestas que generen impacto en la sociedad. Fecha de cierre11 de marzo de 2021El Concurso Innova Salud se propone estimular el desarrollo científico, tecnológico y productivo en el país, al aportar visibilidad a la innovación en medicina y potenciar la articulación público-privada en la industria farmacéutica.Las áreas de interés son:» Oncología;» Infectología;» Prevención / Vacunas;» Biotecnología;» Microbiología.Cómo participarEl plazo para la presentación de Propuestas comienza el 11 de febrero de 2021 y finaliza el 11 de marzo de 2021, inclusive.Accedé a los detalles del Concurso, aquí.---El  premiará proyectos de base científica y/o tecnológica en el campo de la salud que generen valor a la sociedad. Esta iniciativa es organizada por la Subsecretaría de Políticas en Ciencia, Tecnología e Innovación con el apoyo de MSD.Las inscripciones estuvieron abiertas del 11 de febrero al 11 de marzo de 2021.Los proyectos debían presentarse en alguna de las siguientes áreas de interés:y debían contemplar la utilización de alguna de las siguientes tecnologías transversales:: Dirección Nacional de Desarrollo Tecnológico e Innovación </t>
+          <t>Los Subsidios de retorno tienen el propósito de facilitar la instalación en el país de investigadoras/es argentinas/os residentes en el extranjero, que tengan una oferta de trabajo en una institución pública o privada en la Argentina. Modalidad Ventanilla permanenteLas solicitudes deben ser presentadas 90 días antes de la fecha del retorno.Están destinados a investigadoras/es, tecnólogas/os y profesionales altamente capacitadas/os que deseen retornar al país y continuar su actividad profesional en el área de su competencia en una institución pública o privada, y que hayan estado como mínimo 3 años en el extranjero (no se considerará como estadía si se realiza en uso de licencia laboral).Se financiará el pasaje de regreso por un monto de hasta $100.000 para países limítrofes y de hasta $200.000 para el resto de los países, el cual será adquirido por el investigador.Asimismo, se abonará una suma de hasta $250.000 en concepto de gastos de reinstalación, cuyos rubros financiables son: pasajes de cónyuges o familiares, reintegro de exceso de equipaje, envío de bibliografía, gastos de mudanza e impuestos aduaneros, traslado de equipo científico relacionado con el tema de su investigación, y compra de equipamiento para investigación.---</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11 de marzo de 2021</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/innova_salud_-_bases_y_condiciones.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/if-2020-66828593-apn-spypctei-mct_anexo_v_reglamento_del_subprograma_de_subsidios_de_retorno.pdf, https://www.argentina.gob.ar/sites/default/files/anexo_i_resol_399-20_subsidios_de_movilidad.pdf</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -637,20 +580,9 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/innova_salud_2021</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/subsidios-retorno</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -658,12 +590,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Subsidios de retorno</t>
+          <t>Programa “ImpaCT.AR Ciencia y Tecnología”</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Los Subsidios de retorno tienen el propósito de facilitar la instalación en el país de investigadoras/es argentinas/os residentes en el extranjero, que tengan una oferta de trabajo en una institución pública o privada en la Argentina. Modalidad Ventanilla permanenteLas solicitudes deben ser presentadas 120 días antes de la fecha del retorno.Están destinados a investigadoras/es, tecnólogas/os y profesionales altamente capacitadas/os que deseen retornar al país y continuar su actividad profesional en el área de su competencia en una institución pública o privada, y que hayan estado como mínimo 3 años en el extranjero (no se considerará como estadía si se realiza en uso de licencia laboral).Se financiará el pasaje de regreso por un monto de hasta $100.000 para países limítrofes y de hasta $200.000 para el resto de los países, el cual será adquirido por el investigador.Asimismo, se abonará una suma de hasta $250.000 en concepto de gastos de reinstalación, cuyos rubros financiables son: pasajes de cónyuges o familiares, reintegro de exceso de equipaje, envío de bibliografía, gastos de mudanza e impuestos aduaneros, traslado de equipo científico relacionado con el tema de su investigación, y compra de equipamiento para investigación.El/la investigador/a deberá enviar desde el exterior las facturas correspondientes a la compra del pasaje y a los gastos que desee rendir dentro del concepto de gastos de reinstalación. Desde la fecha de su retorno el/la beneficiario/a dispondrá de 30 días para enviar el/los ticket/s de embarque original/es y presentar la/s factura/s original/es restantes contempladas dentro de los gastos elegibles para poder reintegrar/rendir hasta los montos máximos establecidos.Para acceder a más información, ingresá aquí.---Tienen como objetivo facilitar la instalación en el país de investigadoras/es argentinas/os residentes en el extranjero, que tengan una oferta de trabajo en una institución pública o privada en la Argentina.Están destinados a investigadoras/es, tecnólogas/os y profesionales altamente capacitadas/os que deseen retornar al país y continuar su actividad profesional en el área de su competencia en una institución pública o privada, y que hayan estado como mínimo 3 años en el extranjero (no se considerará como estadía si se realiza en uso de licencia laboral).Se financiará el pasaje de regreso por un monto de hasta $100.000 para países limítrofes y de hasta $200.000 para el resto de los países, el cual será adquirido por el investigador.Asimismo, se abonará una suma de hasta $250.000 en concepto de gastos de reinstalación, cuyos rubros financiables son: pasajes de cónyuges o familiares, reintegro de exceso de equipaje, envío de bibliografía, gastos de mudanza e impuestos aduaneros, traslado de equipo científico relacionado con el tema de su investigación, y compra de equipamiento para investigación.El/la investigador/a deberá enviar desde el exterior las facturas correspondientes a la compra del pasaje y a los gastos que desee rendir dentro del concepto de gastos de reinstalación. Desde la fecha de su retorno el/la beneficiario/a dispondrá de 30 días para enviar el/los ticket/s de embarque original/es y presentar la/s factura/s original/es restantes contempladas dentro de los gastos elegibles para poder reintegrar/rendir hasta los montos máximos establecidos.Las solicitudes deben ser presentadas 120 días antes de la fecha del retorno (sin excepción).Documentación a presentar:La documentación original (formato electrónico) deberá ser enviada por e-mail a . La carta dirigida al Ministro deberá constar de firma y aclaración del solicitante y toda la documentación restante deberá estar inicialada. No se considerarán solicitudes presentadas en forma incompleta o fuera de término.La presente convocatoria tiene la modalidad de ventanilla abierta. La solicitud de un subsidio de retorno será evaluada por la Comisión Asesora del Programa RAICES, y será ratificada por Resolución del Ministerio. Los resultados serán comunicados por la Dirección Nacional de Promoción de la Política Científica.</t>
+          <t>El programa ImpaCT.AR tiene el propósito de promover proyectos de investigación y desarrollo destinados a brindar apoyo a organismos públicos ─en todos sus niveles─ en la búsqueda de soluciones a desafíos de interés público, que requieran del conocimiento científico o el desarrollo tecnológico para su resolución, y así generar un impacto positivo en el desarrollo local, regional y nacional. Se propone, de esta manera, fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas. Modalidad Ventanilla permanenteLas presentaciones podrán realizarse durante todo el año y serán evaluadas por la Comisión Asesora de forma periódica.Esta convocatoria está orientada a promover iniciativas conjuntas entre instituciones científico-tecnológicas y organismos públicos como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros.A través del programa ImpaCT.AR, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) busca fortalecer e impulsar uno de sus roles clave: la articulación e impacto en la resolución de desafíos que requieran ciencia y tecnología por parte de organismos del Estado, para contribuir a la planificación del desarrollo local, regional y nacional.---</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -673,7 +605,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/formulario_retorno.xlsx, https://www.argentina.gob.ar/sites/default/files/if-2020-66828593-apn-spypctei-mct_anexo_v_reglamento_del_subprograma_de_subsidios_de_retorno.pdf, https://www.argentina.gob.ar/sites/default/files/anexo_i_resol_399-20_subsidios_de_movilidad.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/preguntas_frecuentes_impactar.pdf, https://www.argentina.gob.ar/sites/default/files/instructivo_desembolso_y_rendicion_impactar_0.pdf</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -686,20 +618,9 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/subsidios-retorno</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/impaCT.AR</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -707,12 +628,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Programa “ImpaCT.AR Ciencia y Tecnología”</t>
+          <t>Subsidio Milstein</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>El programa ImpaCT.AR tiene el propósito de promover proyectos de investigación y desarrollo destinados a brindar apoyo a organismos públicos ─en todos sus niveles─ en la búsqueda de soluciones a desafíos de interés público, que requieran del conocimiento científico o el desarrollo tecnológico para su resolución, y así generar un impacto positivo en el desarrollo local, regional y nacional. Se propone, de esta manera, fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas. Modalidad Ventanilla permanenteLas presentaciones podrán realizarse durante todo el año y serán evaluadas por la Comisión Asesora de forma periódica.Esta convocatoria está orientada a promover iniciativas conjuntas entre instituciones científico-tecnológicas y organismos públicos como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros.A través del programa ImpaCT.AR, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) busca fortalecer e impulsar uno de sus roles clave: la articulación e impacto en la resolución de desafíos que requieran ciencia y tecnología por parte de organismos del Estado, para contribuir a la planificación del desarrollo local, regional y nacional.Más informaciónAccedé a los detalles de la convocatoria.---El programa ImpaCT.AR tiene el propósito de promover proyectos de investigación y desarrollo destinados a brindar apoyo a organismos públicos ─en todos sus niveles─ en la búsqueda de soluciones a desafíos de interés público, que requieran del conocimiento científico o el desarrollo tecnológico para su resolución, y así generar un impacto positivo en el desarrollo local, regional y nacional.Se propone, de esta manera, fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas.Esta convocatoria está orientada a promover iniciativas conjuntas entre instituciones científico-tecnológicas y organismos públicos como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros.A través del programa ImpaCT.AR, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) busca fortalecer e impulsar uno de sus roles clave: la articulación e impacto en la resolución de desafíos que requieran ciencia y tecnología por parte de organismos del Estado, para contribuir a la planificación del desarrollo local, regional y nacional.Promover proyectos de investigación y desarrollo orientados a apoyar a organismos públicos del Estado a encontrar soluciones a desafíos que requieran de conocimiento científico o desarrollo tecnológico para su resolución, y que impacten positivamente en el desarrollo del país.● Fomentar la articulación entre el MINCyT y el SNCTI con organismos públicos, como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros, a través de proyectos de investigación y desarrollo orientados.● Contribuir, a partir del conocimiento científico y el desarrollo tecnológico existente en nuestro país, a la solución de desafíos de interés público, planteados por organismos estatales en todos sus niveles.● Fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas que contribuyan al desarrollo social, productivo y ambiental de nuestro país.Instancias del programa:1) Los desafíos podrán presentarse por los destinatarios (Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales u otros organismos públicos) durante todo el año (modalidad ventanilla permanente) y serán evaluadas por la Comisión Asesora de forma periódica.2) El MINCYT analizará la admisibilidad del desafío propuesto en virtud de que requiera de desarrollos científico-tecnológicos para su resolución, así como de su pertinencia en relación a las bases de la presente convocatoria.3) Una vez admitido el desafío se publicará en la página web del Programa a los efectos de promover la presentación de aquellas instituciones que consideren que pueden dar cumplimiento a las demandas.4) Una vez admitido el desafío, el/los grupos de investigación y desarrollo, deberán presentar los proyectos de investigación y desarrollo orientados a la resolución de los desafíos de interés público que hayan sido admitidos al Programa.5) Cada proyecto será evaluado por una Comisión Asesora designada por el Programa, a fin de analizar la viabilidad del proyecto de investigación y desarrollo propuesto, a través del análisis de la adecuación e impacto de la solución propuesta para atender el desafío planteado, su calidad y factibilidad de aplicación, así como la adecuación económica del presupuesto.Para las instituciones que cuenten con GEDO, la propuesta debe ser enviada por el Sistema de Gestión Documental Electrónica (GDE) a la SUBSECRETARÍA DE COORDINACIÓN INSTITUCIONAL (Repartición: SSCI#MCT. Sector: PVD) y por correo electrónico a .Para las instituciones que NO cuenten con GEDO, la propuesta debe ser enviada vía , por medio de la plataforma , y por correo electrónico a .La presentación de desafíos NO tiene fechas delimitadas ya que es una convocatoria de modalidad de ventanilla permanente. A medida que los desafíos se vayan publicando, se irán estableciendo plazos para la presentación de soluciones a cada una las demandas.Las consultas sólo podrán efectuarse por correo electrónico a .Las presentaciones son de carácter institucional debiendo estar firmadas por la máxima autoridad de la Institución que presenta el desafío, o en quien esta delegue.: El presupuesto solicitado debe sin excepción adecuarse estrictamente a los montos necesarios para la resolución o abordaje del desafío específicamente. No deben solicitar el presupuesto máximo permitido, sino el presupuesto necesario. El programa “ImpaCT.AR Ciencia y Tecnología” a través de su Consejo Asesor evaluará los presupuestos para analizar su adecuación al plan de trabajo propuesto.</t>
+          <t xml:space="preserve">Con el fin de promover la vinculación de las/os investigadoras/es argentinas/os residentes en el exterior con el medio científico y tecnológico local, los subsidios César Milstein financian estadías de hasta tres meses. Fechas de inscripciónMarzo, julio o noviembre, con 120 días de anticipación a la fecha de la visita.Todas las presentaciones deberán ser enviadas únicamente en formato digital, debiendo tener las notas, cartas y avales la firma manuscrita correspondiente. Toda la documentación debe ser enviada a [email protected]Para acceder a más información, ingresá aquí.---Promueve la vinculación de las/os investigadoras/es argentinas/os residentes en el exterior con el medio científico y tecnológico local. Financia estadías de un mes y hasta tres meses, con el fin de fomentar la investigación científica y transferencia de conocimiento en el país.Las solicitudes deben ser presentadas únicamente por las máximas autoridades de las instituciones de Investigación, Desarrollo e Innovación (I+D+i) requirentes, durante los meses de marzo, julio o noviembre, con 120 días de anticipación a la fecha prevista de la visita (sin excepción).Documentación a presentar:Todas las presentaciones deberán ser enviadas únicamente en formato digital, debiendo tener las notas, cartas y avales la firma manuscrita correspondiente. Toda la documentación debe ser enviada a </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -722,7 +643,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases_impactar_vf_0.pdf, https://www.argentina.gob.ar/sites/default/files/anexo_a_-_descripcion_de_proyecto_desafio_cyt_5.docx, https://www.argentina.gob.ar/sites/default/files/anexo_b_-_descripcion_de_proyecto_1.docx, https://www.argentina.gob.ar/sites/default/files/preguntas_frecuentes_impactar.pdf, https://www.argentina.gob.ar/sites/default/files/instructivo_desembolso_y_rendicion_impactar_0.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/formulario_milstein.xlsx, https://www.argentina.gob.ar/sites/default/files/if-2020-66825177-apn-spypctei-mct_anexo_vi_reglamento_del_subprograma_doctor_cesar_milstein_1.pdf, https://www.argentina.gob.ar/sites/default/files/anexo_i_resol_399-20.pdf</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -735,20 +656,9 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/impaCT.AR</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/subsidios-milstein</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -756,12 +666,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Subsidio Milstein</t>
+          <t>Centros Interinstitucionales CITEs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Con el fin de promover la vinculación de las/os investigadoras/es argentinas/os residentes en el exterior con el medio científico y tecnológico local, los subsidios César Milstein financian estadías de hasta tres meses. Fechas de inscripciónMarzo, julio o noviembre, con 120 días de anticipación a la fecha de la visita.Todas las presentaciones deberán ser enviadas únicamente en formato digital, debiendo tener las notas, cartas y avales la firma manuscrita correspondiente. Toda la documentación debe ser enviada a [email protected]Para acceder a más información, ingresá aquí.---Promueve la vinculación de las/os investigadoras/es argentinas/os residentes en el exterior con el medio científico y tecnológico local. Financia estadías de un mes y hasta tres meses, con el fin de fomentar la investigación científica y transferencia de conocimiento en el país.Las solicitudes deben ser presentadas únicamente por las máximas autoridades de las instituciones de Investigación, Desarrollo e Innovación (I+D+i) requirentes, durante los meses de marzo, julio o noviembre, con 120 días de anticipación a la fecha prevista de la visita (sin excepción).Documentación a presentar:Todas las presentaciones deberán ser enviadas únicamente en formato digital, debiendo tener las notas, cartas y avales la firma manuscrita correspondiente. Toda la documentación debe ser enviada a </t>
+          <t>Los Centros Interinstitucionales se promoverán como una herramienta de articulación institucional y trabajo transversal sobre temas estratégicos como un instrumento para fomentar la vinculación y el impacto entre la generación de conocimiento y el desarrollo tecnológico en la planificación de políticas públicas para contribuir al desarrollo social, económico y ambiental. Modalidad Ventanilla permanenteLas solicitudes podrán presentarse durante todo el año y serán evaluadas por la Comisión Asesora del Programa CITEs de forma periódica.El objetivo es promover la articulación entre las instituciones del sistema científico-tecnológico nacional a través de la creación, operación y/o consolidación de un Centro interinstitucional para impulsar la asociación multidisciplinaria y así complementar y coordinar las actividades, capacidades y recursos en torno a una problemática o tema estratégico.Para más información, ingresa aquí.---</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -771,7 +681,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/formulario_milstein.xlsx, https://www.argentina.gob.ar/sites/default/files/if-2020-66825177-apn-spypctei-mct_anexo_vi_reglamento_del_subprograma_doctor_cesar_milstein_1.pdf, https://www.argentina.gob.ar/sites/default/files/anexo_i_resol_399-20.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/rs-2021-35535026-apn-sactmct.cites_.pdf, https://www.argentina.gob.ar/sites/default/files/ci-manual_de_procedimientos.pdf, https://www.argentina.gob.ar/sites/default/files/bases_programa_centros_interinstitucionales_temas_estrategicos_2021.pdf</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -784,20 +694,9 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/subsidios-milstein</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/cites</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -805,12 +704,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Centros Interinstitucionales CITEs</t>
+          <t>Proyectos interinstitucionales en temas estratégicos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Los Centros Interinstitucionales se promoverán como una herramienta de articulación institucional y trabajo transversal sobre temas estratégicos como un instrumento para fomentar la vinculación y el impacto entre la generación de conocimiento y el desarrollo tecnológico en la planificación de políticas públicas para contribuir al desarrollo social, económico y ambiental. Modalidad Ventanilla permanenteLas solicitudes podrán presentarse durante todo el año y serán evaluadas por la Comisión Asesora del Programa CITEs de forma periódica.El objetivo es promover la articulación entre las instituciones del sistema científico-tecnológico nacional a través de la creación, operación y/o consolidación de un Centro interinstitucional para impulsar la asociación multidisciplinaria y así complementar y coordinar las actividades, capacidades y recursos en torno a una problemática o tema estratégico.Para más información, ingresa aquí.---</t>
+          <t>Los Proyectos interinstitucionales promueven el trabajo transversal y colaborativo. A su vez, permiten coordinar capacidades complementarias de las instituciones científicas y tecnológicas en el abordaje de un tema estratégico con impacto medio o alto, y contribuir al desarrollo social, económico y ambiental del país. Modalidad Ventanilla permanenteLas solicitudes podrán presentarse durante todo el año y serán evaluadas por la Comisión Asesora de forma periódicaEl propósito es fomentar la articulación y la coordinación entre las diferentes instituciones del Sistema Nacional de Ciencia, Tecnología e Innovación (SNCTI), al sumar capacidades científicas y tecnológicas complementarias, a través de la ejecución de proyectos de investigación, desarrollo e innovación de forma asociativa y multidisciplinaria.Para más información, ingresa aquí.---</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -818,7 +717,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/2020/09/rs-2021-33690832-apn-sactmct.pites_.pdf, https://www.argentina.gob.ar/sites/default/files/2020/09/pites_bases_2021.pdf, https://www.argentina.gob.ar/sites/default/files/2020/09/formulario_proyectos_pites.docx, https://www.argentina.gob.ar/sites/default/files/pites-manual_de_procedimientos.pdf, https://www.argentina.gob.ar/sites/default/files/preguntas_frecuentes_proyectos_insterinstitucionales_1.pdf</t>
+        </is>
+      </c>
       <c r="F8" t="n">
         <v>2021</v>
       </c>
@@ -829,20 +732,9 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/cites</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/convocatorias-abiertas-del-mincyt/proyectos-interinstitucionales-en-temas-estrategicos</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -850,12 +742,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Proyectos interinstitucionales en temas estratégicos</t>
+          <t>Sistemas Nacionales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Los Proyectos interinstitucionales promueven el trabajo transversal y colaborativo. A su vez, permiten coordinar capacidades complementarias de las instituciones científicas y tecnológicas en el abordaje de un tema estratégico con impacto medio o alto, y contribuir al desarrollo social, económico y ambiental del país. Modalidad Ventanilla permanenteLas solicitudes podrán presentarse durante todo el año y serán evaluadas por la Comisión Asesora de forma periódicaEl propósito es fomentar la articulación y la coordinación entre las diferentes instituciones del Sistema Nacional de Ciencia, Tecnología e Innovación (SNCTI), al sumar capacidades científicas y tecnológicas complementarias, a través de la ejecución de proyectos de investigación, desarrollo e innovación de forma asociativa y multidisciplinaria.Para más información, ingresa aquí.---</t>
+          <t>Los Sistemas Nacionales nuclean a grandes equipamientos y bases de datos de diversas áreas de interés para la comunidad científica.Su propósito es alcanzar una utilización eficiente de los grandes equipamientos y una mejor organización y acceso a las bases de datos científicos existentes en las distintas instituciones de ciencia y tecnología de todo el país.Además, brindan a las instituciones adheridas apoyo económico para la mejora o adquisición de equipamiento, formación de recursos humanos y fortalecimiento en las bases de datos con el propósito de garantizar la actualización constante, tanto de los equipos como de las colecciones científicas de nuestro país. Más informaciónConsultá en las páginas de los distintos Sistemas Nacionales las herramientas de financiamiento.---</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -863,11 +755,7 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/rs-2020-57632793-apn-sactmct.pdf, https://www.argentina.gob.ar/sites/default/files/bases_programa_proyectos_interinstitucionales_temas_estrategicos_2020_2.pdf, https://www.argentina.gob.ar/sites/default/files/formulario_proyectos_pites_2020_0.docx, https://www.argentina.gob.ar/sites/default/files/pites-manual_de_procedimientos.pdf, https://www.argentina.gob.ar/sites/default/files/preguntas_frecuentes_proyectos_insterinstitucionales_1.pdf</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>2021</v>
       </c>
@@ -878,20 +766,9 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/convocatorias-abiertas-del-mincyt/proyectos-interinstitucionales-en-temas-estrategicos</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/sistemas-nacionales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -899,44 +776,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sistemas Nacionales</t>
+          <t>Distinción Argentino-Israelí en Innovación 2020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Los Sistemas Nacionales nuclean a grandes equipamientos y bases de datos de diversas áreas de interés para la comunidad científica.Su propósito es alcanzar una utilización eficiente de los grandes equipamientos y una mejor organización y acceso a las bases de datos científicos existentes en las distintas instituciones de ciencia y tecnología de todo el país.Además, brindan a las instituciones adheridas apoyo económico para la mejora o adquisición de equipamiento, formación de recursos humanos y fortalecimiento en las bases de datos con el propósito de garantizar la actualización constante, tanto de los equipos como de las colecciones científicas de nuestro país. Más informaciónConsultá en las páginas de los distintos Sistemas Nacionales las herramientas de financiamiento.---</t>
+          <t>El Ministerio de Ciencia, Tecnología e Innovación (MINCYT), junto con la Cámara de Comercio Argentino Israelí (CCAI) y la Embajada de Israel en la República Argentina, llama a la presentación de proyectos de innovación tecnológica en el marco de la “Distinción Argentino-Israelí en Innovación 2020”.La convocatoria tiene por objetivo promover la cooperación tecnológica entre empresas y emprendedores argentinos e israelíes por medio de la incorporación de conocimiento en el proceso productivo, para mejorar la calidad de vida de la sociedad y la competitividad de las empresas, y fomentar la colaboración del sector privado con los centros de investigación. En la presente edición se busca promover innovaciones en todas las áreas de la industria, con preponderancia en agrotecnología y salud, sin resultar excluyentes. Fecha de cierre9 de abril de 2021Podrán participar: emprendedores (cualquier persona o grupo de personas que estén vinculadas al mundo de la innovación mediante la invención, el diseño, la ingeniería, el emprendimiento, entre otras, con el fin de buscar nuevas ideas, soluciones, productos o procesos que necesitan ser mejorados o no existían) y empresas nacionales (micro, pequeñas, y medianas del sector industrial, comercial y de servicios, distinguidas en un marco jurídico como empresas individuales, societarias, cooperativas u otras organizaciones de economía social de mercado).Cómo participarA través del formulario en la página del concurso.Para más información, ingresá al archivo en el apartado Descargas.Contacto: [email protected]---</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>2021</v>
+          <t>9 de abril de 2021</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/israel_innovation_awards_2020_-_bases_y_condiciones.pdf</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Convocatoria Abierta</t>
+          <t>Convocatoria Cerrada</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/sistemas-nacionales</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/Distincion-Argentino-Israeli-en-Innovacion-2020</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -944,22 +816,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Convocatoria del Programa de Subsidios Institucionales</t>
+          <t>Observatorio Gemini: semestre 2021B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El objetivo es contribuir con fondos públicos al sostenimiento de instituciones sin fines de lucro dedicadas al desarrollo de actividades de investigación científica y tecnológica en el país. Los subsidios institucionales están destinados a cubrir los gastos de funcionamiento necesarios para el desarrollo de proyectos de investigación científica y tecnológica. Fecha de cierre1 de marzo de 2021Entre los gastos a subsidiar, se encuentran: servicios generales y servicios centrales, salarios o servicios de personal de administración, alquiler y gastos básicos del edificio, y gastos de seguridad/vigilancia.Para acceder a más información sobre la convocatoria 2021-2023, ingresá aquí.---El objetivo es contribuir con fondos públicos al  en el país. Los subsidios institucionales están destinados a  para el desarrollo de proyectos de investigación científica y tecnológica:· Servicios generales (luz, teléfono, gas, limpieza, etc.) y servicios centrales (biblioteca, computación, etc.) que se justifiquen en función de las tareas de investigación y/o de gestión y administración de las mismas;· Salarios o servicios de personal de administración vinculados a la actividad de ICT o de gestión y administración de las mismas;· Alquiler y gastos básicos de mantenimiento de edificios;· Gastos de derechos aduaneros vinculados a insumos para la investigación científica no cubiertos por el financiamiento de los proyectos de ICT, no alcanzados por exenciones;· Gastos de edición de publicaciones;• Gastos de seguridad/vigilancia;• Gastos de Seguros.Estará abierta desde el 22 de DICIEMBRE de 2020 hasta el 1° de MARZO de 2021.Para las instituciones que cuenten con Sistema de Gestión Documental Electrónica (GDE), la propuesta debe ser enviada por ese medio a la SUBSECRETARÍA DE COORDINACIÓN INSTITUCIONAL (Repartición: SSCI#MCT. Sector: PVD) y por correo electrónico a .Para las instituciones que NO cuenten con Sistema GDE, la propuesta debe ser enviada vía , por medio de la plataforma ; asimismo, debe remitirse el número de expediente generado por el Sistema TAD junto con el resto de la documental ingresada en la presentación por correo electrónico a la dirección .Para recibir mayor información escribinos a .</t>
+          <t>La Oficina Gemini Argentina informa que el Observatorio Gemini ha abierto el llamado a la presentación de propuestas de observación para el semestre 2021B . Fecha de cierre del llamado:Miércoles 31 de marzo de 2021 a las 17:00, hora oficial argentina.Llamado para programas regulares (modalidad clásica y en fila):Periodo: 1° de agosto de 2021 a 31 de enero de 2022.Tiempo argentino ofrecido para observación: 32,7 horas para Gemini Norte y 30,7 horas para Gemini Sur.Para acceder a los detalles del llamado, ingresá aquí.---La Oficina Gemini Argentina informa que el Observatorio Gemini ha abierto el llamado a la presentación de propuestas de observación para el semestre 2021B .Llamado para programas regulares (modalidad clásica y en fila):- : 1° de agosto de 2021 a 31 de enero de 2022.- : miércoles 31 de marzo de 2021 a las 17:00, hora oficial argentina.- : 32,7 horas para Gemini Norte y 30,7 horas para Gemini Sur.Para más información, consultá los documentos en .Existen dos períodos semestrales por año para la presentación de solicitudes de tiempo en el uso de los telescopios Gemini:• Semestre A: se extiende entre el 1 de febrero y el 31 de julio.• Semestre B: comienza el 1 de agosto y se prolonga hasta el 31 de enero.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1 de marzo de 2021</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/rs-2020-88704189-apn-mct.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-88179473-apn-sscimct.pdf, https://www.argentina.gob.ar/sites/default/files/formulario_inst_beneficiarias_-_2021-2023_0.xlsx, https://www.argentina.gob.ar/sites/default/files/rs-2021-11960111-apn-mct.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/proceso_de_envio_de_propuestas.pdf, https://www.argentina.gob.ar/sites/default/files/llamado_a_propuestas_2021b.docx.pdf, https://www.argentina.gob.ar/sites/default/files/llamado_detalles_2021b.docx.pdf, https://www.argentina.gob.ar/sites/default/files/recomendaciones_pi-2021b.docx.pdf</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -974,20 +846,9 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/subsidios-institucionales</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/gemini2021b</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -995,24 +856,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ciencia y Tecnología contra el Hambre</t>
+          <t>Premio Arcor a la Innovación</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>El Ministerio de Ciencia, Tecnología e Innovación (MINCyT), junto con el Ministerio de Desarrollo Social de la Nación y el Consejo Nacional de Coordinación de Políticas Sociales, lanzan la convocatoria “Ciencia y Tecnología contra el Hambre”.El objetivo es impulsar y fortalecer la integración del conocimiento y de los desarrollos tecnológicos y sociales vinculados a soluciones para el acceso a la alimentación y al agua segura, así como al abordaje de la vulnerabilidad socio-ambiental, a la planificación nacional y local de las acciones comprendidas en el Plan Nacional “Argentina contra el Hambre”.De este modo, se apunta a contribuir desde el sector científico-tecnológico a potenciar las acciones públicas que busquen revertir problemáticas como la malnutrición infantil, la emergencia alimentaria y la pobreza en todo el territorio nacional.La presente convocatoria cuenta con financiamiento del Banco de Desarrollo de América Latina (CAF) a través de la Secretaría de Asuntos Estratégicos (SAE). Cierre de la convocatoriaSe presentaron 451 proyectos de Ciencia y Tecnología contra el Hambre.El 21 de diciembre cerró la primera convocatoria del Programa “Ciencia y Tecnología contra el Hambre”, realizada por la Unidad Ciencia y Tecnología contra el Hambre –integrada por el MINCYT, el CONICET y la Agencia I+D+i– en conjunto con el Ministerio de Desarrollo Social de la Nación y el Consejo Nacional de Coordinación de Políticas Sociales. El objetivo es impulsar y fortalecer la integración del conocimiento y de los desarrollos tecnológicos y sociales a la planificación de acciones del Plan Nacional “Argentina contra el Hambre”.Se presentaron 451 iniciativas de grupos de investigación y desarrollo de todas las provincias del país pertenecientes a: CONICET (103), INTA (43), INTI (11), INA (3), CITEDEF (3), CIC (3), CNEA (1), 51 Universidades Nacionales (247 proyectos) y 13 Universidades Privadas (17), entre otras instituciones científicas y tecnológicas nacionales o provinciales.Las propuestas se distribuyen en iniciativas de tecnología y producción de alimentos (29%), tecnología para acceso al agua y saneamiento (19%), y proyectos de investigación y desarrollo orientados (52%), con potencialidad de integración a políticas públicas enmarcadas en el Plan Nacional “Argentina contra el Hambre”. Entre las temáticas se encuentran: producción de alimentos con alto valor nutricional, escalado de procesos productivos, tecnologías para la agricultura familiar, tecnologías para el acceso y uso del agua, innovaciones para el tratamiento de aguas residuales, sistemas de riego limpios y sustentables, fortalecimiento de las economías regionales, acciones orientadas al cumplimiento de los Objetivos de Desarrollo Sostenible, producción agroecológica, educación alimentaria y nutricional, agricultura familiar en zonas periurbanas, seguridad y soberanía alimentaria, lactancia humana, empleo joven, entre otras.Durante los primeros días de enero, finalizará el proceso de análisis de admisibilidad y elegibilidad, a cargo del MINCYT, orientado a la validación de requisitos formales de la presentación. Luego, se pasará a un proceso de análisis de las propuestas en comisiones asesoras interdisciplinarias e interinstitucionales, conformadas por expertas y expertos de organismos científico-tecnológicos de todo el país y referentes de organismos nacionales e internacionales como el Ministerio de Desarrollo Social, el Consejo Nacional de Coordinación de Políticas Sociales, FAO, UNICEF, el Fondo Internacional de Desarrollo Agrícola (FIDA) y la Organización Panamericana de la Salud (OPS). El análisis contará también con la valoración de las jurisdicciones provinciales.La publicación de los resultados prevé realizarse durante el mes de marzo, para que los proyectos seleccionados estén en plena ejecución durante el año 2021.Mapa de proyectos CyT contra el Hambre
-Más informaciónPara más detalles, ingresá en los documentos del apartado Descargas.---</t>
+          <t>El Ministerio de Ciencia, Tecnología e Innovación de la Nación (MINCYT) y Grupo Arcor convocan a personas emprendedoras, pymes, investigadores e investigadoras a presentar proyectos en el área de alimentos en la séptima edición del “Premio Arcor a la Innovación”. Fecha de cierre26 de marzo de 2021El Premio tiene por objetivos apoyar diferentes proyectos y desarrollos tecnológicos con impacto en la sociedad, incentivar y promover la cultura innovadora, así como también estimular el talento y contribuir a la vinculación entre sectores.Las áreas de interés son:• Tecnología de alimentos;• Tecnologías 4.0;• Ambiente: Envases y packaging sustentables.PremiosPremio Arcor a la Innovación: $ 500.000Mención Especial Fundación Arcor: $ 250.000El proyecto ganador obtendrá un premio de $500.000, que deberán ser destinados a su ejecución y Fundación Arcor entregará una mención especial de $250.000 al proyecto finalista que contemple alternativas frente a problemáticas socio-comunitarias diagnosticadas en las áreas de nutrición, hábitos de vida saludable, crecimiento y desarrollo integral de niños, niñas y adolescentes en situación de vulnerabilidad socioeconómica o bien, que contribuya directamente con el desarrollo social de comunidades o grupos poblacionales vulnerables.Cómo participarPara conocer más detalles sobre el concurso y presentar tu proyecto, accedé a:---</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
+          <t>26 de marzo de 2021</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1022,20 +882,9 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/cytcontraelhambre</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-arcor-2021</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1043,27 +892,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Distinción Franco-Argentina en Innovación 2020</t>
+          <t>Concurso Innova Salud</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Los objetivos de esta convocatoria son estimular y difundir los procesos de transferencia de conocimientos y tecnología, aplicados a productos y/o procesos que mejoren la calidad de vida de la sociedad y busquen promover las innovaciones tecnológicas en el área de energías renovables y otros.Se entregarán una Distinción SÉNIOR de €12.000 (doce mil euros), pagaderos en pesos a la tasa de cambio del día de pago según Banco Nación de la República Argentina, más $190.000 (ciento noventa mil pesos) destinada a cubrir los gastos de traslados del viaje de Argentina y Francia y manutención por un máximo de siete días en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador; y una Distinción JUNIOR de € 3.000 (tres mil euros), pagaderos en pesos a la tasa de cambio del día de pago según Banco Nación de la República Argentina, más $190.000 (ciento noventa mil pesos) destinada a cubrir los gastos de traslados del viaje de Argentina y Francia y manutención por un máximo de siete días en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador. Fecha de cierre17 de noviembre de 2020Podrán participar en el concurso los grupos de investigación y/o investigadores argentinos que presenten un proyecto de innovación y desarrollo con especial consideración en:A. Calidad del Aire: Reducción de emisiones de GHEs; proyectos y/o tecnologías que permitan la compensación de GHEs y proyectos vinculados a la captura y almacenamiento de carbono.B. Tecnologías del Agua: innovación y tecnología en el tratamiento y purificación. Desalinización Reducción del contenido de arsénico, reutilización de agua industriales.C. Energías e innovación tecnológica en:energías renovables y almacenamiento de energía como parte de la transición energética. Eficiencia energética;área de la energía (bombas de calor – sistemas híbridos solar/gas);generación de energía eléctrica a partir de la captura de emisiones/recuperación de energía (Waste Eficiencia energética, generación de H2).El director del proyecto deberá enviar el formulario completo a la casilla [email protected].El concurso está organizado por el Institut Français d’Argentine (IFA) en la República Argentina, con la participación de la empresa TOTAL S.A., junto con el Ministerio de Ciencia, Tecnología e Innovación.Ganadoras/esDistinción SENIORDra. Bibiana BARBERO, del Instituto de Investigaciones en Tecnología Química - San Luis, por su proyecto: “Desarrollo de un sistema automatizado, a escala piloto, para el tratamiento de aguas residuales industriales mediante un proceso de oxidación”.Distinción JUNIORDra. Lucia ASARO, del Instituto de Investigaciones en Ciencia y Tecnología de Materiales - Mar del Plata, por su proyecto titulado: “Desarrollo de un proceso eco-innovador para la valorización de residuos de caucho: reciclaje y reutilización”.---</t>
+          <t xml:space="preserve">El Ministerio de Ciencia, Tecnología e Innovación de la Nación (MINCYT), con el apoyo de Merck, Sharp &amp; Dome (MSD) Argentina S.R.L., convoca a emprendedores y a empresas de base tecnológica (EBT), que cuenten con un proyecto en el campo de la salud, a presentar propuestas que generen impacto en la sociedad. Fecha de cierre11 de marzo de 2021El Concurso Innova Salud se propone estimular el desarrollo científico, tecnológico y productivo en el país, al aportar visibilidad a la innovación en medicina y potenciar la articulación público-privada en la industria farmacéutica.Las áreas de interés son:» Oncología;» Infectología;» Prevención / Vacunas;» Biotecnología;» Microbiología.Cómo participarEl plazo para la presentación de Propuestas comienza el 11 de febrero de 2021 y finaliza el 11 de marzo de 2021, inclusive.Accedé a los detalles del Concurso, aquí.---El  premiará proyectos de base científica y/o tecnológica en el campo de la salud que generen valor a la sociedad. Esta iniciativa es organizada por la Subsecretaría de Políticas en Ciencia, Tecnología e Innovación con el apoyo de MSD.Las inscripciones estuvieron abiertas del 11 de febrero al 11 de marzo de 2021.Los proyectos debían presentarse en alguna de las siguientes áreas de interés:y debían contemplar la utilización de alguna de las siguientes tecnologías transversales:: Dirección Nacional de Desarrollo Tecnológico e Innovación </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17 de noviembre de 2020</t>
+          <t>11 de marzo de 2021</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/formulario_distincion_franco-argentina_2020.doc, https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_-_distincion_franco-argentina_vf.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/innova_salud_-_bases_y_condiciones.pdf</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1073,20 +922,9 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-franco-argentina-2020</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/innova_salud_2021</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1094,27 +932,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Becas para estudiar Oceanografía</t>
+          <t>Convocatoria del Programa de Subsidios Institucionales</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Por medio del Programa de Formación de Recursos Humanos en Oceanografía, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) otorga 10 becas para cursar la licenciatura en Oceanografía de la Facultad de Ciencias Exactas y Naturales de la Universidad de Buenos Aires (UBA). Fecha de cierre de la inscripción15 de noviembre de 2020.ObjetivoLas becas tienen por objeto la generación de incentivos que permitan incrementar el número de alumnos ingresantes y graduados en la Licenciatura en Oceanografía Física de la Facultad de Ciencias Exactas y Naturales de la Universidad de Buenos Aires (FCEN‐UBA), de manera tal de crear las condiciones para un aumento en la dotación de profesionales calificados de las instituciones con competencia en un área estratégica para el país, como lo es la Oceanografía.Más informaciónPara más detalles, ingresá aquí o escribí a [email protected].---</t>
+          <t>El objetivo es contribuir con fondos públicos al sostenimiento de instituciones sin fines de lucro dedicadas al desarrollo de actividades de investigación científica y tecnológica en el país. Los subsidios institucionales están destinados a cubrir los gastos de funcionamiento necesarios para el desarrollo de proyectos de investigación científica y tecnológica. Fecha de cierre1 de marzo de 2021Entre los gastos a subsidiar, se encuentran: servicios generales y servicios centrales, salarios o servicios de personal de administración, alquiler y gastos básicos del edificio, y gastos de seguridad/vigilancia.Para acceder a más información sobre la convocatoria 2021-2023, ingresá aquí.---El objetivo es contribuir con fondos públicos al  en el país. Los subsidios institucionales están destinados a  para el desarrollo de proyectos de investigación científica y tecnológica:· Servicios generales (luz, teléfono, gas, limpieza, etc.) y servicios centrales (biblioteca, computación, etc.) que se justifiquen en función de las tareas de investigación y/o de gestión y administración de las mismas;· Salarios o servicios de personal de administración vinculados a la actividad de ICT o de gestión y administración de las mismas;· Alquiler y gastos básicos de mantenimiento de edificios;· Gastos de derechos aduaneros vinculados a insumos para la investigación científica no cubiertos por el financiamiento de los proyectos de ICT, no alcanzados por exenciones;· Gastos de edición de publicaciones;• Gastos de seguridad/vigilancia;• Gastos de Seguros.Estará abierta desde el 22 de DICIEMBRE de 2020 hasta el 1° de MARZO de 2021.Para las instituciones que cuenten con Sistema de Gestión Documental Electrónica (GDE), la propuesta debe ser enviada por ese medio a la SUBSECRETARÍA DE COORDINACIÓN INSTITUCIONAL (Repartición: SSCI#MCT. Sector: PVD) y por correo electrónico a .Para las instituciones que NO cuenten con Sistema GDE, la propuesta debe ser enviada vía , por medio de la plataforma ; asimismo, debe remitirse el número de expediente generado por el Sistema TAD junto con el resto de la documental ingresada en la presentación por correo electrónico a la dirección .Para recibir mayor información escribinos a .</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
+          <t>1 de marzo de 2021</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/lineamientos_becas_oceano_2020.pdf, https://www.argentina.gob.ar/sites/default/files/formulario_admision_oc20_final.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/rs-2020-88704189-apn-mct.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-88179473-apn-sscimct.pdf, https://www.argentina.gob.ar/sites/default/files/formulario_inst_beneficiarias_-_2021-2023_0.xlsx, https://www.argentina.gob.ar/sites/default/files/rs-2021-11960111-apn-mct.pdf</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1124,20 +962,9 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-oceanografia-2021</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/subsidios-institucionales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1145,12 +972,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Becas para estudiar Ciencias de la Atmósfera</t>
+          <t>Ciencia y Tecnología contra el Hambre</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>En el marco del Programa de Formación de Recursos Humanos en Ciencias de la Atmósfera, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) y el Servicio Meteorológico Nacional (SMN) otorgan hasta 10 becas para cursar la licenciatura en Ciencias de la Atmósfera de la Facultad de Ciencias Exactas y Naturales, de la Universidad de Buenos Aires (UBA). Fecha de cierre de la inscripción15 de noviembre de 2020.Más informaciónPara más detalles, ingresá aquí o escribí a [email protected].---</t>
+          <t>El Ministerio de Ciencia, Tecnología e Innovación (MINCyT), junto con el Ministerio de Desarrollo Social de la Nación y el Consejo Nacional de Coordinación de Políticas Sociales, lanzan la convocatoria “Ciencia y Tecnología contra el Hambre”.El objetivo es impulsar y fortalecer la integración del conocimiento y de los desarrollos tecnológicos y sociales vinculados a soluciones para el acceso a la alimentación y al agua segura, así como al abordaje de la vulnerabilidad socio-ambiental, a la planificación nacional y local de las acciones comprendidas en el Plan Nacional “Argentina contra el Hambre”.De este modo, se apunta a contribuir desde el sector científico-tecnológico a potenciar las acciones públicas que busquen revertir problemáticas como la malnutrición infantil, la emergencia alimentaria y la pobreza en todo el territorio nacional.La presente convocatoria cuenta con financiamiento del Banco de Desarrollo de América Latina (CAF) a través de la Secretaría de Asuntos Estratégicos (SAE). Cierre de la convocatoriaSe presentaron 451 proyectos de Ciencia y Tecnología contra el Hambre.El 21 de diciembre cerró la primera convocatoria del Programa “Ciencia y Tecnología contra el Hambre”, realizada por la Unidad Ciencia y Tecnología contra el Hambre –integrada por el MINCYT, el CONICET y la Agencia I+D+i– en conjunto con el Ministerio de Desarrollo Social de la Nación y el Consejo Nacional de Coordinación de Políticas Sociales. El objetivo es impulsar y fortalecer la integración del conocimiento y de los desarrollos tecnológicos y sociales a la planificación de acciones del Plan Nacional “Argentina contra el Hambre”.Se presentaron 451 iniciativas de grupos de investigación y desarrollo de todas las provincias del país pertenecientes a: CONICET (103), INTA (43), INTI (11), INA (3), CITEDEF (3), CIC (3), CNEA (1), 51 Universidades Nacionales (247 proyectos) y 13 Universidades Privadas (17), entre otras instituciones científicas y tecnológicas nacionales o provinciales.Las propuestas se distribuyen en iniciativas de tecnología y producción de alimentos (29%), tecnología para acceso al agua y saneamiento (19%), y proyectos de investigación y desarrollo orientados (52%), con potencialidad de integración a políticas públicas enmarcadas en el Plan Nacional “Argentina contra el Hambre”. Entre las temáticas se encuentran: producción de alimentos con alto valor nutricional, escalado de procesos productivos, tecnologías para la agricultura familiar, tecnologías para el acceso y uso del agua, innovaciones para el tratamiento de aguas residuales, sistemas de riego limpios y sustentables, fortalecimiento de las economías regionales, acciones orientadas al cumplimiento de los Objetivos de Desarrollo Sostenible, producción agroecológica, educación alimentaria y nutricional, agricultura familiar en zonas periurbanas, seguridad y soberanía alimentaria, lactancia humana, empleo joven, entre otras.Durante los primeros días de enero, finalizará el proceso de análisis de admisibilidad y elegibilidad, a cargo del MINCYT, orientado a la validación de requisitos formales de la presentación. Luego, se pasará a un proceso de análisis de las propuestas en comisiones asesoras interdisciplinarias e interinstitucionales, conformadas por expertas y expertos de organismos científico-tecnológicos de todo el país y referentes de organismos nacionales e internacionales como el Ministerio de Desarrollo Social, el Consejo Nacional de Coordinación de Políticas Sociales, FAO, UNICEF, el Fondo Internacional de Desarrollo Agrícola (FIDA) y la Organización Panamericana de la Salud (OPS). El análisis contará también con la valoración de las jurisdicciones provinciales.La publicación de los resultados prevé realizarse durante el mes de marzo, para que los proyectos seleccionados estén en plena ejecución durante el año 2021.Mapa de proyectos CyT contra el Hambre
+Más informaciónPara más detalles, ingresá en los documentos del apartado Descargas.---</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1160,7 +988,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/lineamientos_becas_atm_2020.pdf, https://www.argentina.gob.ar/sites/default/files/formulario_admision_at20_final.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/cyt_contra_el_hambre_-_proyectos_presentados.pdf</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1175,20 +1003,9 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-atmosfera-2021</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/cytcontraelhambre</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1196,22 +1013,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Observatorio Gemini: semestre 2021A</t>
+          <t>Distinción Franco-Argentina en Innovación 2020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>La Oficina Gemini Argentina informa que el Observatorio Gemini ha abierto el llamado a la presentación de propuestas de observación para el semestre 2021A . Fecha de cierre2 de octubre de 2020, a las 17:00hs.Llamado para programas regulares (modalidad clásica y en fila):- Período: 1° de febrero de 2021 a 31 de julio de 2021.- Fecha de cierre del llamado: miércoles 2 de octubre de 2020 a las 17:00 hs., hora oficial argentina.- Tiempo argentino ofrecido para observación: 39 horas para Gemini Norte y 33 horas para Gemini Sur.Para más información, ingresa aquí.¿Cómo presentar propuestas de observación?Existen dos períodos semestrales por año para la presentación de solicitudes de tiempo en el uso de los telescopios Gemini:Semestre A: se extiende entre el 1 de febrero y el 31 de julio. El 30 de septiembre es la fecha aproximada de cierre de las presentaciones.Semestre B: comienza el 1 de agosto y se prolonga hasta el 31 de enero El 31 de marzo es la fecha aproximada de cierre de las presentaciones.---</t>
+          <t>Los objetivos de esta convocatoria son estimular y difundir los procesos de transferencia de conocimientos y tecnología, aplicados a productos y/o procesos que mejoren la calidad de vida de la sociedad y busquen promover las innovaciones tecnológicas en el área de energías renovables y otros.Se entregarán una Distinción SÉNIOR de €12.000 (doce mil euros), pagaderos en pesos a la tasa de cambio del día de pago según Banco Nación de la República Argentina, más $190.000 (ciento noventa mil pesos) destinada a cubrir los gastos de traslados del viaje de Argentina y Francia y manutención por un máximo de siete días en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador; y una Distinción JUNIOR de € 3.000 (tres mil euros), pagaderos en pesos a la tasa de cambio del día de pago según Banco Nación de la República Argentina, más $190.000 (ciento noventa mil pesos) destinada a cubrir los gastos de traslados del viaje de Argentina y Francia y manutención por un máximo de siete días en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador. Fecha de cierre17 de noviembre de 2020Podrán participar en el concurso los grupos de investigación y/o investigadores argentinos que presenten un proyecto de innovación y desarrollo con especial consideración en:A. Calidad del Aire: Reducción de emisiones de GHEs; proyectos y/o tecnologías que permitan la compensación de GHEs y proyectos vinculados a la captura y almacenamiento de carbono.B. Tecnologías del Agua: innovación y tecnología en el tratamiento y purificación. Desalinización Reducción del contenido de arsénico, reutilización de agua industriales.C. Energías e innovación tecnológica en:energías renovables y almacenamiento de energía como parte de la transición energética. Eficiencia energética;área de la energía (bombas de calor – sistemas híbridos solar/gas);generación de energía eléctrica a partir de la captura de emisiones/recuperación de energía (Waste Eficiencia energética, generación de H2).El director del proyecto deberá enviar el formulario completo a la casilla [email protected].El concurso está organizado por el Institut Français d’Argentine (IFA) en la República Argentina, con la participación de la empresa TOTAL S.A., junto con el Ministerio de Ciencia, Tecnología e Innovación.Ganadoras/esDistinción SENIORDra. Bibiana BARBERO, del Instituto de Investigaciones en Tecnología Química - San Luis, por su proyecto: “Desarrollo de un sistema automatizado, a escala piloto, para el tratamiento de aguas residuales industriales mediante un proceso de oxidación”.Distinción JUNIORDra. Lucia ASARO, del Instituto de Investigaciones en Ciencia y Tecnología de Materiales - Mar del Plata, por su proyecto titulado: “Desarrollo de un proceso eco-innovador para la valorización de residuos de caucho: reciclaje y reutilización”.---</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2 de octubre de 2020, a las 17:00hs.</t>
+          <t>17 de noviembre de 2020</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/proceso_de_envio_de_propuestas.pdf, https://www.argentina.gob.ar/sites/default/files/recomendaciones_pi-2020.pdf, https://www.argentina.gob.ar/sites/default/files/llamado_a_propuestas_2021a.pdf, https://www.argentina.gob.ar/sites/default/files/llamado_detalles_2021a.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_-_distincion_franco-argentina_vf.pdf</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1226,20 +1043,9 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/observatorio-gemini-2021a</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-franco-argentina-2020</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1247,22 +1053,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proyectos de investigación conjunta entre Argentina y Francia: Ecos 2020</t>
+          <t>Becas para estudiar Oceanografía</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es fortalecer la cooperación científica e intensificar las relaciones entre los centros de investigación y las universidades de Argentina y Francia, a través de la presentación de proyectos conjuntos de investigación que incluyan el intercambio de científicos.Sobre la convocatoriaSe encuentra abierta la convocatoria a la presentación de proyectos de investigación conjunta entre grupos de Argentina y Francia, en el marco del Programa de Cooperación que desarrollan el Ministerio de Ciencia, Tecnología e Innovación y ECOS de Francia. Fecha de cierre30 de octubre del 2020Los proyectos serán acordados entre dos o más grupos de investigación de ambos países, con objetivos claramente definidos dentro de un cronograma establecido. Serán implementados a través del intercambio de personas y abarcarán la investigación en las siguientes áreas temáticas:▪ Enfermedades crónicas no transmisibles▪ Nanociencias y biotecnología▪ Ciencias de la Tierra, del Agua y de la Atmósfera▪ Evolución de las sociedades en el siglo XXI: poblaciones y desarrollo sustentable▪ COVID-19 y la pandemiaCómo participarLos proyectos deberán ser avalados por los directores (uno argentino y otro francés) debidamente habilitados para dirigir las investigaciones y presentar las garantías de los recursos operacionales (fuentes de financiación). Cada director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación, en su país. La presentación deberá ser simultánea e idéntica en ambos países.El criterio fundamental de selección es la excelencia del proyecto y la calidad de los investigadores y equipos participantes y de ser posible que tenga impacto sobre la formación de investigadores jóvenes.Para conocer las especificaciones del llamado consultá las bases.---</t>
+          <t>Por medio del Programa de Formación de Recursos Humanos en Oceanografía, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) otorga 10 becas para cursar la licenciatura en Oceanografía de la Facultad de Ciencias Exactas y Naturales de la Universidad de Buenos Aires (UBA). Fecha de cierre de la inscripción15 de noviembre de 2020.ObjetivoLas becas tienen por objeto la generación de incentivos que permitan incrementar el número de alumnos ingresantes y graduados en la Licenciatura en Oceanografía Física de la Facultad de Ciencias Exactas y Naturales de la Universidad de Buenos Aires (FCEN‐UBA), de manera tal de crear las condiciones para un aumento en la dotación de profesionales calificados de las instituciones con competencia en un área estratégica para el país, como lo es la Oceanografía.Más informaciónPara más detalles, ingresá aquí o escribí a [email protected].---</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30 de octubre del 2020</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/planilla_institucional_2.doc, https://www.argentina.gob.ar/sites/default/files/formularioecos.pdf, https://www.argentina.gob.ar/sites/default/files/ecos_sud_2020_-_bases_y_condiciones.pdf, https://www.argentina.gob.ar/sites/default/files/anexo_conicet_conv_ecossud.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/lineamientos_becas_oceano_2020.pdf, https://www.argentina.gob.ar/sites/default/files/formulario_admision_oc20_final.pdf</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1277,20 +1083,9 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/ecos2020</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-oceanografia-2021</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1298,22 +1093,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Premio MERCOSUR de Ciencia y Tecnología</t>
+          <t>Becas para estudiar Ciencias de la Atmósfera</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Busca reconocer los mejores trabajos en ciencia y tecnología de estudiantes, jóvenes investigadores e investigadoras, y equipos de investigación nacionales o residentes de los países miembros o asociados al MERCOSUR.En esta oportunidad, la temática es Inteligencia Artificial y se premiarán los mejores trabajos que representen una potencial contribución al desarrollo científico y tecnológico orientados a las siguientes líneas:Inteligencia artificial y la Internet de las cosas;Inteligencia artificial y ambiente rural;Inteligencia artificial y salud;Inteligencia artificial y ciudades;Inteligencia artificial e industria;Ética e inteligencia artificial. Fecha de cierre11 de septiembre de 2020Categorías» Iniciación Científica: dirigida a estudiantes de escuelas secundarias y técnicas, que tengan menos de 25 años hasta el 11 de septiembre.» Estudiante Universitario/a: dirigida a estudiantes que asisten a cursos de grado en la educación superior e instituciones de investigación, sin límite de edad.» Joven Investigador/a: dirigida a graduados y graduadas, estudiantes de maestría, magísteres, estudiantes de doctorado y doctoras/es que tengan menos de 36 años de edad hasta el 11 de septiembre.» Investigador/a Senior: dirigida a graduados y graduadas, estudiantes de maestría, magísteres, estudiantes de doctorado y doctoras/es que tengan 36 años de edad o más hasta el 11 de septiembre.» Integración: dirigida a graduados y graduadas, estudiantes de maestría, magísteres, estudiantes de doctorado y doctoras/es, sin límite de edad.Para conocer bases y condiciones ingresar a Premio Mercosur.Consultas a [email protected]El concurso es una iniciativa de la Reunión Especializada de Ciencia y Tecnología del MERCOSUR (RECyT) integrada por los organismos de ciencia y tecnología de los países miembros del MERCOSUR: el Ministerio de Ciencia, Tecnología e Innovación de Argentina; el Consejo Nacional de Ciencia y Tecnología de Paraguay; el Ministerio de Educación y Cultura de Uruguay; el Ministerio de Ciencia, Tecnología, Innovaciones y Comunicaciones de Brasil (MCTIC); y el Consejo Nacional de Desarrollo Científico y Tecnológico (CNPq); además de contar con el apoyo institucional del Movimiento Brasil Competitivo (MBC).---</t>
+          <t>En el marco del Programa de Formación de Recursos Humanos en Ciencias de la Atmósfera, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) y el Servicio Meteorológico Nacional (SMN) otorgan hasta 10 becas para cursar la licenciatura en Ciencias de la Atmósfera de la Facultad de Ciencias Exactas y Naturales, de la Universidad de Buenos Aires (UBA). Fecha de cierre de la inscripción15 de noviembre de 2020.Más informaciónPara más detalles, ingresá aquí o escribí a [email protected].---</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11 de septiembre de 2020</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/reglamento_premio_mercosul_2020_espanol_version_final_.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/lineamientos_becas_atm_2020.pdf, https://www.argentina.gob.ar/sites/default/files/formulario_admision_at20_final.pdf</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1328,20 +1123,9 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-mercosur-de-ciencia-y-tecnologia</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-atmosfera-2021</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1349,18 +1133,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cursos de posgrado del Centro Argentino Brasileño de Biotecnología</t>
+          <t>Observatorio Gemini: semestre 2021A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Consultá la oferta de cursos de posgrado disponibles durante este año para profesionales en distintas ramas de la biotecnología (Ciencias Biológicas, Biomedicina, Farmacia, Química, Bioquímica, Genética, Biología Molecular, Biotecnología, Bioinformática, etc.)Cómo participarSi estas interesado en participar de algún curso tenés que enviar a cabbio@mincyt.gob.ar una nota de solicitud, un currículum actualizado (que incluya teléfono y correo electrónico), la justificación de la solicitud (utilidad concreta del curso y lugar de trabajo) y una carta de aval del jefe del grupo de trabajo con su firma.La selección será realizada por el Comité Asesor Científico de la Escuela Argentino Brasileña de Biotecnología.Si sos seleccionado el CABBIO te brindará apoyo económico para el traslado, alojamiento en habitaciones dobles o triples y apoyo económico en la ciudad sede del curso.Informamos que ante la situación sanitaria de emergencia por Coronavirus COVID-19, los cursos CABBIO de todos los países quedan suspendidos hasta nuevo aviso.Consultá en el listado de cursos las distintas fechas de inscripción.Más informaciónCentro Argentino Brasileño de Biotecnología – CABBIO - Godoy Cruz 2320 – 4º Piso (1425), Ciudad Autónoma de Buenos Aires, Tel: + 54 (011) 4899-5000 (Int. 4118/4134), e-mail: cabbio@mincyt.gob.ar---</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>La Oficina Gemini Argentina informa que el Observatorio Gemini ha abierto el llamado a la presentación de propuestas de observación para el semestre 2021A . Fecha de cierre2 de octubre de 2020, a las 17:00hs.Llamado para programas regulares (modalidad clásica y en fila):- Período: 1° de febrero de 2021 a 31 de julio de 2021.- Fecha de cierre del llamado: miércoles 2 de octubre de 2020 a las 17:00 hs., hora oficial argentina.- Tiempo argentino ofrecido para observación: 39 horas para Gemini Norte y 33 horas para Gemini Sur.Para más información, ingresa aquí.¿Cómo presentar propuestas de observación?Existen dos períodos semestrales por año para la presentación de solicitudes de tiempo en el uso de los telescopios Gemini:Semestre A: se extiende entre el 1 de febrero y el 31 de julio. El 30 de septiembre es la fecha aproximada de cierre de las presentaciones.Semestre B: comienza el 1 de agosto y se prolonga hasta el 31 de enero El 31 de marzo es la fecha aproximada de cierre de las presentaciones.---La Oficina Gemini Argentina informa que el Observatorio Gemini ha abierto el llamado a la presentación de propuestas de observación para el semestre 2021B .Llamado para programas regulares (modalidad clásica y en fila):- : 1° de agosto de 2021 a 31 de enero de 2022.- : miércoles 31 de marzo de 2021 a las 17:00, hora oficial argentina.- : 32,7 horas para Gemini Norte y 30,7 horas para Gemini Sur.Para más información, consultá los documentos en .Existen dos períodos semestrales por año para la presentación de solicitudes de tiempo en el uso de los telescopios Gemini:• Semestre A: se extiende entre el 1 de febrero y el 31 de julio.• Semestre B: comienza el 1 de agosto y se prolonga hasta el 31 de enero.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2 de octubre de 2020, a las 17:00hs.</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/cabbio_-_calendario_de_cursos_2020_2.pdf, https://www.argentina.gob.ar/sites/default/files/informacion_y_documentos_para_alumnos_cabbio.rar</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/proceso_de_envio_de_propuestas_0.pdf, https://www.argentina.gob.ar/sites/default/files/recomendaciones_pi-2020_0.pdf, https://www.argentina.gob.ar/sites/default/files/llamado_a_propuestas_2021a_0.pdf, https://www.argentina.gob.ar/sites/default/files/llamado_detalles_2021a_0.pdf</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1375,20 +1163,9 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/cursos-posgrado-cabbio</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/observatorio-gemini-2021a</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1396,22 +1173,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyectos empresariales entre Argentina y España</t>
+          <t>Proyectos de investigación conjunta entre Argentina y Francia: Ecos 2020</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Se financiarán proyectos empresariales colaborativos de desarrollo e innovación tecnológica que tengan por objetivo el desarrollo de soluciones listas para su comercialización o proyectos con un fuerte potencial de mercado para Argentina y España en todas las áreas temáticas y cualquier tecnología de base.Sobre la convocatoria• Los socios deben incluir, al menos, 2 empresas independientes, una de Argentina y otra de España. Se acepta la participación de institutos de investigación/universidades y otras organizaciones, en calidad de subcontratistas o participantes autofinanciados en función de las regulaciones de financiación de cada país.• También pueden participar las organizaciones de otros países, pero no recibirán financiación de las autoridades nacionales comprometidas formalmente con esta convocatoria.• Los socios del proyecto deben expresar su voluntad de cooperar para el desarrollo de un nuevo producto, proceso industrial o servicio. El producto, proceso o servicio debe ser innovador, y debe existir un riesgo tecnológico involucrado.• El proyecto debe tener una ventaja y un valor agregado evidentes como resultado de la cooperación tecnológica entre los participantes de los países (p. ej., incremento de la base tecnológica, leads comerciales, acceso a infraestructura de I+D, etc.).• El proyecto debe demostrar la contribución de todos los participantes y debe ser significativo para ellos.La convocatoria es promovida por el Ministerio de Ciencia, Tecnología e Innovación junto con el Centro para el Desarrollo Tecnológico Industrial (CDTI) de España. En el caso de Argentina, los proyectos serán financiados por el instrumento ANR Internacional de FONTAR. FechaSe aceptarán presentaciones hasta el 18 de junio de 2020.Cómo participarLas empresas argentinas deben completar el perfil Eureka, en inglés y en español firmado por todos los participantes, más un acuerdo de colaboración y explotación de resultados firmado por todos los participantes y un presupuesto preliminar por cada empresa argentina que participe del consorcio y remitir los documentos por correo electrónico a [email protected] hasta la fecha de cierre.Las empresas españolas deberán presentar una solicitud formal de ayuda para proyectos internacionales de I+D a través del sitio web del CDTI, incluido el formulario de solicitud de Eureka (en inglés) y una versión preliminar del acuerdo de consorcio.Las presentaciones deben realizarse en forma simultánea en ambos países.AsesoramientoLas empresas argentinas podrán acceder a los siguientes servicios:Búsqueda de socios a través de la Enterprise Europe Network y de la plataforma EurekaAcceso al portfolio de patentes y servicios tecnológicos de CONICETArticulación con el sistema científico – tecnológicoVinculación con otros programas nacionales e internacionalesContactos:Argentina - Ministerio de Ciencia, Tecnología e InnovaciónSr. Martín Albarracín / Sra. Mercedes LagarrigueTel: +54 11 4899 5000 int.: 4086/4124Email: [email protected]España - CDTISr. Manuel Falcón BallesteroTel: +34 91 581 5607Email: [email protected]Sr. Francisco Sánchez Quintana (Chile)Email: [email protected]---</t>
+          <t>El objetivo de la convocatoria es fortalecer la cooperación científica e intensificar las relaciones entre los centros de investigación y las universidades de Argentina y Francia, a través de la presentación de proyectos conjuntos de investigación que incluyan el intercambio de científicos.Sobre la convocatoriaSe encuentra abierta la convocatoria a la presentación de proyectos de investigación conjunta entre grupos de Argentina y Francia, en el marco del Programa de Cooperación que desarrollan el Ministerio de Ciencia, Tecnología e Innovación y ECOS de Francia. Fecha de cierre30 de octubre del 2020Los proyectos serán acordados entre dos o más grupos de investigación de ambos países, con objetivos claramente definidos dentro de un cronograma establecido. Serán implementados a través del intercambio de personas y abarcarán la investigación en las siguientes áreas temáticas:▪ Enfermedades crónicas no transmisibles▪ Nanociencias y biotecnología▪ Ciencias de la Tierra, del Agua y de la Atmósfera▪ Evolución de las sociedades en el siglo XXI: poblaciones y desarrollo sustentable▪ COVID-19 y la pandemiaCómo participarLos proyectos deberán ser avalados por los directores (uno argentino y otro francés) debidamente habilitados para dirigir las investigaciones y presentar las garantías de los recursos operacionales (fuentes de financiación). Cada director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación, en su país. La presentación deberá ser simultánea e idéntica en ambos países.El criterio fundamental de selección es la excelencia del proyecto y la calidad de los investigadores y equipos participantes y de ser posible que tenga impacto sobre la formación de investigadores jóvenes.Para conocer las especificaciones del llamado consultá las bases.---</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
+          <t>30 de octubre del 2020</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones.pdf, https://www.argentina.gob.ar/sites/default/files/projectformallcountriesmain_0.pdf, https://www.argentina.gob.ar/sites/default/files/presupuesto-ip-inernacional.xlsx</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/formularioecos.pdf, https://www.argentina.gob.ar/sites/default/files/ecos_sud_2020_-_bases_y_condiciones.pdf, https://www.argentina.gob.ar/sites/default/files/anexo_conicet_conv_ecossud.pdf</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1426,20 +1203,9 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/proyectos-argentina-espana</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/ecos2020</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1447,20 +1213,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Movilidad para investigadores entre Francia y América Latina CLIMAT-AmSud</t>
+          <t>Premio MERCOSUR de Ciencia y Tecnología</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Esta convocatoria tiene como objetivo promover y fortalecer la colaboración y la creación de redes de investigación-desarrollo en el ámbito de la variabilidad climática y el cambio climático, a través de la movilidad, para la realización de proyectos conjuntos.Los proyectos conjuntos de investigación deben reunir al menos un equipo de investigación francés y dos equipos de investigación de dos países latinoamericanos que formen parte del Programa regional CLIMAT-AmSud, e incluyen misiones de investigación entre los grupos participantes y la realización de talleres y/o de escuelas intensivas (cursos de corta duración) que permitan la participación de profesores y estudiantes.La postulación de las propuestas deberá efectuarse vía la plataforma en línea disponible en el sitio web de CONICYTEl Programa regional CLIMAT-AmSud es una iniciativa de la cooperación francesa y sus contrapartes de Argentina, Bolivia, Colombia, Chile, Paraguay, Perú y Uruguay. Nueva fecha de cierre15 de mayo de 2020.---</t>
+          <t>Busca reconocer los mejores trabajos en ciencia y tecnología de estudiantes, jóvenes investigadores e investigadoras, y equipos de investigación nacionales o residentes de los países miembros o asociados al MERCOSUR.En esta oportunidad, la temática es Inteligencia Artificial y se premiarán los mejores trabajos que representen una potencial contribución al desarrollo científico y tecnológico orientados a las siguientes líneas:Inteligencia artificial y la Internet de las cosas;Inteligencia artificial y ambiente rural;Inteligencia artificial y salud;Inteligencia artificial y ciudades;Inteligencia artificial e industria;Ética e inteligencia artificial. Fecha de cierre11 de septiembre de 2020Categorías» Iniciación Científica: dirigida a estudiantes de escuelas secundarias y técnicas, que tengan menos de 25 años hasta el 11 de septiembre.» Estudiante Universitario/a: dirigida a estudiantes que asisten a cursos de grado en la educación superior e instituciones de investigación, sin límite de edad.» Joven Investigador/a: dirigida a graduados y graduadas, estudiantes de maestría, magísteres, estudiantes de doctorado y doctoras/es que tengan menos de 36 años de edad hasta el 11 de septiembre.» Investigador/a Senior: dirigida a graduados y graduadas, estudiantes de maestría, magísteres, estudiantes de doctorado y doctoras/es que tengan 36 años de edad o más hasta el 11 de septiembre.» Integración: dirigida a graduados y graduadas, estudiantes de maestría, magísteres, estudiantes de doctorado y doctoras/es, sin límite de edad.Para conocer bases y condiciones ingresar a Premio Mercosur.Consultas a [email protected]El concurso es una iniciativa de la Reunión Especializada de Ciencia y Tecnología del MERCOSUR (RECyT) integrada por los organismos de ciencia y tecnología de los países miembros del MERCOSUR: el Ministerio de Ciencia, Tecnología e Innovación de Argentina; el Consejo Nacional de Ciencia y Tecnología de Paraguay; el Ministerio de Educación y Cultura de Uruguay; el Ministerio de Ciencia, Tecnología, Innovaciones y Comunicaciones de Brasil (MCTIC); y el Consejo Nacional de Desarrollo Científico y Tecnológico (CNPq); además de contar con el apoyo institucional del Movimiento Brasil Competitivo (MBC).---</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>11 de septiembre de 2020</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/reglamento_premio_mercosul_2020_espanol_version_final_.pdf</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>2020</t>
@@ -1473,20 +1243,9 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/movilidad-climat-amsud</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-mercosur-de-ciencia-y-tecnologia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1494,20 +1253,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Movilidad para investigadores entre Francia y América Latina MATH Am Sud</t>
+          <t>Cursos de posgrado del Centro Argentino Brasileño de Biotecnología</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Esta convocatoria tiene como objetivo promover y fortalecer la colaboración y la creación de redes de investigación-desarrollo en el ámbito de las matemáticas, a través de la movilidad, para la realización de proyectos conjuntos.Los proyectos conjuntos de investigación deben reunir al menos un equipo de investigación francés y dos equipos de investigación de dos países latinoamericanos que formen parte del Programa regional MATH-AmSud, e incluyen misiones de investigación entre los grupos participantes y la realización de talleres y/o de escuelas intensivas (cursos de corta duración) que permitan la participación de profesores y estudiantes.La postulación de las propuestas deberá efectuarse vía la plataforma en línea disponible en el sitio web de CONICYTEl Programa regional MATH-AmSud es una iniciativa de la cooperación francesa y sus contrapartes de Argentina, Bolivia, Brasil, Chile, Colombia, Ecuador, Paraguay, Perú, Uruguay y Venezuela. Nueva fecha de cierre15 de mayo de 2020.---</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ventanilla permanente</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>Consultá la oferta de cursos de posgrado disponibles durante este año para profesionales en distintas ramas de la biotecnología (Ciencias Biológicas, Biomedicina, Farmacia, Química, Bioquímica, Genética, Biología Molecular, Biotecnología, Bioinformática, etc.)Cómo participarSi estas interesado en participar de algún curso tenés que enviar a cabbio@mincyt.gob.ar una nota de solicitud, un currículum actualizado (que incluya teléfono y correo electrónico), la justificación de la solicitud (utilidad concreta del curso y lugar de trabajo) y una carta de aval del jefe del grupo de trabajo con su firma.La selección será realizada por el Comité Asesor Científico de la Escuela Argentino Brasileña de Biotecnología.Si sos seleccionado el CABBIO te brindará apoyo económico para el traslado, alojamiento en habitaciones dobles o triples y apoyo económico en la ciudad sede del curso.Informamos que ante la situación sanitaria de emergencia por Coronavirus COVID-19, los cursos CABBIO de todos los países quedan suspendidos hasta nuevo aviso.Consultá en el listado de cursos las distintas fechas de inscripción.Más informaciónCentro Argentino Brasileño de Biotecnología – CABBIO - Godoy Cruz 2320 – 4º Piso (1425), Ciudad Autónoma de Buenos Aires, Tel: + 54 (011) 4899-5000 (Int. 4118/4134), e-mail: cabbio@mincyt.gob.ar---</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/cabbio_-_calendario_de_cursos_2020_2.pdf, https://www.argentina.gob.ar/sites/default/files/informacion_y_documentos_para_alumnos_cabbio.rar</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>2020</t>
@@ -1520,20 +1279,9 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/movilidad-math-am-sud-2020</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/cursos-posgrado-cabbio</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1541,12 +1289,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Movilidad para investigadores entre Francia y América Latina STIC-AmSud</t>
+          <t>Movilidad para investigadores entre Francia y América Latina CLIMAT-AmSud</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Esta convocatoria tiene como objetivo promover y fortalecer la colaboración y la creación de redes de investigación-desarrollo en el ámbito de las ciencias y tecnologías de la información y las comunicaciones (STIC), a través de la movilidad, para la realización de proyectos conjuntos.Los proyectos conjuntos de investigación deben reunir al menos un equipo de investigación francés y dos equipos de investigación de dos países latinoamericanos que formen parte del Programa regional STIC-AmSud, e incluyen misiones de investigación entre los grupos participantes y la realización de talleres y/o de escuelas intensivas (cursos de corta duración) que permitan la participación de profesores y estudiantes.La postulación de las propuestas deberá efectuarse vía la plataforma en línea disponible en el sitio web de CONICYTEl Programa regional STIC-AmSud es una iniciativa de la cooperación francesa y sus contrapartes de Argentina, Bolivia, Brasil, Chile, Colombia, Ecuador, Paraguay, Perú, Uruguay y Venezuela. Nueva fecha de cierre15 de mayo de 2020.---</t>
+          <t>Esta convocatoria tiene como objetivo promover y fortalecer la colaboración y la creación de redes de investigación-desarrollo en el ámbito de la variabilidad climática y el cambio climático, a través de la movilidad, para la realización de proyectos conjuntos.Los proyectos conjuntos de investigación deben reunir al menos un equipo de investigación francés y dos equipos de investigación de dos países latinoamericanos que formen parte del Programa regional CLIMAT-AmSud, e incluyen misiones de investigación entre los grupos participantes y la realización de talleres y/o de escuelas intensivas (cursos de corta duración) que permitan la participación de profesores y estudiantes.La postulación de las propuestas deberá efectuarse vía la plataforma en línea disponible en el sitio web de CONICYTEl Programa regional CLIMAT-AmSud es una iniciativa de la cooperación francesa y sus contrapartes de Argentina, Bolivia, Colombia, Chile, Paraguay, Perú y Uruguay. Nueva fecha de cierre15 de mayo de 2020.---</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1554,7 +1302,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/esp_bases_climat_amsud_2020_vf.pdf</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>2020</t>
@@ -1567,20 +1319,9 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/movilidad-stic-amsud-2020</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/movilidad-climat-amsud</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1588,12 +1329,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Programa de articulación y fortalecimiento federal de las capacidades en ciencia y tecnología COVID-19</t>
+          <t>Movilidad para investigadores entre Francia y América Latina MATH Am Sud</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>La convocatoria busca fortalecer las capacidades de provincias y municipios, apoyándose en sus respectivos sistemas científicos y tecnológicos, para acompañar la integración del conocimiento y de los desarrollos tecnológicos y sociales en los procesos de toma de decisiones y en la planificación local de las estrategias de control, prevención y del monitoreo del COVID-19, en el marco del Decreto N° 355/2020 del 11 de abril de 2020.El programa, que tendrá un financiamiento de $50.000.000 (cincuenta millones de pesos argentinos), está destinado a grupos de investigación que cuenten con un destinatario, que podrá ser la provincia o alguno de sus municipios, cuyos proyectos contribuyan a mejorar las capacidades científicas o tecnológicas locales (desarrollo de sistemas de información, análisis de datos, evaluación del impacto social y económico en los territorios, diseño y desarrollo de elementos de protección personal, entre otras), para aportar al fortalecimiento del sistema público en la atención de la pandemia del COVID-19.Los proyectos deberán contar con el aval de la máxima autoridad de ciencia y tecnología de la jurisdicción, para garantizar la aplicabilidad del conocimiento y/o desarrollo generados.Institución beneficiaria: los grupos de investigación deberán pertenecer a organismos nacionales de Ciencia y Tecnología (OCTs) que integran el Consejo Interinstitucional de Ciencia y Tecnología (CICYT), creado mediante la Ley 25.467 de Ciencia, Tecnología e Innovación. También podrán pertenecer a organismos científicos y tecnológicos de la provincia/jurisdicción que eleva el proyecto. Nueva fecha de cierre4 de mayo de 2020, a las 21.00h.Presentación de proyectosSe deberán incluir los siguientes documentos:Formulario Presentación de proyecto.Aval de la máxima autoridad del área de ciencia y tecnología de la provincia.Aval del/la representante legal de la Institución Beneficiaria (IB).Las propuestas deberán ser enviadas por correo electrónico a [email protected]La presentación deberá ser muy precisa y orientada a fortalecer las capacidades locales con resultados tangibles en el menor plazo posible con alto impacto local frente al COVID 19. Los proyectos tendrán una duración de 1 (un) año.Monto a financiar por proyectoLos fondos solicitados por proyecto tendrán como mínimo un valor de $250.000 (doscientos cincuenta mil pesos argentinos) y como máximo un valor de $1.000.000 (un millón de pesos argentinos), justificados en el Plan de Trabajo en función de los requerimientos que surjan del mismo.La evaluación será realizada por la Subsecretaría de Coordinación Institucional y la Subsecretaría de Federalización del Ministerio de Ciencia, Tecnología e Innovación. Los procedimientos serán los utilizados en el marco de los programas COFECyT, con evaluación de expertos.---</t>
+          <t>Esta convocatoria tiene como objetivo promover y fortalecer la colaboración y la creación de redes de investigación-desarrollo en el ámbito de las matemáticas, a través de la movilidad, para la realización de proyectos conjuntos.Los proyectos conjuntos de investigación deben reunir al menos un equipo de investigación francés y dos equipos de investigación de dos países latinoamericanos que formen parte del Programa regional MATH-AmSud, e incluyen misiones de investigación entre los grupos participantes y la realización de talleres y/o de escuelas intensivas (cursos de corta duración) que permitan la participación de profesores y estudiantes.La postulación de las propuestas deberá efectuarse vía la plataforma en línea disponible en el sitio web de CONICYTEl Programa regional MATH-AmSud es una iniciativa de la cooperación francesa y sus contrapartes de Argentina, Bolivia, Brasil, Chile, Colombia, Ecuador, Paraguay, Perú, Uruguay y Venezuela. Nueva fecha de cierre15 de mayo de 2020.---</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1603,7 +1344,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/anexos_del_instructivo_-_parte_i.docx, https://www.argentina.gob.ar/sites/default/files/anexos_del_instructivo_-_parte_ii.xlsx, https://www.argentina.gob.ar/sites/default/files/rs-2020-48753548-apn-mct_aprueba_inst.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-47907261-apn-dgamct_instructivo.pdf, https://www.argentina.gob.ar/sites/default/files/rs-2020-35843291-apn-mct_0_0.pdf, https://www.argentina.gob.ar/sites/default/files/rs-2020-37699213-apn-mct_1_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-37417120-apn-ssfcteimct_listado_de_proyectos_no_seleccionados_0_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-37417652-apn-ssfcteimct_listado_proyectos_no_admitidos_1_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-34438970-apn-ssfcteimct_1_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-37418385-apn-ssfcteimct_listado_proyectos_seleccionados_2_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-37418013-apn-ssfcteimct_listado_proyectos_no_elegibles_1_0.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/esp_bases_math_amsud_vf.pdf</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1618,20 +1359,9 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/programa-federal-covid19</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/movilidad-math-am-sud-2020</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1639,12 +1369,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Premio UNESCO-Carlos J. Finlay para microbiología</t>
+          <t>Movilidad para investigadores entre Francia y América Latina STIC-AmSud</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Es un galardón internacional financiado por el Gobierno de Cuba y tiene como objetivo recompensar a individuos, instituciones, ONGs o cualquier entidad que, a través de sus investigaciones, haya realizado una contribución notable a la disciplina de la microbiología y sus aplicaciones.Los ganadores reciben un premio monetario de 10.000 dólares estadounidenses y un diploma.Documentación a presentar:a) Descripción del candidato: logros y formación,b) Resumen del trabajo o del resultado de su trabajo, incluyendo publicaciones o cualquier otra documentación de soporte;c) Definición de la contribución realizada por el candidato a los objetivos del premioLa solicitud deberá ser enviada por correo electrónico antes del 1 de febrero de 2020 (la fecha del 10 de febrero de 2020 difundida en la convocatoria y en el sitio web de la UNESCO corresponde al plazo que se le otorga a las Comisiones Nacionales de cada Estado Miembro para remitir las candidaturas nacionales a la UNESCO). Se aceptarán nominaciones solo en inglés y no se aceptarán solicitudes incompletas o entregadas fuera de término y que no cumplan con todos los requisitos de la convocatoria.Las nominaciones deben ser enviadas completas de manera electrónica a [email protected] con copia a [email protected] Más informaciónPremio UNESCO-Carlos J. Finlay para microbiologíaConsultas: Comisión Nacional Argentina de Cooperación con la UNESCO - (5411) 41291185 - [email protected]---</t>
+          <t>Esta convocatoria tiene como objetivo promover y fortalecer la colaboración y la creación de redes de investigación-desarrollo en el ámbito de las ciencias y tecnologías de la información y las comunicaciones (STIC), a través de la movilidad, para la realización de proyectos conjuntos.Los proyectos conjuntos de investigación deben reunir al menos un equipo de investigación francés y dos equipos de investigación de dos países latinoamericanos que formen parte del Programa regional STIC-AmSud, e incluyen misiones de investigación entre los grupos participantes y la realización de talleres y/o de escuelas intensivas (cursos de corta duración) que permitan la participación de profesores y estudiantes.La postulación de las propuestas deberá efectuarse vía la plataforma en línea disponible en el sitio web de CONICYTEl Programa regional STIC-AmSud es una iniciativa de la cooperación francesa y sus contrapartes de Argentina, Bolivia, Brasil, Chile, Colombia, Ecuador, Paraguay, Perú, Uruguay y Venezuela. Nueva fecha de cierre15 de mayo de 2020.---</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1654,7 +1384,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/prize_carlos_finlay_nomination_form_2020_en.pdf, https://www.argentina.gob.ar/sites/default/files/convocatoria_nacional_para_el_premio_unesco_finlay_2020.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/esp_bases-stic-amsud_vf.pdf</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1669,20 +1399,9 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-unesco-carlos-j-finlay-para-microbiologia</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/movilidad-stic-amsud-2020</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1690,12 +1409,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Convocatoria para el dictado de cursos CABBIO</t>
+          <t>Programa de articulación y fortalecimiento federal de las capacidades en ciencia y tecnología COVID-19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>La dirección del Centro Argentino Brasileño de Biotecnología convoca a investigadores formados e independientes a concurso de propuestas para cursos de posgrado de corta duración destinados a la formación de recursos humanos en Biotecnología para realizarse durante 2020.Los coordinadores de un curso propuesto deben ser investigadores formados e independientes, con demostrada trayectoria en docencia de posgrado, en dirección y ejecución de subsidios de investigación y/o docencia de posgrado, y preferentemente con experiencia en organización de cursos de posgrado. Los profesores propuestos para el curso deben ser investigadores formados con amplia trayectoria en la temática.Se desea estimular la interacción entre el sector académico-científico con actores del medio empresarial o del sector productivo con injerencia en el área de la Biotecnología, así como de entidades regulatorias y de fiscalización nacionales o regionales. FechaHasta el 10 de octubre de 2019 a las 19 horas.Las áreas de interés común para Argentina, Brasil y Uruguay son:Biotecnología aplicada a la salud animal y humana.Biotecnología agropecuaria y acuicultura.Biotecnología ambiental.Biotecnología industrial.Biotecnología marinaBiotecnología genómicaOtros temas en Biotecnología (se aceptarán a consideración del Comité Asesor)Uno de los requisitos para la aprobación de los cursos será la participación de por lo menos un profesor brasileño y de ser factible un profesor uruguayo. Más información[email protected]---</t>
+          <t>La convocatoria busca fortalecer las capacidades de provincias y municipios, apoyándose en sus respectivos sistemas científicos y tecnológicos, para acompañar la integración del conocimiento y de los desarrollos tecnológicos y sociales en los procesos de toma de decisiones y en la planificación local de las estrategias de control, prevención y del monitoreo del COVID-19, en el marco del Decreto N° 355/2020 del 11 de abril de 2020.El programa, que tendrá un financiamiento de $50.000.000 (cincuenta millones de pesos argentinos), está destinado a grupos de investigación que cuenten con un destinatario, que podrá ser la provincia o alguno de sus municipios, cuyos proyectos contribuyan a mejorar las capacidades científicas o tecnológicas locales (desarrollo de sistemas de información, análisis de datos, evaluación del impacto social y económico en los territorios, diseño y desarrollo de elementos de protección personal, entre otras), para aportar al fortalecimiento del sistema público en la atención de la pandemia del COVID-19.Los proyectos deberán contar con el aval de la máxima autoridad de ciencia y tecnología de la jurisdicción, para garantizar la aplicabilidad del conocimiento y/o desarrollo generados.Institución beneficiaria: los grupos de investigación deberán pertenecer a organismos nacionales de Ciencia y Tecnología (OCTs) que integran el Consejo Interinstitucional de Ciencia y Tecnología (CICYT), creado mediante la Ley 25.467 de Ciencia, Tecnología e Innovación. También podrán pertenecer a organismos científicos y tecnológicos de la provincia/jurisdicción que eleva el proyecto. Nueva fecha de cierre4 de mayo de 2020, a las 21.00h.Presentación de proyectosSe deberán incluir los siguientes documentos:Formulario Presentación de proyecto.Aval de la máxima autoridad del área de ciencia y tecnología de la provincia.Aval del/la representante legal de la Institución Beneficiaria (IB).Las propuestas deberán ser enviadas por correo electrónico a [email protected]La presentación deberá ser muy precisa y orientada a fortalecer las capacidades locales con resultados tangibles en el menor plazo posible con alto impacto local frente al COVID 19. Los proyectos tendrán una duración de 1 (un) año.Monto a financiar por proyectoLos fondos solicitados por proyecto tendrán como mínimo un valor de $250.000 (doscientos cincuenta mil pesos argentinos) y como máximo un valor de $1.000.000 (un millón de pesos argentinos), justificados en el Plan de Trabajo en función de los requerimientos que surjan del mismo.La evaluación será realizada por la Subsecretaría de Coordinación Institucional y la Subsecretaría de Federalización del Ministerio de Ciencia, Tecnología e Innovación. Los procedimientos serán los utilizados en el marco de los programas COFECyT, con evaluación de expertos.---</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1705,12 +1424,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/convocatoria_2019_vf_10_set_19.pdf, https://www.argentina.gob.ar/sites/default/files/instructivo_cabbio.docx, https://www.argentina.gob.ar/sites/default/files/formulario_convocatoria_cursos_cabbio_2020_-_vf.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/rs-2020-48753548-apn-mct_aprueba_inst.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-47907261-apn-dgamct_instructivo.pdf, https://www.argentina.gob.ar/sites/default/files/rs-2020-35843291-apn-mct_0_0.pdf, https://www.argentina.gob.ar/sites/default/files/rs-2020-37699213-apn-mct_1_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-37417120-apn-ssfcteimct_listado_de_proyectos_no_seleccionados_0_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-37417652-apn-ssfcteimct_listado_proyectos_no_admitidos_1_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-34438970-apn-ssfcteimct_1_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-37418385-apn-ssfcteimct_listado_proyectos_seleccionados_2_0.pdf, https://www.argentina.gob.ar/sites/default/files/if-2020-37418013-apn-ssfcteimct_listado_proyectos_no_elegibles_1_0.pdf</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1720,20 +1439,9 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/cursos-dictado-curso-cabbio</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/programa-federal-covid19</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1741,12 +1449,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Curso hábitat edificado y patrimonio</t>
+          <t>Premio UNESCO-Carlos J. Finlay para microbiología</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Se otorgarán 15 becas para investigadores/as con nacionalidad latinoamericana que residan en Latinoamérica y a más de 70km de la ciudad de Córdoba. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Se propone construir nuevos conocimientos sobre el patrimonio en tanto expresión histórica del hábitat edificado, haciéndolo desde la perspectiva del desarrollo y la sustentabilidad.El curso brindará herramientas para comprender y enriquecer la idea y el trabajo de tutela del patrimonio. En este sentido, se tomarán para su análisis las siguientes dimensiones: la del hábitat edificado que le da origen y lo contiene; la del patrimonio y el sostén de las acciones sobre él; la del desarrollo como una razón de ser del patrimonio y de la sustentabilidad como un importante rasgo que caracteriza la tutela del patrimonio. Se buscará el intercambio interdisciplinario entre docentes y participantes a través de la puesta en debate y la búsqueda de nuevas líneas de investigación conjunta. Los contenidos a desarrollar a lo largo del simposio y taller tienen como marco los objetivos de desarrollo sustentable diseñados por Naciones Unidas. Fecha de inscripciónHasta el 22 de julio de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Es un galardón internacional financiado por el Gobierno de Cuba y tiene como objetivo recompensar a individuos, instituciones, ONGs o cualquier entidad que, a través de sus investigaciones, haya realizado una contribución notable a la disciplina de la microbiología y sus aplicaciones.Los ganadores reciben un premio monetario de 10.000 dólares estadounidenses y un diploma.Documentación a presentar:a) Descripción del candidato: logros y formación,b) Resumen del trabajo o del resultado de su trabajo, incluyendo publicaciones o cualquier otra documentación de soporte;c) Definición de la contribución realizada por el candidato a los objetivos del premioLa solicitud deberá ser enviada por correo electrónico antes del 1 de febrero de 2020 (la fecha del 10 de febrero de 2020 difundida en la convocatoria y en el sitio web de la UNESCO corresponde al plazo que se le otorga a las Comisiones Nacionales de cada Estado Miembro para remitir las candidaturas nacionales a la UNESCO). Se aceptarán nominaciones solo en inglés y no se aceptarán solicitudes incompletas o entregadas fuera de término y que no cumplan con todos los requisitos de la convocatoria.Las nominaciones deben ser enviadas completas de manera electrónica a [email protected] con copia a [email protected] Más informaciónPremio UNESCO-Carlos J. Finlay para microbiologíaConsultas: Comisión Nacional Argentina de Cooperación con la UNESCO - (5411) 41291185 - [email protected]---</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1754,10 +1462,14 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/prize_carlos_finlay_nomination_form_2020_en.pdf, https://www.argentina.gob.ar/sites/default/files/convocatoria_nacional_para_el_premio_unesco_finlay_2020.pdf</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1767,20 +1479,9 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-habitat-edificado-patrimonio</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-unesco-carlos-j-finlay-para-microbiologia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1788,12 +1489,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Curso: genómica y medicina de precisión</t>
+          <t>Convocatoria para el dictado de cursos CABBIO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Se otorgarán 15 becas para latinoamericanos que residan en Latinoamérica y a más de 70km de Ciudad Autónoma de Buenos Aires (CABA). Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El curso se propone fomentar la expansión de la genómica clínica de manera coordinada, integrar a Latinoamérica al desarrollo de la genómica y medicina de precisión y fomentar la creatividad en este área con impronta local. El mismo tiene como objetivo presentar a los/las alumnos/as los conceptos fundamentales asociados a la temática y enseñar las habilidades asociadas al manejo y análisis de datos genómicos y su aplicación a ejemplos reales derivados de la clínica que son pruebas de concepto de la aplicación de estrategias de Medicina de Precisión en el ámbito local. Como objetivo adicional la escuela busca consolidar la red de trabajo latinoamericana en el área de Genómica Clínica en el contexto de la Medicina de Precisión. Fecha de inscripciónHasta el 22 de julio de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>La dirección del Centro Argentino Brasileño de Biotecnología convoca a investigadores formados e independientes a concurso de propuestas para cursos de posgrado de corta duración destinados a la formación de recursos humanos en Biotecnología para realizarse durante 2020.Los coordinadores de un curso propuesto deben ser investigadores formados e independientes, con demostrada trayectoria en docencia de posgrado, en dirección y ejecución de subsidios de investigación y/o docencia de posgrado, y preferentemente con experiencia en organización de cursos de posgrado. Los profesores propuestos para el curso deben ser investigadores formados con amplia trayectoria en la temática.Se desea estimular la interacción entre el sector académico-científico con actores del medio empresarial o del sector productivo con injerencia en el área de la Biotecnología, así como de entidades regulatorias y de fiscalización nacionales o regionales. FechaHasta el 10 de octubre de 2019 a las 19 horas.Las áreas de interés común para Argentina, Brasil y Uruguay son:Biotecnología aplicada a la salud animal y humana.Biotecnología agropecuaria y acuicultura.Biotecnología ambiental.Biotecnología industrial.Biotecnología marinaBiotecnología genómicaOtros temas en Biotecnología (se aceptarán a consideración del Comité Asesor)Uno de los requisitos para la aprobación de los cursos será la participación de por lo menos un profesor brasileño y de ser factible un profesor uruguayo. Más información[email protected]---</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1801,7 +1502,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/formulario_convocatoria_cursos_cabbio_2020_-_vf.pdf</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>2019</t>
@@ -1814,20 +1519,9 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-genomica-y-medicina-de-precision</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/cursos-dictado-curso-cabbio</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1835,12 +1529,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Distinción Franco-Argentina en Innovación 2019</t>
+          <t>Curso hábitat edificado y patrimonio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GanadoresCategoría SENIOR: Desarrollo de recipientes de presión ultralivianos para el almacenamiento de hidrógeno y gas natural, empleando materiales compuestos modificados con nanorefuerzos y un diseño optimizado mediante el empleo de algoritmos genéticos del doctor Exequiel RodriguezCategoría JUNIOR: Bioremoción de arsénico utilizando microorganismos extremofilos capaces de precipitar carbonatos de la doctora Cecilia MlewskiLos objetivos son estimular y difundir los procesos de transferencia de conocimientos y tecnología, aplicados a productos y/o procesos que mejoren la calidad de vida de la sociedad y busquen promover las innovaciones tecnológicas en el área de energías renovables y otros.Se entregará una Distinción SÉNIOR de €12.000 (doce mil euros) y 1 pasaje ida y vuelta de Argentina a Francia, y viáticos por una semana, en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador; y una Distinción JUNIOR de € 3.000 (tres mil euros) y 1 pasaje ida y vuelta de Argentina a Francia, y viáticos por una semana, para estadía de investigación en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador. Nueva fecha de cierre1 de julio de 2019Podrán participar en el concurso los grupos de investigación y/o investigadores argentinos que presenten un proyecto de innovación y desarrollo con especial consideración en:- Energías e innovación: Eólica; Fotovoltaica; Biomasa; Geotermal; Eficiencia energética.- Tecnologías del agua: Tratamiento y purificación; Reducción del contenido de arsénico, Aguas residuales; Desalinización; Filtrado; Irrigación; Reciclado.- Calidad del aire: Métodos de filtrado; Análisis de Micropartículas; Sistemas de Monitoreo; Reducción de Gases de Efecto Invernadero; Estrategias tecnológicas, económicas y legales de gestión de la calidad del aire.- Trabajos vinculados al reciclado de plásticos o a la disminución de su uso.El director del proyecto deberá enviar el formulario completo a la casilla [email protected]El concurso está organizado por el Institut Français d’Argentine (IFA) en la República Argentina, con la participación de la empresa TOTAL S.A., junto con la Secretaria de Gobierno de Ciencia, Tecnología e Innovación Productiva.---</t>
+          <t>Se otorgarán 15 becas para investigadores/as con nacionalidad latinoamericana que residan en Latinoamérica y a más de 70km de la ciudad de Córdoba. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Se propone construir nuevos conocimientos sobre el patrimonio en tanto expresión histórica del hábitat edificado, haciéndolo desde la perspectiva del desarrollo y la sustentabilidad.El curso brindará herramientas para comprender y enriquecer la idea y el trabajo de tutela del patrimonio. En este sentido, se tomarán para su análisis las siguientes dimensiones: la del hábitat edificado que le da origen y lo contiene; la del patrimonio y el sostén de las acciones sobre él; la del desarrollo como una razón de ser del patrimonio y de la sustentabilidad como un importante rasgo que caracteriza la tutela del patrimonio. Se buscará el intercambio interdisciplinario entre docentes y participantes a través de la puesta en debate y la búsqueda de nuevas líneas de investigación conjunta. Los contenidos a desarrollar a lo largo del simposio y taller tienen como marco los objetivos de desarrollo sustentable diseñados por Naciones Unidas. Fecha de inscripciónHasta el 22 de julio de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1848,11 +1542,7 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/formulario_distincion_franco-argentina_2019.doc, https://www.argentina.gob.ar/sites/default/files/if-2019-09493501-apn-dnceiimeccyt.pdf</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>2019</t>
@@ -1865,20 +1555,9 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-franco-argentina-en-innovacion-2019</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-habitat-edificado-patrimonio</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1886,12 +1565,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Distinción Road to Barcelona</t>
+          <t>Curso: genómica y medicina de precisión</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Es una iniciativa que tiene como objetivo apoyar a la startups de Argentina en su desembarco al mercado Europeo otorgando un pasaje, área de trabajo y acceso a programas de asesoramiento personalizado en Barcelona por seis meses. Nueva fecha de cierre30 de septiembre de 2019.El Programa tiene por objetivo tiene promover la internacionalización de empresas tecnológicas argentinas, facilitando su inserción en el mercado Europeo. Más informaciónRoad to Barcelona---</t>
+          <t>Se otorgarán 15 becas para latinoamericanos que residan en Latinoamérica y a más de 70km de Ciudad Autónoma de Buenos Aires (CABA). Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El curso se propone fomentar la expansión de la genómica clínica de manera coordinada, integrar a Latinoamérica al desarrollo de la genómica y medicina de precisión y fomentar la creatividad en este área con impronta local. El mismo tiene como objetivo presentar a los/las alumnos/as los conceptos fundamentales asociados a la temática y enseñar las habilidades asociadas al manejo y análisis de datos genómicos y su aplicación a ejemplos reales derivados de la clínica que son pruebas de concepto de la aplicación de estrategias de Medicina de Precisión en el ámbito local. Como objetivo adicional la escuela busca consolidar la red de trabajo latinoamericana en el área de Genómica Clínica en el contexto de la Medicina de Precisión. Fecha de inscripciónHasta el 22 de julio de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1912,20 +1591,9 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-road-barcelona</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-genomica-y-medicina-de-precision</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1933,12 +1601,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Escuela de actualización en oncología</t>
+          <t>Distinción Franco-Argentina en Innovación 2019</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Se otorgarán 30 becas para latinoamericanos que residan en Latinoamérica y a más de 70km de Bariloche. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La Escuela tiene como objetivo principal brindar a los y las participantes conocimientos actualizados en investigación, diagnóstico, tratamiento y manejo de información en cáncer desde un enfoque interdisciplinario. La complejidad de esta patología en cuanto al diagnóstico, tratamiento y prevención, combinada con los profundos avances que se dieron en la última década en todos los aspectos de la oncología hacen imprescindible la formación y actualización de estudiantes y profesionales del área desde una perspectiva transdisciplinaria, tendiente a combinar sinérgicamente conocimientos, metodologías, experiencias y expectativas.Está dirigida a profesionales que estén trabajando en temas relacionados con la detección y el tratamiento del cáncer, y que deseen ampliar sus conocimientos sobre los procesos de transformación tumoral, las herramientas de diagnóstico y tratamiento actuales, y los últimos desarrollos científicos en estos campos. La modalidad de la escuela será teórico-práctica y dictada íntegramente en inglés. Fecha de inscripciónHasta el 7 de agosto de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t xml:space="preserve"> GanadoresCategoría SENIOR: Desarrollo de recipientes de presión ultralivianos para el almacenamiento de hidrógeno y gas natural, empleando materiales compuestos modificados con nanorefuerzos y un diseño optimizado mediante el empleo de algoritmos genéticos del doctor Exequiel RodriguezCategoría JUNIOR: Bioremoción de arsénico utilizando microorganismos extremofilos capaces de precipitar carbonatos de la doctora Cecilia MlewskiLos objetivos son estimular y difundir los procesos de transferencia de conocimientos y tecnología, aplicados a productos y/o procesos que mejoren la calidad de vida de la sociedad y busquen promover las innovaciones tecnológicas en el área de energías renovables y otros.Se entregará una Distinción SÉNIOR de €12.000 (doce mil euros) y 1 pasaje ida y vuelta de Argentina a Francia, y viáticos por una semana, en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador; y una Distinción JUNIOR de € 3.000 (tres mil euros) y 1 pasaje ida y vuelta de Argentina a Francia, y viáticos por una semana, para estadía de investigación en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador. Nueva fecha de cierre1 de julio de 2019Podrán participar en el concurso los grupos de investigación y/o investigadores argentinos que presenten un proyecto de innovación y desarrollo con especial consideración en:- Energías e innovación: Eólica; Fotovoltaica; Biomasa; Geotermal; Eficiencia energética.- Tecnologías del agua: Tratamiento y purificación; Reducción del contenido de arsénico, Aguas residuales; Desalinización; Filtrado; Irrigación; Reciclado.- Calidad del aire: Métodos de filtrado; Análisis de Micropartículas; Sistemas de Monitoreo; Reducción de Gases de Efecto Invernadero; Estrategias tecnológicas, económicas y legales de gestión de la calidad del aire.- Trabajos vinculados al reciclado de plásticos o a la disminución de su uso.El director del proyecto deberá enviar el formulario completo a la casilla [email protected]El concurso está organizado por el Institut Français d’Argentine (IFA) en la República Argentina, con la participación de la empresa TOTAL S.A., junto con la Secretaria de Gobierno de Ciencia, Tecnología e Innovación Productiva.---</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1946,7 +1614,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/if-2019-09493501-apn-dnceiimeccyt.pdf</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>2019</t>
@@ -1959,20 +1631,9 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-actualizacion-oncologia</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-franco-argentina-en-innovacion-2019</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1980,12 +1641,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Escuela de monitoreo ambiental</t>
+          <t>Distinción Road to Barcelona</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Se otorgarán 15 becas para investigadores/as con nacionalidad latinoamericana que residan en Latinoamérica y a más de 70km de la ciudad de Córdoba. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela se propone introducir a la comunidad científica y profesional latinoamericana en los aspectos básicos y aplicados de las herramientas de monitoreo ambiental disponibles desarrolladas sobre las bases de la tecnología espacial, técnicas convencionales de laboratorio y nanotecnología, para desarrollar planes integrados de monitoreo de contaminantes en agua, aire y suelo. Estas propuestas se orientarán a generar herramientas para cuantificar la evolución espacio-temporal de indicadores de calidad ambiental que permitan evaluar el nivel de cumplimiento de las metas de desarrollo sostenible 2030, relacionadas con la preservación de los recursos agua, aire y suelo y los servicios ecositémicos que éstos brindan en la región de Latinoamérica. Fecha de inscripciónHasta el 22 de julio de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Es una iniciativa que tiene como objetivo apoyar a la startups de Argentina en su desembarco al mercado Europeo otorgando un pasaje, área de trabajo y acceso a programas de asesoramiento personalizado en Barcelona por seis meses. Nueva fecha de cierre30 de septiembre de 2019.El Programa tiene por objetivo tiene promover la internacionalización de empresas tecnológicas argentinas, facilitando su inserción en el mercado Europeo. Más informaciónRoad to Barcelona---</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2006,20 +1667,9 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-de-monitoreo-ambiental</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-road-barcelona</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2027,12 +1677,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gestión sustentable de residuos agropecuarios</t>
+          <t>Escuela de actualización en oncología</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Se otorgarán 35 becas para estudiantes de posgrado e investigadores que residan en Latinoamérica y a más de 70km de Córdoba. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula. Además hay 10 vacantes para quienes vivan a menos de 70km de Córdoba o no requieran beca.La actividad propuesta aborda la temática de la gestión de residuos y efluentes de la producción animal, atendiendo a la intensificación que se viene desarrollando en la producción ganadera en la región. Los temas a tratar durante el seminario son los sistemas de producción y su impacto en el ambiente, el análisis de flujo de nutrientes a diferentes escalas, los problemas generados por olores, patógenos, contaminación del agua, emisiones de amoníaco, emisiones de gases de efecto invernadero, contaminación por fósforo y residuos de drogas veterinarias y el uso de recursos en sistemas de producción animal. Fecha de inscripciónHasta el 20 de enero de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 30 becas para latinoamericanos que residan en Latinoamérica y a más de 70km de Bariloche. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La Escuela tiene como objetivo principal brindar a los y las participantes conocimientos actualizados en investigación, diagnóstico, tratamiento y manejo de información en cáncer desde un enfoque interdisciplinario. La complejidad de esta patología en cuanto al diagnóstico, tratamiento y prevención, combinada con los profundos avances que se dieron en la última década en todos los aspectos de la oncología hacen imprescindible la formación y actualización de estudiantes y profesionales del área desde una perspectiva transdisciplinaria, tendiente a combinar sinérgicamente conocimientos, metodologías, experiencias y expectativas.Está dirigida a profesionales que estén trabajando en temas relacionados con la detección y el tratamiento del cáncer, y que deseen ampliar sus conocimientos sobre los procesos de transformación tumoral, las herramientas de diagnóstico y tratamiento actuales, y los últimos desarrollos científicos en estos campos. La modalidad de la escuela será teórico-práctica y dictada íntegramente en inglés. Fecha de inscripciónHasta el 7 de agosto de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2053,20 +1703,9 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/gestion-sustentable-de-residuos-agropecuarios</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-actualizacion-oncologia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2074,12 +1713,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Global Tec - Programa de aceleración y globalización para proyectos científico-tecnológicos</t>
+          <t>Escuela de monitoreo ambiental</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>El objetivo es identificar innovaciones basadas en el conocimiento, con alto potencial de comercialización y en un sector de alto crecimiento y potenciarlos a través de formación e inversión privada, además de preparar los proyectos para el encuentro con inversores internacionales.Podrán participar emprendedores que cuenten con un proyecto de base científica y/o tecnológica, y Personas Jurídicas inscriptas y legalmente constituidas Nueva fecha de cierre17 de mayo de 2019Los proyectos seleccionados recibirán capacitación con referentes internacionales, validación del modelo de negocios con expertos, mentoring personalizado y pitch day con potenciales inversores nacionales e internacionales. Más informaciónGlobal Tec - Programa de aceleración y globalización para proyectos científico-tecnológicos---</t>
+          <t>Se otorgarán 15 becas para investigadores/as con nacionalidad latinoamericana que residan en Latinoamérica y a más de 70km de la ciudad de Córdoba. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela se propone introducir a la comunidad científica y profesional latinoamericana en los aspectos básicos y aplicados de las herramientas de monitoreo ambiental disponibles desarrolladas sobre las bases de la tecnología espacial, técnicas convencionales de laboratorio y nanotecnología, para desarrollar planes integrados de monitoreo de contaminantes en agua, aire y suelo. Estas propuestas se orientarán a generar herramientas para cuantificar la evolución espacio-temporal de indicadores de calidad ambiental que permitan evaluar el nivel de cumplimiento de las metas de desarrollo sostenible 2030, relacionadas con la preservación de los recursos agua, aire y suelo y los servicios ecositémicos que éstos brindan en la región de Latinoamérica. Fecha de inscripciónHasta el 22 de julio de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2100,20 +1739,9 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/global-tec</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-de-monitoreo-ambiental</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2121,12 +1749,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Herramientas digitales para la docencia e investigación en evolución</t>
+          <t>Gestión sustentable de residuos agropecuarios</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Se otorgarán 20 becas para estudiantes de posgrado e investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La Evolución es sin lugar a dudas el eje conceptual de la biología moderna, y es la gran área temática donde confluyen las ramas fundacionales de la biología cuantitativa. Hoy en día muchos procesos evolutivos pueden ser estudiados utilizando organismos digitales, programas de computadora capaces de auto-replicarse que compiten por recursos computacionales provistos en un entorno. Una verdadera revolución en la forma de (re)crear procesos biológicos está emergiendo de su estudio. La plataforma Avida-ED es una aplicación desarrollada recientemente, diseñada específicamente para ser utilizada en ámbitos académicos que involucren la formación y la investigación de la Evolución. Estudiantes de biología, química, física, matemática, computación y otras disciplinas podrán diseñar y realizar experimentos para confrontar hipótesis sobre los mecanismos evolutivos. Utilizando organismos digitales, observando sus comportamientos, colectando la data y realizando las mediciones estadísticas apropiadas, los usuarios ganan experiencia no sólo en los conceptos de la evolución misma sino también en la naturaleza y práctica del desarrollo científico fundamental. Fecha de inscripciónHasta el 20 de marzo de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 35 becas para estudiantes de posgrado e investigadores que residan en Latinoamérica y a más de 70km de Córdoba. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula. Además hay 10 vacantes para quienes vivan a menos de 70km de Córdoba o no requieran beca.La actividad propuesta aborda la temática de la gestión de residuos y efluentes de la producción animal, atendiendo a la intensificación que se viene desarrollando en la producción ganadera en la región. Los temas a tratar durante el seminario son los sistemas de producción y su impacto en el ambiente, el análisis de flujo de nutrientes a diferentes escalas, los problemas generados por olores, patógenos, contaminación del agua, emisiones de amoníaco, emisiones de gases de efecto invernadero, contaminación por fósforo y residuos de drogas veterinarias y el uso de recursos en sistemas de producción animal. Fecha de inscripciónHasta el 20 de enero de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2147,20 +1775,9 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/herramientas-digitales-para-la-docencia-e-investigacion-en-evolucion</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/gestion-sustentable-de-residuos-agropecuarios</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2168,17 +1785,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Israel Innovation Awards 2019</t>
+          <t>Global Tec - Programa de aceleración y globalización para proyectos científico-tecnológicos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es promover la cooperación tecnológica entre empresas y emprendedores argentinos e israelíes por medio de la incorporación de conocimiento en el proceso productivo, para mejorar la calidad de vida de la sociedad y la competitividad de las empresas, y fomentar la colaboración del sector privado con los centros de investigación.Sobre la convocatoriaEstá dirigida a emprendedores y empresas de base tecnológica argentinas y tiene como propósito promover su internacionalización, poniendo al alcance del participante o empresa seleccionada la posibilidad de visitar Israel, conocer su ecosistema de innovación, presentar sus productos y encontrar socios estratégicos para el desarrollo de sus ideas.Israel Innovation Awards es un iniciativa de la Secretaría de Ciencia, Tecnología e Innovación Productiva, la Cámara de Comercio Argentino Israelí, la Bolsa de Comercio de Rosario y la Embajada de Israel en Argentina Fecha de cierre30 de julio de 2019Cómo participarPueden aplicar empresas radicadas en Argentina o emprendedores de todas las áreas de la industria, pero serán considerados preferentemente proyectos que se enmarquen en innovación para las temáticas de agtech.El equipo ganador obtendrá un premio consistente en un pasaje ida y vuelta en clase turista, alojamiento durante una semana en habitación doble, y seguro médico para uno de sus integrantes.Además, recibirá asistencia en la elaboración de una agenda de reuniones orientada a explorar potenciales asociaciones con empresas locales de base tecnológica, laboratorios, universidades, centros de investigación y/o polos tecnológicos que desarrollen temas relacionados al proyecto ganador.Bases y condicionesContacto: [email protected]---</t>
+          <t>El objetivo es identificar innovaciones basadas en el conocimiento, con alto potencial de comercialización y en un sector de alto crecimiento y potenciarlos a través de formación e inversión privada, además de preparar los proyectos para el encuentro con inversores internacionales.Podrán participar emprendedores que cuenten con un proyecto de base científica y/o tecnológica, y Personas Jurídicas inscriptas y legalmente constituidas Nueva fecha de cierre17 de mayo de 2019Los proyectos seleccionados recibirán capacitación con referentes internacionales, validación del modelo de negocios con expertos, mentoring personalizado y pitch day con potenciales inversores nacionales e internacionales. Más informaciónGlobal Tec - Programa de aceleración y globalización para proyectos científico-tecnológicos---</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>30 de julio de 2019</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2194,20 +1811,9 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/israel-innovation-awards-2019</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/global-tec</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2215,12 +1821,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Premio Arcor a la Innovación</t>
+          <t>Herramientas digitales para la docencia e investigación en evolución</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>El objetivo es fomentar la cultura de la innovación y apoyar el desarrollo tecnológico en el sector alimentario, para que impacte positivamente en la comunidad.La iniciativa busca reconocer y estimular el talento y las actitudes emprendedoras, promover la gestión integral de la innovación y contribuir a la vinculación de los sectores científico e industrial, facilitando la transferencia científica y tecnológica. Fecha límite30 de abril de 2019En este marco, Fundación Arcor entregará una “Mención Especial” para aquel proyecto que tenga un marcado perfil social y que presente un aporte explícito al mejoramiento de las condiciones de vida de la infancia, especialmente atendiendo a necesidades de grupos en situación de vulnerabilidad. Más informaciónPremio Arcor a la Innovación---</t>
+          <t>Se otorgarán 20 becas para estudiantes de posgrado e investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La Evolución es sin lugar a dudas el eje conceptual de la biología moderna, y es la gran área temática donde confluyen las ramas fundacionales de la biología cuantitativa. Hoy en día muchos procesos evolutivos pueden ser estudiados utilizando organismos digitales, programas de computadora capaces de auto-replicarse que compiten por recursos computacionales provistos en un entorno. Una verdadera revolución en la forma de (re)crear procesos biológicos está emergiendo de su estudio. La plataforma Avida-ED es una aplicación desarrollada recientemente, diseñada específicamente para ser utilizada en ámbitos académicos que involucren la formación y la investigación de la Evolución. Estudiantes de biología, química, física, matemática, computación y otras disciplinas podrán diseñar y realizar experimentos para confrontar hipótesis sobre los mecanismos evolutivos. Utilizando organismos digitales, observando sus comportamientos, colectando la data y realizando las mediciones estadísticas apropiadas, los usuarios ganan experiencia no sólo en los conceptos de la evolución misma sino también en la naturaleza y práctica del desarrollo científico fundamental. Fecha de inscripciónHasta el 20 de marzo de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2241,20 +1847,9 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-arcor-la-innovacion</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/herramientas-digitales-para-la-docencia-e-investigacion-en-evolucion</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2262,17 +1857,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Premio a la Innovación en Ciencias de la Salud</t>
+          <t>Israel Innovation Awards 2019</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>El objetivo es fomentar la cultura de la innovación y apoyar el desarrollo tecnológico en el campo de la salud que genere valor a la sociedad.Podrán participar en la convocatoria aquellos emprendedores que cuenten con un proyecto de base científica y/o tecnológica con el fin de estimular la aceleración de starts up en el campo de la investigación en ciencias básicas y aplicadas en salud. Fecha límite31 de julio de 2019El proyecto seleccionado accederá a un galardón que consistirá en la suma de $ 1.000.000 y un viaje al Centro de Innovación de Merck en la ciudad de Darmstadt, República Federal de Alemania.El Premio es organizado por Merck S.A. junto a la Secretaría de Gobierno de Ciencia, Tecnología e Innovación Productiva. Más informaciónPremio a la Innovación en Ciencias de la Salud---</t>
+          <t>El objetivo de la convocatoria es promover la cooperación tecnológica entre empresas y emprendedores argentinos e israelíes por medio de la incorporación de conocimiento en el proceso productivo, para mejorar la calidad de vida de la sociedad y la competitividad de las empresas, y fomentar la colaboración del sector privado con los centros de investigación.Sobre la convocatoriaEstá dirigida a emprendedores y empresas de base tecnológica argentinas y tiene como propósito promover su internacionalización, poniendo al alcance del participante o empresa seleccionada la posibilidad de visitar Israel, conocer su ecosistema de innovación, presentar sus productos y encontrar socios estratégicos para el desarrollo de sus ideas.Israel Innovation Awards es un iniciativa de la Secretaría de Ciencia, Tecnología e Innovación Productiva, la Cámara de Comercio Argentino Israelí, la Bolsa de Comercio de Rosario y la Embajada de Israel en Argentina Fecha de cierre30 de julio de 2019Cómo participarPueden aplicar empresas radicadas en Argentina o emprendedores de todas las áreas de la industria, pero serán considerados preferentemente proyectos que se enmarquen en innovación para las temáticas de agtech.El equipo ganador obtendrá un premio consistente en un pasaje ida y vuelta en clase turista, alojamiento durante una semana en habitación doble, y seguro médico para uno de sus integrantes.Además, recibirá asistencia en la elaboración de una agenda de reuniones orientada a explorar potenciales asociaciones con empresas locales de base tecnológica, laboratorios, universidades, centros de investigación y/o polos tecnológicos que desarrollen temas relacionados al proyecto ganador.Bases y condicionesContacto: [email protected]---</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
+          <t>30 de julio de 2019</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2288,20 +1883,9 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-la-innovacion-en-ciencias-de-la-salud</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/israel-innovation-awards-2019</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2309,12 +1893,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyectos de investigación conjunta entre Argentina y Francia: Ecos 2019</t>
+          <t>Premio Arcor a la Innovación</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Proyectos seleccionadosConsultá el listado de proyectos aprobadosEl objetivo de la convocatoria es fortalecer la cooperación científica e intensificar las relaciones entre los centros de investigación y las universidades de Argentina y Francia, a través de la presentación de proyectos conjuntos de investigación que incluyan el intercambio de científicos.Sobre la convocatoriaSe encuentra abierta la convocatoria a la presentación de proyectos de investigación conjunta entre grupos de Argentina y Francia, en el marco del Programa de Cooperación que desarrollan la Secretaría de Gobierno de Ciencia, Tecnología e Innovación Productiva y ECOS de Francia. Nueva fecha de cierre1 de julio de 2019.Los proyectos fueron acordados entre dos o más grupos de investigación de los dos países con objetivos a alcanzar claramente definidos dentro de un cronograma establecido, implementado a través del intercambio de personas y abarcarán la investigación en las siguientes áreas temáticas:Salud y sociedad: enfermedades infecciosas, emergentes, raras. Dinámica de vectores. Estrategias profilácticas y terapéuticas nuevas. Influencia de modificaciones climáticas. Desarrollo de fármacos. Desarrollo de métodos de diagnóstico. Aspectos sociales.Nanociencias et nanotecnología, ciencias y tecnologías de la información: Materiales auto-ensamblados. Materiales para producción y almacenamiento de energía. Materiales para nano-medicina. Almacenamiento de la información. Materiales para sensores y actuadoresComputación cuántica. Tecnologías de transmisión de información. Computación en la nube (Cloud Computing). Industrial Intelligent Internet of Things (Edge Computing). Seguridad y PrivacidadMigraciones, urbanización, y desigualdad social. Causalidad y casualidad, historia. Comunicaciones y desplazamientos. Aspectos sanitarios. Evolución a largo plazo, ciudades inteligentes. Impacto y toma en cuenta de modificaciones climáticas. Educación y capacitación laboral.Agro-economía y alimentación sostenibles. Relaciones con los ecosistemas naturales. Aspectos sanitarios (plantas, animales, hombre). Aspectos económicos et jurídicos. Agro-ecología. Desarrollos concertados y/o interrelacionados urbanos y agrícolas.Cómo participarLos proyectos deberán ser avalados por los directores (uno argentino y otro francés) debidamente habilitados para dirigir las investigaciones y presentar las garantías de los recursos operacionales (fuentes de financiación). Cada director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación, en su país. La presentación deberá ser simultánea e idéntica en ambos países.El criterio fundamental de selección es la excelencia del proyecto y la calidad de los investigadores y equipos participantes y de ser posible que tenga impacto sobre la formación de investigadores jóvenes.Para conocer las especificaciones del llamado consultá las bases.---</t>
+          <t>El objetivo es fomentar la cultura de la innovación y apoyar el desarrollo tecnológico en el sector alimentario, para que impacte positivamente en la comunidad.La iniciativa busca reconocer y estimular el talento y las actitudes emprendedoras, promover la gestión integral de la innovación y contribuir a la vinculación de los sectores científico e industrial, facilitando la transferencia científica y tecnológica. Fecha límite30 de abril de 2019En este marco, Fundación Arcor entregará una “Mención Especial” para aquel proyecto que tenga un marcado perfil social y que presente un aporte explícito al mejoramiento de las condiciones de vida de la infancia, especialmente atendiendo a necesidades de grupos en situación de vulnerabilidad. Más informaciónPremio Arcor a la Innovación---</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2335,20 +1919,9 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/ecos2019</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-arcor-la-innovacion</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2356,12 +1929,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Seminario: instrumentos y metodologías para un observatorio del clima y su impacto en la salud humana</t>
+          <t>Premio a la Innovación en Ciencias de la Salud</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Se otorgarán 15 becas para latinoamericanos que residan en Latinoamérica y a más de 70km de Ciudad Autónoma de Buenos Aires (CABA). Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El desarrollo de las sociedades y de las personas está en estrecha relación con las condiciones del ambiente en que se encuentran. La relación del clima con la salud humana es ineludible para la salud pública. Se adopten o no acciones para mitigar el cambio climático, harán falta estrategias de adaptación orientadas a proteger la salud pública.Los objetivos de este seminario consisten en que los/las asistentes logren reconocer al ambiente en general y al clima en particular como determinante de la salud, comprender la forma de generación de información meteorológica y de salud pública, conocer y utilizar los instrumentos y metodologías de análisis para el estudio de la relación de la variabilidad climática y el cambio climático con la salud de las poblaciones, disponer de las herramientas para desarrollar y/o participar de un observatorio de clima y salud para América Latina. Fecha de inscripciónHasta el 22 de julio de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>El objetivo es fomentar la cultura de la innovación y apoyar el desarrollo tecnológico en el campo de la salud que genere valor a la sociedad.Podrán participar en la convocatoria aquellos emprendedores que cuenten con un proyecto de base científica y/o tecnológica con el fin de estimular la aceleración de starts up en el campo de la investigación en ciencias básicas y aplicadas en salud. Fecha límite31 de julio de 2019El proyecto seleccionado accederá a un galardón que consistirá en la suma de $ 1.000.000 y un viaje al Centro de Innovación de Merck en la ciudad de Darmstadt, República Federal de Alemania.El Premio es organizado por Merck S.A. junto a la Secretaría de Gobierno de Ciencia, Tecnología e Innovación Productiva. Más informaciónPremio a la Innovación en Ciencias de la Salud---</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2382,20 +1955,9 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/seminario-observatorio-del-clima</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-la-innovacion-en-ciencias-de-la-salud</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2403,12 +1965,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Técnicas de regresión y análisis multivariado con R</t>
+          <t>Proyectos de investigación conjunta entre Argentina y Francia: Ecos 2019</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Se otorgarán 20 becas para estudiantes de posgrado e investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Las técnicas de regresión y el análisis de datos multivariados tienen por objeto el estudio estadístico de varias variables medidas en elementos de una población. Los modelos de regresión se utilizan para estudiar el efecto que diversas variables pueden tener en una variable de interés y son de aplicación en todos los ámbitos experimentales. Las técnicas de análisis multivariado, que comenzaron a desarrollarse para resolver problemas de clasificación en biología, tienen aplicaciones en todos los campos científicos. En este curso se brindarán los conocimientos fundamentales y una visión general de los procedimientos estadísticos aplicables en distintas áreas, con una visión práctica que permite identificar la metodología óptima de distintas situaciones.El curso está dirigido a estudiantes de posgrado y profesionales en ciencias experimentales, Matemáticas, Estadística y, en general, de cualquier rama de la ciencia que requiera el estudio de datos experimentales. El desarrollo de los contenidos se efectúa a través de ejemplos y ejercicios prácticos para favorecer el aprendizaje. Se requieren conocimientos previos en estadística. Fecha de inscripciónHasta el 20 de enero de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Proyectos seleccionadosConsultá el listado de proyectos aprobadosEl objetivo de la convocatoria es fortalecer la cooperación científica e intensificar las relaciones entre los centros de investigación y las universidades de Argentina y Francia, a través de la presentación de proyectos conjuntos de investigación que incluyan el intercambio de científicos.Sobre la convocatoriaSe encuentra abierta la convocatoria a la presentación de proyectos de investigación conjunta entre grupos de Argentina y Francia, en el marco del Programa de Cooperación que desarrollan la Secretaría de Gobierno de Ciencia, Tecnología e Innovación Productiva y ECOS de Francia. Nueva fecha de cierre1 de julio de 2019.Los proyectos fueron acordados entre dos o más grupos de investigación de los dos países con objetivos a alcanzar claramente definidos dentro de un cronograma establecido, implementado a través del intercambio de personas y abarcarán la investigación en las siguientes áreas temáticas:Salud y sociedad: enfermedades infecciosas, emergentes, raras. Dinámica de vectores. Estrategias profilácticas y terapéuticas nuevas. Influencia de modificaciones climáticas. Desarrollo de fármacos. Desarrollo de métodos de diagnóstico. Aspectos sociales.Nanociencias et nanotecnología, ciencias y tecnologías de la información: Materiales auto-ensamblados. Materiales para producción y almacenamiento de energía. Materiales para nano-medicina. Almacenamiento de la información. Materiales para sensores y actuadoresComputación cuántica. Tecnologías de transmisión de información. Computación en la nube (Cloud Computing). Industrial Intelligent Internet of Things (Edge Computing). Seguridad y PrivacidadMigraciones, urbanización, y desigualdad social. Causalidad y casualidad, historia. Comunicaciones y desplazamientos. Aspectos sanitarios. Evolución a largo plazo, ciudades inteligentes. Impacto y toma en cuenta de modificaciones climáticas. Educación y capacitación laboral.Agro-economía y alimentación sostenibles. Relaciones con los ecosistemas naturales. Aspectos sanitarios (plantas, animales, hombre). Aspectos económicos et jurídicos. Agro-ecología. Desarrollos concertados y/o interrelacionados urbanos y agrícolas.Cómo participarLos proyectos deberán ser avalados por los directores (uno argentino y otro francés) debidamente habilitados para dirigir las investigaciones y presentar las garantías de los recursos operacionales (fuentes de financiación). Cada director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación, en su país. La presentación deberá ser simultánea e idéntica en ambos países.El criterio fundamental de selección es la excelencia del proyecto y la calidad de los investigadores y equipos participantes y de ser posible que tenga impacto sobre la formación de investigadores jóvenes.Para conocer las especificaciones del llamado consultá las bases.---</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2416,7 +1978,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/convocatorias_ecos_2019_-_proyectos_aprobados.pdf</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>2019</t>
@@ -2429,20 +1995,9 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/tecnicas-de-regresion-y-analisis-multivariado-con-r</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/ecos2019</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2450,23 +2005,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Actividades de promoción del emprendedorismo tecnológico</t>
+          <t>Seminario: instrumentos y metodologías para un observatorio del clima y su impacto en la salud humana</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es financiar actividades de promoción del emprendedorismo tecnológico a ser realizadas en el marco de la VI Semana Nacional del Emprendedor Tecnológico que se realizará del 17 al 21 de septiembre en todo el país.Las actividades deberán tener como objetivos:a) promover y generar un espacio de participación para estudiantes emprendedores interesados en conocer el mundo empresarial local y regional;b) promover la formación, incorporación de herramientas y desarrollo de habilidades en la detección de oportunidades de negocio de base científica y tecnológica;c) articular las demandas tecnológicas con la oferta científico-tecnológica de la región;d) fortalecer las cadenas productivas territoriales e impulsar el crecimiento y competitividad del sector productivo local o provincial;e) la generación de capacidades de gestión para la creación, el desarrollo y la consolidación de empresas que hagan un uso intensivo del conocimiento científico y tecnológico y que produzcan innovaciones, a través de la articulación con las instituciones del Sistema Nacional de Ciencia, Tecnología e Innovación Productiva. Fecha de cierre5 de septiembre de 2018Más información: VI Semana Nacional del Emprendedor Tecnológico---</t>
+          <t>Se otorgarán 15 becas para latinoamericanos que residan en Latinoamérica y a más de 70km de Ciudad Autónoma de Buenos Aires (CABA). Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El desarrollo de las sociedades y de las personas está en estrecha relación con las condiciones del ambiente en que se encuentran. La relación del clima con la salud humana es ineludible para la salud pública. Se adopten o no acciones para mitigar el cambio climático, harán falta estrategias de adaptación orientadas a proteger la salud pública.Los objetivos de este seminario consisten en que los/las asistentes logren reconocer al ambiente en general y al clima en particular como determinante de la salud, comprender la forma de generación de información meteorológica y de salud pública, conocer y utilizar los instrumentos y metodologías de análisis para el estudio de la relación de la variabilidad climática y el cambio climático con la salud de las poblaciones, disponer de las herramientas para desarrollar y/o participar de un observatorio de clima y salud para América Latina. Fecha de inscripciónHasta el 22 de julio de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5 de septiembre de 2018</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2476,20 +2031,9 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/actividades-de-promocion-del-emprendedorismo-tecnologico</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/seminario-observatorio-del-clima</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2497,27 +2041,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Becas de investigación en Londres</t>
+          <t>Técnicas de regresión y análisis multivariado con R</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Se financiarán colaboraciones de investigación entre especialistas argentinos y de las instituciones del Reino Unido.Sobre la convocatoriaLa propuesta conlleva el intercambio de científicos con experiencia a nivel posdoctoral de Argentina y el Francis Crick Institute de Londres en proyectos financiados por GlaxoSmithKline (GSK) y el Ministerio de Ciencia, Tecnología e Innovación Productiva de la Argentina.Se financiará bajo la modalidad de “beca de investigación” hasta tres científicos de Argentina para que realicen proyectos de investigación, quienes serán recibidos por el Crick Institute y estarán plenamente integrados y participarán en todas las actividades científicas del Instituto, durante tres años. Fecha de cierre24 de mayo de 2018Cómo participarLos candidatos argentinos deben contar con un doctorado con experiencia relevante en las áreas de inmunología, investigación relacionada con la inflamación u oncología.Los postulantes deben contar con un doctorado en Ciencias Biológicas o Químicas de una Universidad argentina.Los postulantes que sean Investigadores del CONICET o sean beneficiarios de alguna beca de esa institución deberán corroborar la correspondiente elegibilidad con su Departamento de Recursos Humanos.Deberán incluir sus CV completos en ingles en la solicitud y recibir el completo apoyo de sus instituciones. Más informaciónDirección Nacional de Cooperación e Integración Institucional: Maria Eugenia Godoy, [email protected]---</t>
+          <t>Se otorgarán 20 becas para estudiantes de posgrado e investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Las técnicas de regresión y el análisis de datos multivariados tienen por objeto el estudio estadístico de varias variables medidas en elementos de una población. Los modelos de regresión se utilizan para estudiar el efecto que diversas variables pueden tener en una variable de interés y son de aplicación en todos los ámbitos experimentales. Las técnicas de análisis multivariado, que comenzaron a desarrollarse para resolver problemas de clasificación en biología, tienen aplicaciones en todos los campos científicos. En este curso se brindarán los conocimientos fundamentales y una visión general de los procedimientos estadísticos aplicables en distintas áreas, con una visión práctica que permite identificar la metodología óptima de distintas situaciones.El curso está dirigido a estudiantes de posgrado y profesionales en ciencias experimentales, Matemáticas, Estadística y, en general, de cualquier rama de la ciencia que requiera el estudio de datos experimentales. El desarrollo de los contenidos se efectúa a través de ejemplos y ejercicios prácticos para favorecer el aprendizaje. Se requieren conocimientos previos en estadística. Fecha de inscripciónHasta el 20 de enero de 2019 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>24 de mayo de 2018</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases_convocatoria_esp.pdf</t>
-        </is>
-      </c>
+          <t>Ventanilla permanente</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2527,20 +2067,9 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-de-investigacion-en-londres</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/tecnicas-de-regresion-y-analisis-multivariado-con-r</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2548,17 +2077,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Becas para Escuela de Simulación Computacional de Biomoléculas</t>
+          <t>Actividades de promoción del emprendedorismo tecnológico</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Se otorgarán 10 becas para estudiantes de posgrado y jóvenes investigadores en las áreas de Bioquímica, Química, Biología, Física, Computación, Farmacia, Ingeniería Química, Biotecnología, Bioinformática que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa Escuela de Simulación Computacional de Biomoléculas tiene como objetivo brindar a estudiantes de posgrado y jóvenes investigadores en las áreas de Física, Química, Computación, Ingeniería, Materiales y afines de los conceptos teóricos y herramientas necesarias para utilizar los métodos de simulación computacional en el desarrollo de sus temas de investigación relacionados con la ciencia de materiales. El curso está orientado a quienes trabajen en estas áreas, como a aquellos que empleen técnicas experimentales y deseen familiarizarse con la simulación computacional como herramienta accesoria. Fecha de inscripciónDel 28/03/18 al 1/05/18 a las 23.59hs de Argentina.La escuela tiene una duración de dos semanas, durante la primera semana se abordan los fundamentos de las técnicas de simulación computacional en química y, en la segunda semana, se desarrollan temas específicos de simulación en biomoléculas Además, se realizan prácticas en laboratorios de computación. Fecha de realizaciónDel 30 de julio al 10 de agosto de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>El objetivo de la convocatoria es financiar actividades de promoción del emprendedorismo tecnológico a ser realizadas en el marco de la VI Semana Nacional del Emprendedor Tecnológico que se realizará del 17 al 21 de septiembre en todo el país.Las actividades deberán tener como objetivos:a) promover y generar un espacio de participación para estudiantes emprendedores interesados en conocer el mundo empresarial local y regional;b) promover la formación, incorporación de herramientas y desarrollo de habilidades en la detección de oportunidades de negocio de base científica y tecnológica;c) articular las demandas tecnológicas con la oferta científico-tecnológica de la región;d) fortalecer las cadenas productivas territoriales e impulsar el crecimiento y competitividad del sector productivo local o provincial;e) la generación de capacidades de gestión para la creación, el desarrollo y la consolidación de empresas que hagan un uso intensivo del conocimiento científico y tecnológico y que produzcan innovaciones, a través de la articulación con las instituciones del Sistema Nacional de Ciencia, Tecnología e Innovación Productiva. Fecha de cierre5 de septiembre de 2018Más información: VI Semana Nacional del Emprendedor Tecnológico---</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
+          <t>5 de septiembre de 2018</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2574,20 +2103,9 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-escuela-de-simulacion-computacional-de-biomoleculas</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/actividades-de-promocion-del-emprendedorismo-tecnologico</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2595,22 +2113,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Becas para Escuela de Simulación Molecular de Materiales</t>
+          <t>Becas de investigación en Londres</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Se otorgarán 10 becas para estudiantes de posgrado y jóvenes investigadores en las áreas de Física, Química, Computación, Ingeniería, Materiales que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa Escuela de Simulación Molecular de Materiales tiene como objetivo brindar a estudiantes de posgrado y jóvenes investigadores en las áreas de Física, Química, Computación, Ingeniería, Materiales y afines de los conceptos teóricos y herramientas necesarias para utilizar los métodos de simulación computacional en el desarrollo de sus temas de investigación relacionados con la ciencia de materiales. El curso está orientado a quienes trabajen en estas áreas, como a aquellos que empleen técnicas experimentales y deseen familiarizarse con la simulación computacional como herramienta accesoria. Fechas de presentaciónDel 28/3/18 al 1/05/18 a las 23.59hs de Argentina.La escuela tiene una duración de dos semanas, durante la primera semana se abordan los fundamentos de las técnicas de simulación computacional en química y, en la segunda semana, se desarrollan temas específicos de simulación en materiales. Además, se realizan prácticas en laboratorios de computación. Fecha de realizaciónDel 30 de julio al 10 de agosto de 2018.Más información[Centro Latinoamericano de Formación Interdisciplinaria](http://www.celfi.gob.ar/programas/detalle?p=98---</t>
+          <t>Se financiarán colaboraciones de investigación entre especialistas argentinos y de las instituciones del Reino Unido.Sobre la convocatoriaLa propuesta conlleva el intercambio de científicos con experiencia a nivel posdoctoral de Argentina y el Francis Crick Institute de Londres en proyectos financiados por GlaxoSmithKline (GSK) y el Ministerio de Ciencia, Tecnología e Innovación Productiva de la Argentina.Se financiará bajo la modalidad de “beca de investigación” hasta tres científicos de Argentina para que realicen proyectos de investigación, quienes serán recibidos por el Crick Institute y estarán plenamente integrados y participarán en todas las actividades científicas del Instituto, durante tres años. Fecha de cierre24 de mayo de 2018Cómo participarLos candidatos argentinos deben contar con un doctorado con experiencia relevante en las áreas de inmunología, investigación relacionada con la inflamación u oncología.Los postulantes deben contar con un doctorado en Ciencias Biológicas o Químicas de una Universidad argentina.Los postulantes que sean Investigadores del CONICET o sean beneficiarios de alguna beca de esa institución deberán corroborar la correspondiente elegibilidad con su Departamento de Recursos Humanos.Deberán incluir sus CV completos en ingles en la solicitud y recibir el completo apoyo de sus instituciones. Más informaciónDirección Nacional de Cooperación e Integración Institucional: Maria Eugenia Godoy, [email protected]---</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
+          <t>24 de mayo de 2018</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases_escuela_de_simulacion_molecular_de_materiales_-_celfi.pdf, https://www.argentina.gob.ar/sites/default/files/cronograma_tentativo_escuela_de_simulacion_molecular_de_materiales.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_convocatoria_esp.pdf</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2625,20 +2143,9 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-escuela-de-simulacion-molecular-de-materiales</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-de-investigacion-en-londres</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2646,12 +2153,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Becas para Escuela de invierno J. J. Giambiagi</t>
+          <t>Becas para Escuela de Simulación Computacional de Biomoléculas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Se otorgarán 20 becas para la Escuela de Invierno J.J. Giambiagi a estudiantes graduados e investigadores jóvenes que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. En esta edición la escuela abordará temáticas que relacionan a la física con el área de la salud. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa Escuela de Invierno J.J. Giambiagi tiene como objetivos presentar a los participantes las principales líneas de investigación en la temática a nivel mundial, con especial foco en la actividad transdisciplinar y multidisciplinar de los físicos en el ambiente de la salud, y crear un ámbito para que los investigadores junto con los participantes puedan intercambiar ideas, puntos de vista y explorar diferentes perspectivas de colaboración, tanto a nivel nacional como internacional. Fechas de presentaciónDel 28/03/2018 hasta 01/05/2018 a las 23.59 hs de Argentina.El primer objetivo será abordado mediante la realización de clases teóricas. Además, se realizarán dos mesas redondas en las que intervendrán los oradores junto con expertos locales de diferentes disciplinas en las que discutirá acerca de: análisis cuantitativo de imágenes, bioinformática, medicina personalizada, biomarcadores y big data para tratamiento de datos clínicos.En el marco del segundo objetivo está prevista la realización de una hackaton: actividad interactiva con los oradores e invitados donde se propondrán problemas a los alumnos a ser abordados con un enfoque transdisciplinario. Se hará un hincapié especial en la utilización de herramientas de Big Data en el tratamiento de datos clínicos para identificación de posibles problemáticas y evaluación de impacto de intervenciones. Fecha de realizaciónDel 30 de julio al 3 de agosto de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 10 becas para estudiantes de posgrado y jóvenes investigadores en las áreas de Bioquímica, Química, Biología, Física, Computación, Farmacia, Ingeniería Química, Biotecnología, Bioinformática que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa Escuela de Simulación Computacional de Biomoléculas tiene como objetivo brindar a estudiantes de posgrado y jóvenes investigadores en las áreas de Física, Química, Computación, Ingeniería, Materiales y afines de los conceptos teóricos y herramientas necesarias para utilizar los métodos de simulación computacional en el desarrollo de sus temas de investigación relacionados con la ciencia de materiales. El curso está orientado a quienes trabajen en estas áreas, como a aquellos que empleen técnicas experimentales y deseen familiarizarse con la simulación computacional como herramienta accesoria. Fecha de inscripciónDel 28/03/18 al 1/05/18 a las 23.59hs de Argentina.La escuela tiene una duración de dos semanas, durante la primera semana se abordan los fundamentos de las técnicas de simulación computacional en química y, en la segunda semana, se desarrollan temas específicos de simulación en biomoléculas Además, se realizan prácticas en laboratorios de computación. Fecha de realizaciónDel 30 de julio al 10 de agosto de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2659,7 +2166,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_escuela_de_simulacion_computacional_de_biomoleculas.pdf, https://www.argentina.gob.ar/sites/default/files/cronograma_tentativo_escuela_de_simulacion_computacional_de_biomoleculas.pdf</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>2018</t>
@@ -2672,20 +2183,9 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-escuela-de-invierno-j-j-giambiagi</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-escuela-de-simulacion-computacional-de-biomoleculas</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2693,12 +2193,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Becas para curso de desarrollo económico y medio ambiente</t>
+          <t>Becas para Escuela de Simulación Molecular de Materiales</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Se otorgarán 30 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadEl curso tiene como objetivo fundamental profundizar los conocimientos sobre el análisis del desarrollo económico y el medio ambiente, en cuanto a la relación entre estilos de desarrollo y calidad ambiental, el uso de instrumentos económicos y no económicos, las regulaciones y la política ambiental para enfrentar los problemas ambientales. Fechas de presentaciónDel 28/03/18 al 1/05/18 a las 23.59 hs de Argentina.Se discutirán la forma en que la economía y las ciencias del ambiente, como disciplinas de conocimiento, se aproximan al estudio de los problemas ambientales, su monitoreo y control y se desarrollarán algunos instrumentos de análisis económico y de otras ciencias que permitan comprender problemas de carácter general, como son los referidos a la gestión económica de recursos naturales, la definición de instrumentos de política ambiental, los métodos de valoración económica de los cambios en la calidad ambiental, con una propuesta de incorporación de los sensores remotos y los SIG como instrumentos adecuados para obtener una visión oportuna y certera sobre los retos de la sustentabilidad de los modelos de desarrollo económico imperantes en América Latina. Fecha de realizaciónDel 23 de julio al 1 de agosto de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 10 becas para estudiantes de posgrado y jóvenes investigadores en las áreas de Física, Química, Computación, Ingeniería, Materiales que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa Escuela de Simulación Molecular de Materiales tiene como objetivo brindar a estudiantes de posgrado y jóvenes investigadores en las áreas de Física, Química, Computación, Ingeniería, Materiales y afines de los conceptos teóricos y herramientas necesarias para utilizar los métodos de simulación computacional en el desarrollo de sus temas de investigación relacionados con la ciencia de materiales. El curso está orientado a quienes trabajen en estas áreas, como a aquellos que empleen técnicas experimentales y deseen familiarizarse con la simulación computacional como herramienta accesoria. Fechas de presentaciónDel 28/3/18 al 1/05/18 a las 23.59hs de Argentina.La escuela tiene una duración de dos semanas, durante la primera semana se abordan los fundamentos de las técnicas de simulación computacional en química y, en la segunda semana, se desarrollan temas específicos de simulación en materiales. Además, se realizan prácticas en laboratorios de computación. Fecha de realizaciónDel 30 de julio al 10 de agosto de 2018.Más información[Centro Latinoamericano de Formación Interdisciplinaria](http://www.celfi.gob.ar/programas/detalle?p=98---</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2706,7 +2206,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_escuela_de_simulacion_molecular_de_materiales_-_celfi.pdf, https://www.argentina.gob.ar/sites/default/files/cronograma_tentativo_escuela_de_simulacion_molecular_de_materiales.pdf</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>2018</t>
@@ -2719,20 +2223,9 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-curso-de-desarrollo-economico-y-medio-ambiente</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-escuela-de-simulacion-molecular-de-materiales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2740,12 +2233,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Becas para escuela de procesamiento de información en sistemas biológicos</t>
+          <t>Becas para Escuela de invierno J. J. Giambiagi</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Se otorgarán 25 becas para investigadores con formación en biología, matemática, física, bioquímica o computación que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadEl tema central de la actividad es el procesamiento de información en sistemas biológicos. Los cursos abordan distintos aspectos claves como el procesamiento de la información en la transmisión de señales a nivel celular y en procesos de reacción y transporte en sistemas vivos, con especial interés en formación de patrones y morfogénesis en desarrollo embrionario. Fechas de presentaciónDel 19/3/18 al 22/04/18 a las 23.59 hs de Argentina.La escuela proporcionará a los participantes una visión accesible y contemporánea de las preguntas más interesantes del procesamiento de la información en sistemas biológicos, los posibles enfoques experimentales y teóricos que se usan para responder estas preguntas y las variadas herramientas que pueden utilizarse para comprender la compleja dinámica del comportamiento celular. Fecha de realizaciónDel 11 al 22 de junio de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 20 becas para la Escuela de Invierno J.J. Giambiagi a estudiantes graduados e investigadores jóvenes que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. En esta edición la escuela abordará temáticas que relacionan a la física con el área de la salud. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa Escuela de Invierno J.J. Giambiagi tiene como objetivos presentar a los participantes las principales líneas de investigación en la temática a nivel mundial, con especial foco en la actividad transdisciplinar y multidisciplinar de los físicos en el ambiente de la salud, y crear un ámbito para que los investigadores junto con los participantes puedan intercambiar ideas, puntos de vista y explorar diferentes perspectivas de colaboración, tanto a nivel nacional como internacional. Fechas de presentaciónDel 28/03/2018 hasta 01/05/2018 a las 23.59 hs de Argentina.El primer objetivo será abordado mediante la realización de clases teóricas. Además, se realizarán dos mesas redondas en las que intervendrán los oradores junto con expertos locales de diferentes disciplinas en las que discutirá acerca de: análisis cuantitativo de imágenes, bioinformática, medicina personalizada, biomarcadores y big data para tratamiento de datos clínicos.En el marco del segundo objetivo está prevista la realización de una hackaton: actividad interactiva con los oradores e invitados donde se propondrán problemas a los alumnos a ser abordados con un enfoque transdisciplinario. Se hará un hincapié especial en la utilización de herramientas de Big Data en el tratamiento de datos clínicos para identificación de posibles problemáticas y evaluación de impacto de intervenciones. Fecha de realizaciónDel 30 de julio al 3 de agosto de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2753,7 +2246,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_escuela_giambiagi.pdf, https://www.argentina.gob.ar/sites/default/files/cronograma_tentativo_escuela_giambiagi.pdf</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>2018</t>
@@ -2766,20 +2263,9 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-escuela-de-procesamiento-de-informacion-en-sistemas-biologicos</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-escuela-de-invierno-j-j-giambiagi</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2787,12 +2273,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Becas para la Escuela Argentina de Matemática y Biología</t>
+          <t>Becas para curso de desarrollo económico y medio ambiente</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Se otorgarán 30 becas para la formación de investigadores de las ciencias naturales y exactas que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa Escuela Argentina de Matemática y Biología (BIOMAT) busca fomentar la formación y colaboración entre investigadores de las ciencias naturales y exactas, con el fin de constituirse como un espacio de construcción de equipos interdisciplinarios capaces de elaborar y desarrollar investigación con proyección local, nacional e internacional.La edición 2018 está orientada a la construcción de modelos matemáticos para el estudio de la dinámica de sistemas ecológicos sustentables, principalmente enfocada en agroecosistemas bajo manejo agroecológico, es decir, basada en los procesos ecológicos y no en la aplicación de insumos externos como en la agricultura convencional. En este contexto, se introducirán conceptos y prácticas de la Matemática, la Ecología y la Agroecología, que permitan estudiar la dinámica de agroecosistemas sustentables bajo distintos escenarios ecológicos, contribuyendo así al desarrollo de una agricultura sustentable para América Latina.Finalizada la Escuela, se desarrollará un Simposio donde se expondrán trabajos científicos relacionados principalmente con la temática y estudios que brinden una perspectiva integradora y actualizada del abordaje de problemas biológicos a través del modelado matemático. Fecha de realizaciónDel 24 al 29 de junio de 2018.Cómo participarLa inscripción se realiza de forma virtual en la página oficial del CELFI. Es necesario registrarse previamente y luego completar el formulario de inscripción. Fecha de inscripciónDel 19/3/18 al 22/04/18 a las 23.59hs de Argentina.Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 30 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadEl curso tiene como objetivo fundamental profundizar los conocimientos sobre el análisis del desarrollo económico y el medio ambiente, en cuanto a la relación entre estilos de desarrollo y calidad ambiental, el uso de instrumentos económicos y no económicos, las regulaciones y la política ambiental para enfrentar los problemas ambientales. Fechas de presentaciónDel 28/03/18 al 1/05/18 a las 23.59 hs de Argentina.Se discutirán la forma en que la economía y las ciencias del ambiente, como disciplinas de conocimiento, se aproximan al estudio de los problemas ambientales, su monitoreo y control y se desarrollarán algunos instrumentos de análisis económico y de otras ciencias que permitan comprender problemas de carácter general, como son los referidos a la gestión económica de recursos naturales, la definición de instrumentos de política ambiental, los métodos de valoración económica de los cambios en la calidad ambiental, con una propuesta de incorporación de los sensores remotos y los SIG como instrumentos adecuados para obtener una visión oportuna y certera sobre los retos de la sustentabilidad de los modelos de desarrollo económico imperantes en América Latina. Fecha de realizaciónDel 23 de julio al 1 de agosto de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2800,7 +2286,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_curso_medio_ambiente.pdf, https://www.argentina.gob.ar/sites/default/files/cronograma_tentativo_curso_desarrollo_economico_y_medio_ambiente.pdf</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>2018</t>
@@ -2813,20 +2303,9 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-la-escuela-argentina-de-matematica-y-biologia</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-curso-de-desarrollo-economico-y-medio-ambiente</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2834,12 +2313,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Becas para las jornadas internacionales de economía y sociedad</t>
+          <t>Becas para escuela de procesamiento de información en sistemas biológicos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Se otorgarán 20 becas para estudiantes de postgrado de todas las áreas de las ciencias sociales y de las áreas de “ciencias duras” vinculadas a los problemas socioeconómicos del desarrollo y la transferencia de conocimiento y tecnología, que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Las jornadas constituirán un espacio interdisciplinario de formación y discusión sobre desarrollo y sustentabilidad desde el punto de vista de los problemas socioeconómicos que conllevan. Durante cinco días se desarrollarán cursos de postgrado, conferencias, workshops y entrevistas en torno a ejes temáticos, desde perspectivas teóricas, metodológicas y de transferencia. Fecha de inscripciónHasta el 30 de mayo de 2018.Se abordarán problemas socioeconómicos como el desempleo, el atraso tecnológico en la periferia y la desigualdad, en América Latina y a nivel global, considerando que la última crisis económica mundial los agudizó poniendo en entredicho la sustentabilidad económica y social del desarrollo, y dando así un renovado impulso a esta cuestión en distintas disciplinas científicas. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 25 becas para investigadores con formación en biología, matemática, física, bioquímica o computación que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadEl tema central de la actividad es el procesamiento de información en sistemas biológicos. Los cursos abordan distintos aspectos claves como el procesamiento de la información en la transmisión de señales a nivel celular y en procesos de reacción y transporte en sistemas vivos, con especial interés en formación de patrones y morfogénesis en desarrollo embrionario. Fechas de presentaciónDel 19/3/18 al 22/04/18 a las 23.59 hs de Argentina.La escuela proporcionará a los participantes una visión accesible y contemporánea de las preguntas más interesantes del procesamiento de la información en sistemas biológicos, los posibles enfoques experimentales y teóricos que se usan para responder estas preguntas y las variadas herramientas que pueden utilizarse para comprender la compleja dinámica del comportamiento celular. Fecha de realizaciónDel 11 al 22 de junio de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2847,7 +2326,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_procesamiento_de_informacion_de_sistemas_biologicos.pdf, https://www.argentina.gob.ar/sites/default/files/cronograma_tentativo_procesamiento_de_informacion_de_sistemas_biologicos.pdf</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>2018</t>
@@ -2860,20 +2343,9 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-las-jornadas-internacionales-de-economia-y-sociedad</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-escuela-de-procesamiento-de-informacion-en-sistemas-biologicos</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2881,12 +2353,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Becas para taller de abordaje multidisciplinario para la gestión de incendios</t>
+          <t>Becas para la Escuela Argentina de Matemática y Biología</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Se otorgarán 30 becas para latinoamericanos que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadEl taller busca consolidar un abordaje multidisciplinario para el análisis y comprensión de la problemática en la gestión de incendios. Se trabajará en tres ejes:Eje técnico (detección de incendios, fuentes de calor, etc.)Eje social (incendios y conflictos económicos, cómo y cuándo y por qué las comunidades rurales utilizan y utilizaron el fuego, etc.)Eje de gestión (quemas prescritas, control de incendios, prevención de incendios, sistemas operativos de alerta temprana, etc)La actividad está diseñada para ser desarrollada por equipos de trabajo constituidos por participantes de distintos países de Latino América. Es deseable que los equipos puedan incluir al menos un participante que pertenezca a los servicios operativos de manejo del fuego implementados en los diversos países de Latinoamérica y otro que pertenezca al ámbito académico con habilidades en el manejo de computadoras. Fecha de realizaciónDel 4 al 15 de junio de 2018.Cómo participarLa inscripción se realiza de forma virtual en la página oficial del CELFI. Es necesario registrarse previamente y luego completar el formulario de inscripción. Fecha de inscripciónDel 19/03/2018 hasta 22/04/2018 a las 23.59 hs de Argentina.Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 30 becas para la formación de investigadores de las ciencias naturales y exactas que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa Escuela Argentina de Matemática y Biología (BIOMAT) busca fomentar la formación y colaboración entre investigadores de las ciencias naturales y exactas, con el fin de constituirse como un espacio de construcción de equipos interdisciplinarios capaces de elaborar y desarrollar investigación con proyección local, nacional e internacional.La edición 2018 está orientada a la construcción de modelos matemáticos para el estudio de la dinámica de sistemas ecológicos sustentables, principalmente enfocada en agroecosistemas bajo manejo agroecológico, es decir, basada en los procesos ecológicos y no en la aplicación de insumos externos como en la agricultura convencional. En este contexto, se introducirán conceptos y prácticas de la Matemática, la Ecología y la Agroecología, que permitan estudiar la dinámica de agroecosistemas sustentables bajo distintos escenarios ecológicos, contribuyendo así al desarrollo de una agricultura sustentable para América Latina.Finalizada la Escuela, se desarrollará un Simposio donde se expondrán trabajos científicos relacionados principalmente con la temática y estudios que brinden una perspectiva integradora y actualizada del abordaje de problemas biológicos a través del modelado matemático. Fecha de realizaciónDel 24 al 29 de junio de 2018.Cómo participarLa inscripción se realiza de forma virtual en la página oficial del CELFI. Es necesario registrarse previamente y luego completar el formulario de inscripción. Fecha de inscripciónDel 19/3/18 al 22/04/18 a las 23.59hs de Argentina.Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2894,7 +2366,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_biomat.pdf, https://www.argentina.gob.ar/sites/default/files/cronograma_tentativo_biomat.pdf</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>2018</t>
@@ -2907,20 +2383,9 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-taller-de-abordaje-multidisciplinario-para-la-gestion-de-incendios</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-la-escuela-argentina-de-matematica-y-biologia</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2928,12 +2393,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Curso PREMASUL: métodos innovadores in vitro para evaluación de sensibilización cutánea</t>
+          <t>Becas para las jornadas internacionales de economía y sociedad</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>El Centro Argentino Brasileño de Biotecnología convoca al curso de métodos innovadores in vitro para evaluación de sensibilización cutánea de la Plataforma Regional de Métodos Alternativos de MERCOSUR – PReMASUL.El curso se realizará del 22 a 26 de octubre de 2018 en el Laboratorio de Farmacología y Toxicología Celular de la Facultad de Farmacia de la Universidad Federal de Goiás, Brasil. Fecha de inscripciónHasta el 6 de agosto de 2018Cómo participarLos alumnos argentinos interesados deberán solicitar su inscripción a [email protected], enviando la siguiente documentación:1. CV actualizado consignando lugar de residencia actual, teléfonos (celular) y mails de contacto seguros (institucional y personal).2. Nota de solicitud de inscripción detallando nombre del curso, coordinador y fecha.3. Nota de justificación (detallar utilidad concreta).4. Nota de aval de su jefe de grupo, firmada.Enviar cada documento en formato PDFMás información: [email protected]---</t>
+          <t>Se otorgarán 20 becas para estudiantes de postgrado de todas las áreas de las ciencias sociales y de las áreas de “ciencias duras” vinculadas a los problemas socioeconómicos del desarrollo y la transferencia de conocimiento y tecnología, que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Las jornadas constituirán un espacio interdisciplinario de formación y discusión sobre desarrollo y sustentabilidad desde el punto de vista de los problemas socioeconómicos que conllevan. Durante cinco días se desarrollarán cursos de postgrado, conferencias, workshops y entrevistas en torno a ejes temáticos, desde perspectivas teóricas, metodológicas y de transferencia. Fecha de inscripciónHasta el 30 de mayo de 2018.Se abordarán problemas socioeconómicos como el desempleo, el atraso tecnológico en la periferia y la desigualdad, en América Latina y a nivel global, considerando que la última crisis económica mundial los agudizó poniendo en entredicho la sustentabilidad económica y social del desarrollo, y dando así un renovado impulso a esta cuestión en distintas disciplinas científicas. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2954,20 +2419,9 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-premasul-2018</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-las-jornadas-internacionales-de-economia-y-sociedad</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2975,12 +2429,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Curso: Análisis de resistencia antimicrobiana y desarrollo de drogas</t>
+          <t>Becas para taller de abordaje multidisciplinario para la gestión de incendios</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Se otorgarán 20 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa aparición de cepas resistentes y multirresistentes representa una de las principales preocupaciones para los sistemas de salud. Todos los años, más de 130.000 muertes son atribuibles a este tipo de microorganismos sólo en Europa y Estados Unidos. A pesar de esta situación crítica, el desarrollo de nuevas drogas ha sido inadecuado, en muchos casos por una mala selección inicial de los blancos. Sin embargo, el paso limitante en Latinoamérica continúa siendo la falta de recursos humanos. En este marco proponemos un curso centrado en la determinación de mecanismos de resistencia y la caracterización de blancos para el desarrollo de drogas. Fecha de inscripciónHasta el 17 de junio de 2018.Este curso se presenta dentro de un proyecto más amplio que pretende formar equipos multidisciplinarios capaces de analizar genomas de patógenos y los perfiles e historia de adquisición de resistencias y proponer nuevos blancos y compuestos líderes para el futuro desarrollo de drogas. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 30 becas para latinoamericanos que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadEl taller busca consolidar un abordaje multidisciplinario para el análisis y comprensión de la problemática en la gestión de incendios. Se trabajará en tres ejes:Eje técnico (detección de incendios, fuentes de calor, etc.)Eje social (incendios y conflictos económicos, cómo y cuándo y por qué las comunidades rurales utilizan y utilizaron el fuego, etc.)Eje de gestión (quemas prescritas, control de incendios, prevención de incendios, sistemas operativos de alerta temprana, etc)La actividad está diseñada para ser desarrollada por equipos de trabajo constituidos por participantes de distintos países de Latino América. Es deseable que los equipos puedan incluir al menos un participante que pertenezca a los servicios operativos de manejo del fuego implementados en los diversos países de Latinoamérica y otro que pertenezca al ámbito académico con habilidades en el manejo de computadoras. Fecha de realizaciónDel 4 al 15 de junio de 2018.Cómo participarLa inscripción se realiza de forma virtual en la página oficial del CELFI. Es necesario registrarse previamente y luego completar el formulario de inscripción. Fecha de inscripciónDel 19/03/2018 hasta 22/04/2018 a las 23.59 hs de Argentina.Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2988,7 +2442,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_taller_gestioon_de_incendios.pdf, https://www.argentina.gob.ar/sites/default/files/cronograma_tentativo_gestion_de_incendios.pdf</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>2018</t>
@@ -3001,20 +2459,9 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-analisis-de-resistencia-antimicrobiana-y-desarrollo-de-drogas</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/becas-para-taller-de-abordaje-multidisciplinario-para-la-gestion-de-incendios</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3022,12 +2469,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Curso: Cooperación científica para la innovación</t>
+          <t>Curso PREMASUL: métodos innovadores in vitro para evaluación de sensibilización cutánea</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Se otorgarán 30 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El objetivo del curso es analizar en toda su complejidad el desarrollo sostenible y el problema de innovación en sistemas de producción y consumo. Los temas eje que se tratarán en el transcurso de la actividad son: la cooperación científica iberoamericana para la innovación y el desarrollo, la cooperación entre universidades y organismos científicos iberoamericanos para la promoción de la innovación, herramientas de aplicación innovadora del conocimiento, experiencias nacionales de organismos científicos públicos (México, Argentina y España), el rol de la universidad en el desarrollo, el vínculo Estado-Sociedad para la innovación, el rol de la ciencia y la tecnología en la innovación, y esquemas de innovación y estrategias orientadas a la sostenibilidad. Fecha de inscripciónHasta el 17 de junio de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>El Centro Argentino Brasileño de Biotecnología convoca al curso de métodos innovadores in vitro para evaluación de sensibilización cutánea de la Plataforma Regional de Métodos Alternativos de MERCOSUR – PReMASUL.El curso se realizará del 22 a 26 de octubre de 2018 en el Laboratorio de Farmacología y Toxicología Celular de la Facultad de Farmacia de la Universidad Federal de Goiás, Brasil. Fecha de inscripciónHasta el 6 de agosto de 2018Cómo participarLos alumnos argentinos interesados deberán solicitar su inscripción a [email protected], enviando la siguiente documentación:1. CV actualizado consignando lugar de residencia actual, teléfonos (celular) y mails de contacto seguros (institucional y personal).2. Nota de solicitud de inscripción detallando nombre del curso, coordinador y fecha.3. Nota de justificación (detallar utilidad concreta).4. Nota de aval de su jefe de grupo, firmada.Enviar cada documento en formato PDFMás información: [email protected]---</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3048,20 +2495,9 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-cooperacion-cientifica-para-la-innovacion</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-premasul-2018</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3069,12 +2505,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Curso: salud y ambiente</t>
+          <t>Curso: Análisis de resistencia antimicrobiana y desarrollo de drogas</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Se otorgarán 30 becas para estudiantes de doctorado e investigadores interesados en el modelado de fenómenos del ámbito de la salud y del ambiente, con datos estructurados espacial y/o temporalmente, que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Este curso tiene como objetivo general proporcionar una visión amplia y crítica de las técnicas existentes para modelar datos con estructura multinivel y espacio-temporal, tanto desde el enfoque frecuentista como bayesiano, discutiendo sus fortalezas y limitaciones. Fecha de inscripciónHasta el 30 de mayo de 2018.Se revisarán los fundamentos del uso de ambos enfoques en el abordaje de problemas de salud y ambientales, se discutirán cuestiones teóricas y metodológicas relacionadas con el modelo teórico que se prueba, la distinción conceptual entre variables a nivel grupal e individual, la capacidad de diferenciar efectos independientes y detectar interacciones entre diferentes niveles y la mayor complejidad que implican estos modelos. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 20 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Sobre la actividadLa aparición de cepas resistentes y multirresistentes representa una de las principales preocupaciones para los sistemas de salud. Todos los años, más de 130.000 muertes son atribuibles a este tipo de microorganismos sólo en Europa y Estados Unidos. A pesar de esta situación crítica, el desarrollo de nuevas drogas ha sido inadecuado, en muchos casos por una mala selección inicial de los blancos. Sin embargo, el paso limitante en Latinoamérica continúa siendo la falta de recursos humanos. En este marco proponemos un curso centrado en la determinación de mecanismos de resistencia y la caracterización de blancos para el desarrollo de drogas. Fecha de inscripciónHasta el 17 de junio de 2018.Este curso se presenta dentro de un proyecto más amplio que pretende formar equipos multidisciplinarios capaces de analizar genomas de patógenos y los perfiles e historia de adquisición de resistencias y proponer nuevos blancos y compuestos líderes para el futuro desarrollo de drogas. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3095,20 +2531,9 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-salud-y-ambiente</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-analisis-de-resistencia-antimicrobiana-y-desarrollo-de-drogas</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3116,12 +2541,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Distinción Franco-Argentina en Innovación 2018</t>
+          <t>Curso: Cooperación científica para la innovación</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GanadoresCategoría SENIOR: Aplicación de electrodos híbridos de Ni/TiO2 nanoestructurados para generación eficiente de hidrógeno en electrolizadores alcalinos del Dr. Galo Juan de Ávila Arturo SOLER ILLIA.Categoría JUNIOR: Identificación de Procesos Fenton en sistemas naturales para el desarrollo de una metodología de tratamiento de aguas residuales urbanas de la Villa Caviahue volcadas al lago ácido Caviahue de la Dra. Daniela Alejandra NichelaEl Institut Français d’Argentine en la República Argentina, junto con la empresa TOTAL S.A. y el Ministerio de Ciencia, Tecnología e Innovación Productiva de la Nación, llaman a la presentación de proyectos de innovación tecnológica en el marco de la segunda edición de la “Distinción Franco-Argentina en Innovación”.Sobre la convocatoriaEn esta edición los objetivos del concurso son estimular y difundir los procesos de transferencia de conocimientos y tecnología, aplicados a productos y/o procesos que mejoren la calidad de vida de la sociedad y busquen promover las innovaciones tecnológicas en el área de energías renovables.Se entregaráDistinción SÉNIOR de €12.000 (doce mil euros) y 1 pasaje ida y vuelta de Argentina a Francia, y viáticos por una semana, en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador.Distinción JUNIOR de € 3.000 (tres mil euros) y 1 pasaje ida y vuelta de Argentina a Francia, y viáticos por una semana, para estadía de investigación un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador. Nueva fecha de cierre31 de julio de 2018Como participarPodrán participar en el concurso los grupos de investigación y/o investigadores argentinos que presenten un proyecto de innovación y desarrollo con especial consideración en:Energías e innovación: Eólica; Fotovoltaica; Biomasa; Geotermal; Eficiencia energética.Tecnologías del Agua: Tratamiento y purificación; Reducción del contenido de arsénico, Aguas residuales; Desalinización; Filtrado; Irrigación; Reciclado.Calidad del aire: Métodos de filtrado; Análisis de Micropartículas; Sistemas de Monitoreo; Reducción de Gases de Efecto Invernadero; Estrategias tecnológicas, económicas y legales de gestión de la calidad del aire.El director del proyecto deberá enviar el formulario completo a la casilla [email protected]---</t>
+          <t>Se otorgarán 30 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El objetivo del curso es analizar en toda su complejidad el desarrollo sostenible y el problema de innovación en sistemas de producción y consumo. Los temas eje que se tratarán en el transcurso de la actividad son: la cooperación científica iberoamericana para la innovación y el desarrollo, la cooperación entre universidades y organismos científicos iberoamericanos para la promoción de la innovación, herramientas de aplicación innovadora del conocimiento, experiencias nacionales de organismos científicos públicos (México, Argentina y España), el rol de la universidad en el desarrollo, el vínculo Estado-Sociedad para la innovación, el rol de la ciencia y la tecnología en la innovación, y esquemas de innovación y estrategias orientadas a la sostenibilidad. Fecha de inscripciónHasta el 17 de junio de 2018. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3129,11 +2554,7 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_2018.pdf, https://www.argentina.gob.ar/sites/default/files/formulario_distincion_franco-argentina_2018.doc</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
           <t>2018</t>
@@ -3146,20 +2567,9 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-franco-argentina-en-innovacion-2018</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-cooperacion-cientifica-para-la-innovacion</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3167,17 +2577,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Distinción Road to Barcelona</t>
+          <t>Curso: salud y ambiente</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es que startups de Mendoza, Córdoba y Santa Fe puedan sumarse al polo de empresas argentinas en Barcelona, España.El Programa tiene por objetivo promover la internacionalización de empresas tecnológicas argentinas de las provincias de Mendoza, Córdoba y Santa Fe (una por provincia) ofreciéndoles un espacio de incubación en Barcelona y el asesoramiento desde enero 2019 hasta junio 2019. Fecha de cierre28 de septiembre de 2018Cómo participarPodrán participar empresas de base tecnológica con productos y/o servicios innovadores para su comercialización, orientadas al mercado global y con potencial de crecimiento. Estas startups deben estar legalmente constituidas con domicilio Fiscal en las provincias de Mendoza, Córdoba y o Santa Fe, con hasta 10 años de existencia desde la fecha de su constitución hasta la fecha de cierre de la convocatoria.Se considerará preferentemente proyectos que se enmarquen en innovación para las temáticas de salud, agtech, eficiencia energética, movilidad, turismo, big data y comercio electrónico.Las tres empresas ganadoras obtendrán un premio consistente en:* 1 pasaje ida y vuelta en clase turista de la Ciudad de Buenos Aires a Barcelona* 1 espacio de cowork en el Pier01 de Barcelona desde el 08 de enero 2019 al 30 de junio 2019 inclusive* Acceso a un programa de asesoramiento personalizado del equipo Catalonia Startup de Acció* Asistencia en el desarrollo de su plan de negocios -orientados a explorar potenciales asociaciones con empresas locales de base tecnológica, laboratorios, universidades, centros de investigación y/o polos tecnológicos que desarrollen temas relacionados a los 3 proyectos ganadoresEl Programa es llevado adelante en conjunto por el Ministerio de Ciencia, Tecnología e Innovación Productiva de la Nación y ACCIÓ – Catalonia Trade &amp; Investment. Más informaciónRoad to Barcelona---</t>
+          <t>Se otorgarán 30 becas para estudiantes de doctorado e investigadores interesados en el modelado de fenómenos del ámbito de la salud y del ambiente, con datos estructurados espacial y/o temporalmente, que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.Este curso tiene como objetivo general proporcionar una visión amplia y crítica de las técnicas existentes para modelar datos con estructura multinivel y espacio-temporal, tanto desde el enfoque frecuentista como bayesiano, discutiendo sus fortalezas y limitaciones. Fecha de inscripciónHasta el 30 de mayo de 2018.Se revisarán los fundamentos del uso de ambos enfoques en el abordaje de problemas de salud y ambientales, se discutirán cuestiones teóricas y metodológicas relacionadas con el modelo teórico que se prueba, la distinción conceptual entre variables a nivel grupal e individual, la capacidad de diferenciar efectos independientes y detectar interacciones entre diferentes niveles y la mayor complejidad que implican estos modelos. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>28 de septiembre de 2018</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3193,20 +2603,9 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-road-barcelona-2018</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/curso-salud-y-ambiente</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3214,12 +2613,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Escuela de cristalografía en biología estructural</t>
+          <t>Distinción Franco-Argentina en Innovación 2018</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Se otorgarán 20 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El objetivo de la escuela es transmitir a los alumnos las herramientas necesarias para obtener y purificar proteínas, su posterior cristalización y resolución estructural, junto con la información que se deriva de la estructura obtenida. Fecha de inscripciónHasta el 30 de mayo de 2018.Se brindarán conocimientos básicos de técnicas complementarias, tales como simulación computacional, métodos bioinformáticos y sistemas droga-proteína. En esta segunda escuela se les ofrecerá a los alumnos traer sus propias muestras para poder realizar parte de los trabajos prácticos. Una vez abordados los contenidos iniciales, se hará hincapié en los métodos o variables de medición que permiten mejorar la obtención de datos y su posterior análisis. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t xml:space="preserve"> GanadoresCategoría SENIOR: Aplicación de electrodos híbridos de Ni/TiO2 nanoestructurados para generación eficiente de hidrógeno en electrolizadores alcalinos del Dr. Galo Juan de Ávila Arturo SOLER ILLIA.Categoría JUNIOR: Identificación de Procesos Fenton en sistemas naturales para el desarrollo de una metodología de tratamiento de aguas residuales urbanas de la Villa Caviahue volcadas al lago ácido Caviahue de la Dra. Daniela Alejandra NichelaEl Institut Français d’Argentine en la República Argentina, junto con la empresa TOTAL S.A. y el Ministerio de Ciencia, Tecnología e Innovación Productiva de la Nación, llaman a la presentación de proyectos de innovación tecnológica en el marco de la segunda edición de la “Distinción Franco-Argentina en Innovación”.Sobre la convocatoriaEn esta edición los objetivos del concurso son estimular y difundir los procesos de transferencia de conocimientos y tecnología, aplicados a productos y/o procesos que mejoren la calidad de vida de la sociedad y busquen promover las innovaciones tecnológicas en el área de energías renovables.Se entregaráDistinción SÉNIOR de €12.000 (doce mil euros) y 1 pasaje ida y vuelta de Argentina a Francia, y viáticos por una semana, en un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador.Distinción JUNIOR de € 3.000 (tres mil euros) y 1 pasaje ida y vuelta de Argentina a Francia, y viáticos por una semana, para estadía de investigación un laboratorio, Universidad, centro de investigación, polo tecnológico y/o empresa de base tecnológica que desarrolle temas relacionados al proyecto ganador. Nueva fecha de cierre31 de julio de 2018Como participarPodrán participar en el concurso los grupos de investigación y/o investigadores argentinos que presenten un proyecto de innovación y desarrollo con especial consideración en:Energías e innovación: Eólica; Fotovoltaica; Biomasa; Geotermal; Eficiencia energética.Tecnologías del Agua: Tratamiento y purificación; Reducción del contenido de arsénico, Aguas residuales; Desalinización; Filtrado; Irrigación; Reciclado.Calidad del aire: Métodos de filtrado; Análisis de Micropartículas; Sistemas de Monitoreo; Reducción de Gases de Efecto Invernadero; Estrategias tecnológicas, económicas y legales de gestión de la calidad del aire.El director del proyecto deberá enviar el formulario completo a la casilla [email protected]---</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3227,7 +2626,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_2018.pdf, https://www.argentina.gob.ar/sites/default/files/formulario_distincion_franco-argentina_2018.doc</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>2018</t>
@@ -3240,20 +2643,9 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-de-cristalografia-en-biologia-estructural</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-franco-argentina-en-innovacion-2018</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3261,17 +2653,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Escuela de primavera en teledetección</t>
+          <t>Distinción Road to Barcelona</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Se otorgarán 40 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela busca introducir a científicos y profesionales latinoamericanos en el uso de la información de imágenes generadas por radares de apertura sintética (SAR) como herramienta estratégica para la elaboración de políticas de gestión de los recursos basada en el conocimiento profundo del territorio y alineadas con las metas del milenio 2030. Fecha de inscripciónHasta el 17 de junio de 2018.Está orientada al aprendizaje basado en problemas, contará con clases teóricas y trabajos prácticos a cargo de referentes nacionales en el área, seguido de tutoriales y talleres participativos a cargo de expertos internacionales. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>El objetivo de la convocatoria es que startups de Mendoza, Córdoba y Santa Fe puedan sumarse al polo de empresas argentinas en Barcelona, España.El Programa tiene por objetivo promover la internacionalización de empresas tecnológicas argentinas de las provincias de Mendoza, Córdoba y Santa Fe (una por provincia) ofreciéndoles un espacio de incubación en Barcelona y el asesoramiento desde enero 2019 hasta junio 2019. Fecha de cierre28 de septiembre de 2018Cómo participarPodrán participar empresas de base tecnológica con productos y/o servicios innovadores para su comercialización, orientadas al mercado global y con potencial de crecimiento. Estas startups deben estar legalmente constituidas con domicilio Fiscal en las provincias de Mendoza, Córdoba y o Santa Fe, con hasta 10 años de existencia desde la fecha de su constitución hasta la fecha de cierre de la convocatoria.Se considerará preferentemente proyectos que se enmarquen en innovación para las temáticas de salud, agtech, eficiencia energética, movilidad, turismo, big data y comercio electrónico.Las tres empresas ganadoras obtendrán un premio consistente en:* 1 pasaje ida y vuelta en clase turista de la Ciudad de Buenos Aires a Barcelona* 1 espacio de cowork en el Pier01 de Barcelona desde el 08 de enero 2019 al 30 de junio 2019 inclusive* Acceso a un programa de asesoramiento personalizado del equipo Catalonia Startup de Acció* Asistencia en el desarrollo de su plan de negocios -orientados a explorar potenciales asociaciones con empresas locales de base tecnológica, laboratorios, universidades, centros de investigación y/o polos tecnológicos que desarrollen temas relacionados a los 3 proyectos ganadoresEl Programa es llevado adelante en conjunto por el Ministerio de Ciencia, Tecnología e Innovación Productiva de la Nación y ACCIÓ – Catalonia Trade &amp; Investment. Más informaciónRoad to Barcelona---</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
+          <t>28 de septiembre de 2018</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3287,20 +2679,9 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-de-primavera-en-teledeteccion</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/distincion-road-barcelona-2018</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3308,12 +2689,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Escuela en dispositivos fotovoltaicos y opto-electrónicos</t>
+          <t>Escuela de cristalografía en biología estructural</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Se otorgarán 35 becas para estudiantes de posgrado e investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela en “Dispositivos fotovoltaicos y opto-electrónicos. Diseño y desarrollo de tecnologías limpias y sustentables. Aplicación e impacto social” está destinada a reunir estudiantes de posgrado e investigadores con investigadores formados de renombre nacional e internacional, que son referentes en disciplinas relacionadas con el diseño y la aplicación de los dispositivos. Esta escuela constituye una gran oportunidad para el rápido desarrollo de estas áreas de trabajo, haciendo hincapié en un enfoque interdisciplinario para la implementación de tecnologías bajo los principios de la sustentabilidad y el impacto sobre la sociedad. Fecha de inscripciónHasta el 24 de junio de 2018 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 20 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El objetivo de la escuela es transmitir a los alumnos las herramientas necesarias para obtener y purificar proteínas, su posterior cristalización y resolución estructural, junto con la información que se deriva de la estructura obtenida. Fecha de inscripciónHasta el 30 de mayo de 2018.Se brindarán conocimientos básicos de técnicas complementarias, tales como simulación computacional, métodos bioinformáticos y sistemas droga-proteína. En esta segunda escuela se les ofrecerá a los alumnos traer sus propias muestras para poder realizar parte de los trabajos prácticos. Una vez abordados los contenidos iniciales, se hará hincapié en los métodos o variables de medición que permiten mejorar la obtención de datos y su posterior análisis. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3334,20 +2715,9 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-en-dispositivos-fotovoltaicos-y-opto-electronicos</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-de-cristalografia-en-biologia-estructural</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3355,12 +2725,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Escuela: Nuevas formas de almacenamiento de energía renovable</t>
+          <t>Escuela de primavera en teledetección</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Se otorgarán 28 becas para graduados jóvenes que se están especializando en electroquímica, fotoquímica, química inorgánica, reactividad, modelado molecular, ciencias de los materiales, microbiología, ingeniería, tecnología y otros especialistas que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela presentará los principios científicos involucrados en la acumulación de energía renovable (solar) a partir de la fotoelectrosíntesis de combustibles, a través de arreglos que imitan los principios de la fotosíntesis (fotosíntesis artificial).La actividad combinará presentaciones a cargo de especialistas en el área con la presentación de problemas y paneles de discusión con la participación de especialistas locales. El objetivo es mostrar los desafíos que proponen a las distintas disciplinas el desarrollo de estos dispositivos y las áreas que hoy representan un obstáculo para el desarrollo de esta tecnología. También buscaremos promover las colaboraciones en el marco de esta área, tanto entre grupos locales como con los especialistas extranjeros. Fecha de inscripciónHasta el 24 de junio de 2018 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se otorgarán 40 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela busca introducir a científicos y profesionales latinoamericanos en el uso de la información de imágenes generadas por radares de apertura sintética (SAR) como herramienta estratégica para la elaboración de políticas de gestión de los recursos basada en el conocimiento profundo del territorio y alineadas con las metas del milenio 2030. Fecha de inscripciónHasta el 17 de junio de 2018.Está orientada al aprendizaje basado en problemas, contará con clases teóricas y trabajos prácticos a cargo de referentes nacionales en el área, seguido de tutoriales y talleres participativos a cargo de expertos internacionales. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3381,20 +2751,9 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-nuevas-formas-de-almacenamiento-de-energia-renovable</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-de-primavera-en-teledeteccion</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3402,24 +2761,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Eslabonamientos productivos vinculados 2017</t>
+          <t>Escuela en dispositivos fotovoltaicos y opto-electrónicos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>El objetivo fue dotar de mayor competitividad a los sectores productivos provinciales a partir de la identificación de oportunidades de mejora que implican la existencia de demandas de innovación tecnológica cuya satisfacción exige un esfuerzo innovador en sectores o actores del sistema productivo y científico-tecnológico.El COFECYT otorgó financiamiento a proyectos de innovación productiva y transferencia de conocimientos cuyas Ideas-Proyectos respondían a las demandas de innovación tecnológicas identificadas por la jurisdicción. Fecha de cierre21 de febrero de 2018 a las 12.00 PMPodían participar de la convocatoria aquellas personas jurídicas constituidas como tales al momento de la presentación del proyecto, los organismos gubernamentales y no gubernamentales. Más informaciónConsejo Federal de Ciencia y Tecnología---</t>
+          <t>Se otorgarán 35 becas para estudiantes de posgrado e investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela en “Dispositivos fotovoltaicos y opto-electrónicos. Diseño y desarrollo de tecnologías limpias y sustentables. Aplicación e impacto social” está destinada a reunir estudiantes de posgrado e investigadores con investigadores formados de renombre nacional e internacional, que son referentes en disciplinas relacionadas con el diseño y la aplicación de los dispositivos. Esta escuela constituye una gran oportunidad para el rápido desarrollo de estas áreas de trabajo, haciendo hincapié en un enfoque interdisciplinario para la implementación de tecnologías bajo los principios de la sustentabilidad y el impacto sobre la sociedad. Fecha de inscripciónHasta el 24 de junio de 2018 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21 de febrero de 2018 a las 12.00 PM</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones-pfip-espro.pdf, https://www.argentina.gob.ar/sites/default/files/anexos-pfip-espro_2017.doc, https://www.argentina.gob.ar/sites/default/files/rs-2017-18360187-pfip_espro.pdf, https://www.argentina.gob.ar/sites/default/files/prorroga-pfip-espro-2017.pdf, https://www.argentina.gob.ar/sites/default/files/presupuesto-general-pfip-asetur-detem-espro-pe_2.xlsx, https://www.argentina.gob.ar/sites/default/files/pfip_espro_2017_resultado_de_elegibilidad.pdf</t>
-        </is>
-      </c>
+          <t>Ventanilla permanente</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
           <t>2018</t>
@@ -3432,20 +2787,9 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/pfip-espro-2017</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-en-dispositivos-fotovoltaicos-y-opto-electronicos</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3453,17 +2797,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Forestvalue - Innovación en la bioeconomía forestal</t>
+          <t>Escuela: Nuevas formas de almacenamiento de energía renovable</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es contribuir a transformar la economía global de una dependencia de materias primas no renovables y de origen fósil a una “economía de base biológica” sustentable.Sobre la convocatoriaEsta convocatoria en el marco de ERA-NET Cofund, llama a universidades, instituciones públicas y privadas de I+D, y Pequeñas y Medianas Empresas (PYME) a participar de “ForestValue – Innovando en la Bioeconomía forestal”.La convocatoria transnacional conjunta abordará toda la cadena de valor forestal en dos áreas:Gestión sostenible e innovadora de bosques multifuncionalesTecnologías de producción industrial y procesamiento innovadoras, productos, conceptos y serviciosDado que estos temas que abarcan toda la cadena de valor forestal son transversales, se busca aprovechar al máximo los enfoques de los sistemas interdisciplinarios y a analizar el impacto y la integración de la investigación social y la economía en este sector.Cómo participarPueden participar proyectos presentados por instituciones públicas o privadas. Las propuestas deben ser enviadas en inglés vía el formulario disponible en forestvalue.orgPara conocer las especificaciones del llamado consultá las bases y reglas de financiamiento. Fecha de cierrePlazo para le entrega de pre-propuestas (Central European Time) 23/01/2018 13 PM Fecha de cierrePlazo para la entrega de propuestas completas (Central European Summer Time) 14/08/2018 13 PM---</t>
+          <t>Se otorgarán 28 becas para graduados jóvenes que se están especializando en electroquímica, fotoquímica, química inorgánica, reactividad, modelado molecular, ciencias de los materiales, microbiología, ingeniería, tecnología y otros especialistas que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela presentará los principios científicos involucrados en la acumulación de energía renovable (solar) a partir de la fotoelectrosíntesis de combustibles, a través de arreglos que imitan los principios de la fotosíntesis (fotosíntesis artificial).La actividad combinará presentaciones a cargo de especialistas en el área con la presentación de problemas y paneles de discusión con la participación de especialistas locales. El objetivo es mostrar los desafíos que proponen a las distintas disciplinas el desarrollo de estos dispositivos y las áreas que hoy representan un obstáculo para el desarrollo de esta tecnología. También buscaremos promover las colaboraciones en el marco de esta área, tanto entre grupos locales como con los especialistas extranjeros. Fecha de inscripciónHasta el 24 de junio de 2018 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Plazo para le entrega de pre-propuestas (Central European Time)</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3479,20 +2823,9 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/forestvalue-innovacion-en-la-bioeconomia-forestal</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/escuela-nuevas-formas-de-almacenamiento-de-energia-renovable</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3500,22 +2833,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Globalstars para proyectos de I+D 2018</t>
+          <t>Eslabonamientos productivos vinculados 2017</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Se financiarán propuestas de proyectos empresariales de desarrollo e innovación tecnológica que involucren empresas de Argentina, España, Finlandia, Israel, República Checa y Turquía en el marco del llamado Globalstars del programa Eureka.Sobre la convocatoriaParticipantes de Argentina y los respectivos Estados miembros de EUREKA están invitados a enviar propuestas de proyectos conjuntos de I+D tecnológica industrial. Las partes deberán cooperar en el desarrollo de un nuevo producto, proceso industrial o servicio que debe ser innovador y entrañar un riesgo tecnológico involucrado.Podrán participar empresas PYME argentinas que deberán asociarse con al menos un socio del resto de los países que participan de la convocatoria: España, Finlandia, Israel, República Checa y Turquía. El proyecto debe demostrar la contribución de todos los socios de los países participantes y debe representar un esfuerzo significativo para ellos.La convocatoria está abierta en el marco del programa EUREKA en todas las áreas temáticas. La duración del proyecto no podrá exceder de 3 años. Fecha de cierre7 de junio de 2018 17.00 horas.Cómo participarPara la presentación cada participante deberá completar el formulario de solicitud de EUREKA, formular un acuerdo del consorcio referente a la comercialización del producto, proceso o servicio generado por el proyecto y enviar un solicitud por cada grupo participante a su agencia nacional correspondiente, en simultáneo en todos los países involucrados en el proyecto. Para ello los participantes argentinos deberán ponerse en contacto con [email protected].---</t>
+          <t>El objetivo fue dotar de mayor competitividad a los sectores productivos provinciales a partir de la identificación de oportunidades de mejora que implican la existencia de demandas de innovación tecnológica cuya satisfacción exige un esfuerzo innovador en sectores o actores del sistema productivo y científico-tecnológico.El COFECYT otorgó financiamiento a proyectos de innovación productiva y transferencia de conocimientos cuyas Ideas-Proyectos respondían a las demandas de innovación tecnológicas identificadas por la jurisdicción. Fecha de cierre21 de febrero de 2018 a las 12.00 PMPodían participar de la convocatoria aquellas personas jurídicas constituidas como tales al momento de la presentación del proyecto, los organismos gubernamentales y no gubernamentales. Más informaciónConsejo Federal de Ciencia y Tecnología---</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7 de junio de 2018 17.00 horas.</t>
+          <t>21 de febrero de 2018 a las 12.00 PM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/mincyt_-_bases_y_condiciones_globalstars_2018.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones-pfip-espro.pdf, https://www.argentina.gob.ar/sites/default/files/anexos-pfip-espro_2017.doc, https://www.argentina.gob.ar/sites/default/files/rs-2017-18360187-pfip_espro.pdf, https://www.argentina.gob.ar/sites/default/files/prorroga-pfip-espro-2017.pdf, https://www.argentina.gob.ar/sites/default/files/presupuesto-general-pfip-asetur-detem-espro-pe_2.xlsx, https://www.argentina.gob.ar/sites/default/files/pfip_espro_2017_resultado_de_elegibilidad.pdf</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3530,20 +2863,9 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/globalstars-2018</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/pfip-espro-2017</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3551,22 +2873,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Israel Innovation Awards 2018</t>
+          <t>Forestvalue - Innovación en la bioeconomía forestal</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es promover la cooperación tecnológica entre empresas y emprendedores argentinos e israelíes, por medio de proyectos innovadores con orientación al mercado internacional y potencial para desarrollarse con socios estratégicos en Israel.Sobre la convocatoriaEstá dirigida a emprendedores y empresas de base tecnológica argentinas y tiene como propósito promover su internacionalización, poniendo al alcance del participante o empresa seleccionada la posibilidad de visitar Israel, conocer su ecosistema de innovación, presentar sus productos y encontrar socios estratégicos para el desarrollo de sus ideas.“Israel Innovation Awards” es un iniciativa del Ministerio de Ciencia, Tecnología e Innovación Productiva, la Cámara de Comercio Argentino Israelí y la Embajada de Israel en Argentina Fecha de cierre31 de agosto de 2018Cómo participarPueden aplicar empresas radicadas en Argentina o emprendedores de todas las áreas de la industria, pero serán considerados preferentemente proyectos que se enmarquen en innovación para las temáticas de salud, agtech, eficiencia energética, movilidad y agua.El proyecto ganador recibirá un viaje a Israel con pasaje y estadía para dos personas para mantener reuniones con actores clave del ecosistema de innovación israelí.Contacto: [email protected]---</t>
+          <t>El objetivo de la convocatoria es contribuir a transformar la economía global de una dependencia de materias primas no renovables y de origen fósil a una “economía de base biológica” sustentable.Sobre la convocatoriaEsta convocatoria en el marco de ERA-NET Cofund, llama a universidades, instituciones públicas y privadas de I+D, y Pequeñas y Medianas Empresas (PYME) a participar de “ForestValue – Innovando en la Bioeconomía forestal”.La convocatoria transnacional conjunta abordará toda la cadena de valor forestal en dos áreas:Gestión sostenible e innovadora de bosques multifuncionalesTecnologías de producción industrial y procesamiento innovadoras, productos, conceptos y serviciosDado que estos temas que abarcan toda la cadena de valor forestal son transversales, se busca aprovechar al máximo los enfoques de los sistemas interdisciplinarios y a analizar el impacto y la integración de la investigación social y la economía en este sector.Cómo participarPueden participar proyectos presentados por instituciones públicas o privadas. Las propuestas deben ser enviadas en inglés vía el formulario disponible en forestvalue.orgPara conocer las especificaciones del llamado consultá las bases y reglas de financiamiento. Fecha de cierrePlazo para le entrega de pre-propuestas (Central European Time) 23/01/2018 13 PM Fecha de cierrePlazo para la entrega de propuestas completas (Central European Summer Time) 14/08/2018 13 PM---</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>31 de agosto de 2018</t>
+          <t>Plazo para le entrega de pre-propuestas (Central European Time)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/israel_innovation_awards_bases_y_condiciones_0.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_forestvalue.pdf, https://www.argentina.gob.ar/sites/default/files/forestvalue_reglas_de_financiamiento.pdf</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3581,20 +2903,9 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/israel-innovation-awards-2018</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/forestvalue-innovacion-en-la-bioeconomia-forestal</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3602,20 +2913,24 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Premio Tenaris al desarrollo tecnológico</t>
+          <t>Globalstars para proyectos de I+D 2018</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Se premiarán proyectos de desarrollo tecnológico de PyMes y emprendedores que tengan impacto en los sectores metalmecánico, energético, petroquímico, minero, autopartista y siderúrgico.El objetivo del concurso es promover el desarrollo y la innovación tecnológica en PyMes industriales y emprendedores nacionales y contribuir a la vinculación del sector científico con el productivo, estimulando y potenciando la interrelación entre ambos.El Premio Tenaris al Desarrollo Tecnológico Argentino está organizado por Tenaris junto al Ministerio de Ciencia, Tecnología e Innovación Productiva, con el apoyo de Endeavor, una organización que impulsa el desarrollo del país apoyando a emprendedores de alto impacto y promoviendo la cultura emprendedora. Nueva fecha de cierre9 de octubre de 2018Cómo participarCategoría PyMes: podrá presentar proyectos toda pequeña y mediana empresa (PyMe) de capitales mayoritariamente nacionales radicada en nuestro país. El ganador de la categoría recibirá un subsidio no reembolsable de $350.000 con el objeto de contribuir a la efectiva concreción de su proyecto.Categoría Emprendedores: podrá presentar proyectos individuales toda persona humana mayor de 18 años, de nacionalidad argentina, registrada ante la Administración Federal de Ingresos Públicos (AFIP). El ganador de la categoría recibirá un subsidio no reembolsable de $200.000 con el objeto de contribuir a la efectiva concreción de su proyecto. Más informaciónPremio Tenaris---</t>
+          <t>Se financiarán propuestas de proyectos empresariales de desarrollo e innovación tecnológica que involucren empresas de Argentina, España, Finlandia, Israel, República Checa y Turquía en el marco del llamado Globalstars del programa Eureka.Sobre la convocatoriaParticipantes de Argentina y los respectivos Estados miembros de EUREKA están invitados a enviar propuestas de proyectos conjuntos de I+D tecnológica industrial. Las partes deberán cooperar en el desarrollo de un nuevo producto, proceso industrial o servicio que debe ser innovador y entrañar un riesgo tecnológico involucrado.Podrán participar empresas PYME argentinas que deberán asociarse con al menos un socio del resto de los países que participan de la convocatoria: España, Finlandia, Israel, República Checa y Turquía. El proyecto debe demostrar la contribución de todos los socios de los países participantes y debe representar un esfuerzo significativo para ellos.La convocatoria está abierta en el marco del programa EUREKA en todas las áreas temáticas. La duración del proyecto no podrá exceder de 3 años. Fecha de cierre7 de junio de 2018 17.00 horas.Cómo participarPara la presentación cada participante deberá completar el formulario de solicitud de EUREKA, formular un acuerdo del consorcio referente a la comercialización del producto, proceso o servicio generado por el proyecto y enviar un solicitud por cada grupo participante a su agencia nacional correspondiente, en simultáneo en todos los países involucrados en el proyecto. Para ello los participantes argentinos deberán ponerse en contacto con [email protected].---</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>7 de junio de 2018 17.00 horas.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/mincyt_-_bases_y_condiciones_globalstars_2018.pdf</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>2018</t>
@@ -3628,20 +2943,9 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-tenaris-al-desarrollo-tecnologico</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/globalstars-2018</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3649,20 +2953,24 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Programa Bioeconomía Regiones Argentinas (BAR)</t>
+          <t>Israel Innovation Awards 2018</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es promover oportunidades de inversión, desarrollos conjuntos y generar alianzas en el campo de la bioeconomía, entre Argentina y Europa.Sobre la convocatoriaEl programa ofrece promover los proyectos que de forma conjunta entre la entidad de vinculación argentina y el equipo de trabajo del programa resulten adecuados para ejecutar alguna/s de las actividades propuestas. Se focaliza en los siguientes ejes:Transferencia de tecnología y promoción de la generación de joint venturesVinculación entre fondos de inversión y proyectos de bioeconomíaPromoción de la vinculación académica en la temáticaApoyo a la internacionalización de startups en bioeconomíaEstá dirigido a unidades de vinculación, consultoras de trasferencia de tecnología e instituciones vinculadas a la incubación, aceleración y promoción de StartUps. Fecha de cierre22 de marzo de 2018 18.00 horas.Resultados---</t>
+          <t>El objetivo de la convocatoria es promover la cooperación tecnológica entre empresas y emprendedores argentinos e israelíes, por medio de proyectos innovadores con orientación al mercado internacional y potencial para desarrollarse con socios estratégicos en Israel.Sobre la convocatoriaEstá dirigida a emprendedores y empresas de base tecnológica argentinas y tiene como propósito promover su internacionalización, poniendo al alcance del participante o empresa seleccionada la posibilidad de visitar Israel, conocer su ecosistema de innovación, presentar sus productos y encontrar socios estratégicos para el desarrollo de sus ideas.“Israel Innovation Awards” es un iniciativa del Ministerio de Ciencia, Tecnología e Innovación Productiva, la Cámara de Comercio Argentino Israelí y la Embajada de Israel en Argentina Fecha de cierre31 de agosto de 2018Cómo participarPueden aplicar empresas radicadas en Argentina o emprendedores de todas las áreas de la industria, pero serán considerados preferentemente proyectos que se enmarquen en innovación para las temáticas de salud, agtech, eficiencia energética, movilidad y agua.El proyecto ganador recibirá un viaje a Israel con pasaje y estadía para dos personas para mantener reuniones con actores clave del ecosistema de innovación israelí.Contacto: [email protected]---</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>22 de marzo de 2018 18.00 horas.</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>31 de agosto de 2018</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/israel_innovation_awards_bases_y_condiciones_0.pdf</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>2018</t>
@@ -3675,20 +2983,9 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/programa-bioeconomia-regiones-argentinas-bar</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/israel-innovation-awards-2018</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3696,17 +2993,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyectos conjuntos de investigación y desarrollo en bioeconomía</t>
+          <t>Premio Tenaris al desarrollo tecnológico</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>El objetivo de este programa es financiar proyectos de investigación y desarrollo de alta calidad con participación de socios alemanes y argentinos.Sobre la convocatoriaA través de esta convocatoria se busca fortalecer las iniciativas existentes y establecer nuevas alianzas/colaboraciones internacionales en algunos de los siguientes campos de investigación:Plataformas Tecnológicas para bioeconomía - genotipificación y fenotipificaciónPuesta en valor de residuos agrícolasProductos biotecnológicos y tecnologías de producción para reducir el impacto de la agricultura en el medio ambiente (eco-eficiencia)Para poder participar, los consorcios deben estar formados por empresas, universidades, centros de investigación no universitarios y/o instituciones federales o provinciales, según la orientación del proyecto. Cada consorcio debe incluir al menos un socio de Argentina y un socio de Alemania; el número máximo de socios de cada lado no estará restringido.Dependiendo de la orientación del proyecto, la participación de la industria (PYMES o grandes empresas), es posible pero no excluyente. Socios de otros países pueden participar en los consorcios, debiendo cubrir sus propios gastos. La financiación de su participación en el proyecto tiene que ser probada. Fecha de cierre15/04/2018 18 PMCómo participarSe solicita a los participantes argentinos/alemanes que redacten una propuesta común (se encuentra disponible en los sitios web un modelo de propuesta) en idioma español hasta el cierre de la convocatoria. Cada país debe definir un Coordinador de proyecto que será el encargado de presentar la solicitud en nombre del consorcio de forma simultánea ante la oficina responsable en Alemania y en Argentina.Para la presentación de la propuesta en Alemania, se debe utilizar el sistema de la siguiente página www.bioeconomy-international.de. No se permite una presentación por correo electrónico.Para la presentación de la propuesta en Argentina se deberá presentar un formulario de presentación y una planilla con firmas institucionales. Más informaciónDirección Nacional de Relaciones Internacionales: Tel: +54 (11) 4899-5000 ext. 4154/4116---</t>
+          <t>Se premiarán proyectos de desarrollo tecnológico de PyMes y emprendedores que tengan impacto en los sectores metalmecánico, energético, petroquímico, minero, autopartista y siderúrgico.El objetivo del concurso es promover el desarrollo y la innovación tecnológica en PyMes industriales y emprendedores nacionales y contribuir a la vinculación del sector científico con el productivo, estimulando y potenciando la interrelación entre ambos.El Premio Tenaris al Desarrollo Tecnológico Argentino está organizado por Tenaris junto al Ministerio de Ciencia, Tecnología e Innovación Productiva, con el apoyo de Endeavor, una organización que impulsa el desarrollo del país apoyando a emprendedores de alto impacto y promoviendo la cultura emprendedora. Nueva fecha de cierre9 de octubre de 2018Cómo participarCategoría PyMes: podrá presentar proyectos toda pequeña y mediana empresa (PyMe) de capitales mayoritariamente nacionales radicada en nuestro país. El ganador de la categoría recibirá un subsidio no reembolsable de $350.000 con el objeto de contribuir a la efectiva concreción de su proyecto.Categoría Emprendedores: podrá presentar proyectos individuales toda persona humana mayor de 18 años, de nacionalidad argentina, registrada ante la Administración Federal de Ingresos Públicos (AFIP). El ganador de la categoría recibirá un subsidio no reembolsable de $200.000 con el objeto de contribuir a la efectiva concreción de su proyecto. Más informaciónPremio Tenaris---</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>15/04/2018 18 PM</t>
+          <t>Ventanilla permanente</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -3722,20 +3019,9 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/proyectos-bioeconom%C3%ADa</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/premio-tenaris-al-desarrollo-tecnologico</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3743,22 +3029,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyectos de desarrollo tecnológico municipal 2017</t>
+          <t>Programa Bioeconomía Regiones Argentinas (BAR)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria fue impulsar y/o fortalecer el desarrollo tecnológico a nivel local para favorecer la calidad de vida de los habitantes de los municipios. Como resultado directo de la ejecución de los proyectos se espera responder a demandas concretas de la comunidad mediante la generación y transferencia de conocimiento y afianzar a los gobiernos locales con la promoción de mejores prácticas de gestión.El COFECyT financió a través de Aportes No Reembolsables (ANR) proyectos cuyas Ideas-Proyectos (IP) fueron aprobadas conjuntamente por el COFECYT y la autoridad de aplicación. Fecha de cierre21 de febrero de 2018 a las 12.00 PMSe otorgó un monto total de $ 144.000.000, siendo los ANR de hasta $ 6.000.000.por jurisdicción. Más informaciónConsejo Federal de Ciencia y Tecnología---</t>
+          <t>El objetivo de la convocatoria es promover oportunidades de inversión, desarrollos conjuntos y generar alianzas en el campo de la bioeconomía, entre Argentina y Europa.Sobre la convocatoriaEl programa ofrece promover los proyectos que de forma conjunta entre la entidad de vinculación argentina y el equipo de trabajo del programa resulten adecuados para ejecutar alguna/s de las actividades propuestas. Se focaliza en los siguientes ejes:Transferencia de tecnología y promoción de la generación de joint venturesVinculación entre fondos de inversión y proyectos de bioeconomíaPromoción de la vinculación académica en la temáticaApoyo a la internacionalización de startups en bioeconomíaEstá dirigido a unidades de vinculación, consultoras de trasferencia de tecnología e instituciones vinculadas a la incubación, aceleración y promoción de StartUps. Fecha de cierre22 de marzo de 2018 18.00 horas.Resultados---</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21 de febrero de 2018 a las 12.00 PM</t>
+          <t>22 de marzo de 2018 18.00 horas.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_-detem.pdf, https://www.argentina.gob.ar/sites/default/files/anexos-detem-2017.doc, https://www.argentina.gob.ar/sites/default/files/rs-2017-18360189-detem.pdf, https://www.argentina.gob.ar/sites/default/files/prorroga-detem-2017.pdf, https://www.argentina.gob.ar/sites/default/files/presupuesto-general-pfip-asetur-detem-espro-pe_1.xlsx, https://www.argentina.gob.ar/sites/default/files/detem_2017_resultado_de_elegibilidad.pdf</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/mincyt_-_resultados_bar_2018.pdf</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3773,20 +3059,9 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/detem-2017</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/programa-bioeconomia-regiones-argentinas-bar</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3794,24 +3069,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyectos de investigación conjunta entre Argentina y Francia: Ecos 2018</t>
+          <t>Proyectos conjuntos de investigación y desarrollo en bioeconomía</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es fortalecer la cooperación científica e intensificar las relaciones entre los centros de investigación y las universidades de Argentina y Francia, a través de la presentación de proyectos conjuntos de investigación que incluyan el intercambio de científicos.Sobre la convocatoriaSe encuentra abierta la convocatoria a la presentación de proyectos de investigación conjunta entre grupos de Argentina y Francia, en el marco del Programa de Cooperación que desarrollan el Ministerio de Ciencia, Tecnología e Innovación Productiva y ECOS de Francia. PrórrogaHasta el 29 de junio de 2018.Fecha de cierre anterior: 15 de junio de 2018Los proyectos fueron acordados entre dos o más grupos de investigación de los dos países con objetivos a alcanzar claramente definidos dentro de un cronograma establecido, implementado a través del intercambio de personas y abarcarán la investigación en las siguientes áreas temáticas:Estudios de población y desarrollo sostenible: aspectos demográficos, aspectos socioeconómicos y aspectos sanitarios y ambientalesCiencia y tecnologías del agua y de la atmósfera: aspectos físicos y químicos, aspectos biológicos y de salud y aspectos sociales y económicosCómo participarLos proyectos deberán ser avalados por los directores (uno argentino y otro francés) debidamente habilitados para dirigir las investigaciones y presentar las garantías de los recursos operacionales (fuentes de financiación). Cada director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación, en su país. La presentación deberá ser simultánea e idéntica en ambos países.El criterio fundamental de selección es la excelencia del proyecto y la calidad de los investigadores y equipos participantes y de ser posible que tenga impacto sobre la formación de investigadores jóvenes.Para conocer las especificaciones del llamado consultá las bases.---</t>
+          <t>El objetivo de este programa es financiar proyectos de investigación y desarrollo de alta calidad con participación de socios alemanes y argentinos.Sobre la convocatoriaA través de esta convocatoria se busca fortalecer las iniciativas existentes y establecer nuevas alianzas/colaboraciones internacionales en algunos de los siguientes campos de investigación:Plataformas Tecnológicas para bioeconomía - genotipificación y fenotipificaciónPuesta en valor de residuos agrícolasProductos biotecnológicos y tecnologías de producción para reducir el impacto de la agricultura en el medio ambiente (eco-eficiencia)Para poder participar, los consorcios deben estar formados por empresas, universidades, centros de investigación no universitarios y/o instituciones federales o provinciales, según la orientación del proyecto. Cada consorcio debe incluir al menos un socio de Argentina y un socio de Alemania; el número máximo de socios de cada lado no estará restringido.Dependiendo de la orientación del proyecto, la participación de la industria (PYMES o grandes empresas), es posible pero no excluyente. Socios de otros países pueden participar en los consorcios, debiendo cubrir sus propios gastos. La financiación de su participación en el proyecto tiene que ser probada. Fecha de cierre15/04/2018 18 PMCómo participarSe solicita a los participantes argentinos/alemanes que redacten una propuesta común (se encuentra disponible en los sitios web un modelo de propuesta) en idioma español hasta el cierre de la convocatoria. Cada país debe definir un Coordinador de proyecto que será el encargado de presentar la solicitud en nombre del consorcio de forma simultánea ante la oficina responsable en Alemania y en Argentina.Para la presentación de la propuesta en Alemania, se debe utilizar el sistema de la siguiente página www.bioeconomy-international.de. No se permite una presentación por correo electrónico.Para la presentación de la propuesta en Argentina se deberá presentar un formulario de presentación y una planilla con firmas institucionales. Más informaciónDirección Nacional de Relaciones Internacionales: Tel: +54 (11) 4899-5000 ext. 4154/4116---</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/19.04.01_-_proyectos_aprobados_ecos_sud_2018_web.pdf, https://www.argentina.gob.ar/sites/default/files/bases_ecos-sud_2018.pdf, https://www.argentina.gob.ar/sites/default/files/form_2018.doc, https://www.argentina.gob.ar/sites/default/files/planilla_institucional_0.doc</t>
-        </is>
-      </c>
+          <t>15/04/2018 18 PM</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
           <t>2018</t>
@@ -3824,20 +3095,9 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/ecos-2018</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/proyectos-bioeconom%C3%ADa</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3845,22 +3105,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyectos de investigación conjunta entre México y Argentina</t>
+          <t>Proyectos de desarrollo tecnológico municipal 2017</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Se financiarán proyectos de investigación científica y desarrollo tecnológico conjuntos entre México y Argentina, en agroalimentos, biotecnología aplicada a la agricultura y zonas áridasSobre la convocatoriaEl Ministerio de Ciencia, Tecnología e Innovación Productiva y el Consejo Nacional de Ciencia y Tecnología de México (CONACYT) financiarán proyectos de investigación científica y desarrollo tecnológico conjuntos entre México y Argentina, con el objetivo de promover el desarrollo de proyectos de alto impacto de cooperación internacional en ciencia, tecnología e innovación y fortalecer la cooperación en materia científica y tecnológica en las siguientes áreas científicas: agroalimentos, biotecnología aplicada a la agricultura y zonas áridas. Fecha de cierre1 de junio de 2018 a las 18.00 horas.Cómo participarSe deberán presentar proyectos de investigación acordados por dos o más grupos de investigación de Argentina y México. Cada director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación en su país. La presentación deberá ser simultánea y de contenido idéntico en ambos países.El coordinador argentino deberá enviar su proyecto en formato digital a [Se deberán presentar proyectos de investigación acordados por dos o más grupos de investigación de Argentina y México. Cada Director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación, en su país. La presentación deberá ser simultánea y de contenido idéntico en ambos países.El coordinador argentino deberá presentar su proyecto en formato digital al siguiente correo electrónico: [email protected]---</t>
+          <t>El objetivo de la convocatoria fue impulsar y/o fortalecer el desarrollo tecnológico a nivel local para favorecer la calidad de vida de los habitantes de los municipios. Como resultado directo de la ejecución de los proyectos se espera responder a demandas concretas de la comunidad mediante la generación y transferencia de conocimiento y afianzar a los gobiernos locales con la promoción de mejores prácticas de gestión.El COFECyT financió a través de Aportes No Reembolsables (ANR) proyectos cuyas Ideas-Proyectos (IP) fueron aprobadas conjuntamente por el COFECYT y la autoridad de aplicación. Fecha de cierre21 de febrero de 2018 a las 12.00 PMSe otorgó un monto total de $ 144.000.000, siendo los ANR de hasta $ 6.000.000.por jurisdicción. Más informaciónConsejo Federal de Ciencia y Tecnología---</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1 de junio de 2018 a las 18.00 horas.</t>
+          <t>21 de febrero de 2018 a las 12.00 PM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/mincyt_-_bases_y_condiciones_mexico_-_argentina.pdf, https://www.argentina.gob.ar/sites/default/files/mincyt_-_formulario_mexico_-_argentina_-_categoria_b.doc, https://www.argentina.gob.ar/sites/default/files/mincyt_-_planilla_institucional_mexico_-_argentina.doc</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_-detem.pdf, https://www.argentina.gob.ar/sites/default/files/anexos-detem-2017.doc, https://www.argentina.gob.ar/sites/default/files/rs-2017-18360189-detem.pdf, https://www.argentina.gob.ar/sites/default/files/prorroga-detem-2017.pdf, https://www.argentina.gob.ar/sites/default/files/presupuesto-general-pfip-asetur-detem-espro-pe_1.xlsx, https://www.argentina.gob.ar/sites/default/files/detem_2017_resultado_de_elegibilidad.pdf</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3875,20 +3135,9 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/proyectos-mexico-y-argentina</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/detem-2017</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3896,20 +3145,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyectos de tecnología para la inclusión social</t>
+          <t>Proyectos de investigación conjunta entre Argentina y Francia: Ecos 2018</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es promover dinámicas de innovación entre actores sociales y entidades del Sistema Nacional de Ciencia, Tecnología e Innovación (SNCTI) a fin de generar nuevas modalidades de resolución de problemáticas sociales o productivas.Se espera cofinanciar propuestas que tengan estos objetivos y generen nuevos conocimientos asimilables, maquinarias y artefactos ajustados a escala y/o nuevas prácticas organizacionales.La convocatoria estará orientada a cofinanciar propuestas presentadas por un Núcleo Asociativo (NA) constituido por una o más asociaciones del territorio nacional, y una (o más) entidades del SNCTI. Fecha de cierre12 de octubre de 2018Serán elegibles en primer término, aquellas propuestas que incluyan componentes de diseño como factor estratégico de innovación, la falta de los mismos redundará en un menor puntaje sobre el proyecto en la ponderación final. Más informaciónProyectos de Tecnología para la Inclusión Social---</t>
+          <t>El objetivo de la convocatoria es fortalecer la cooperación científica e intensificar las relaciones entre los centros de investigación y las universidades de Argentina y Francia, a través de la presentación de proyectos conjuntos de investigación que incluyan el intercambio de científicos.Sobre la convocatoriaSe encuentra abierta la convocatoria a la presentación de proyectos de investigación conjunta entre grupos de Argentina y Francia, en el marco del Programa de Cooperación que desarrollan el Ministerio de Ciencia, Tecnología e Innovación Productiva y ECOS de Francia. PrórrogaHasta el 29 de junio de 2018.Fecha de cierre anterior: 15 de junio de 2018Los proyectos fueron acordados entre dos o más grupos de investigación de los dos países con objetivos a alcanzar claramente definidos dentro de un cronograma establecido, implementado a través del intercambio de personas y abarcarán la investigación en las siguientes áreas temáticas:Estudios de población y desarrollo sostenible: aspectos demográficos, aspectos socioeconómicos y aspectos sanitarios y ambientalesCiencia y tecnologías del agua y de la atmósfera: aspectos físicos y químicos, aspectos biológicos y de salud y aspectos sociales y económicosCómo participarLos proyectos deberán ser avalados por los directores (uno argentino y otro francés) debidamente habilitados para dirigir las investigaciones y presentar las garantías de los recursos operacionales (fuentes de financiación). Cada director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación, en su país. La presentación deberá ser simultánea e idéntica en ambos países.El criterio fundamental de selección es la excelencia del proyecto y la calidad de los investigadores y equipos participantes y de ser posible que tenga impacto sobre la formación de investigadores jóvenes.Para conocer las especificaciones del llamado consultá las bases.---</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12 de octubre de 2018</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>Ventanilla permanente</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/19.04.01_-_proyectos_aprobados_ecos_sud_2018_web.pdf, https://www.argentina.gob.ar/sites/default/files/bases_ecos-sud_2018.pdf, https://www.argentina.gob.ar/sites/default/files/form_2018.doc, https://www.argentina.gob.ar/sites/default/files/planilla_institucional_0.doc</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>2018</t>
@@ -3922,20 +3175,9 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/PTIS-2018</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/ecos-2018</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3943,20 +3185,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyectos empresariales entre Argentina e Israel</t>
+          <t>Proyectos de investigación conjunta entre México y Argentina</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Esta convocatoria tiene como objetivo invitar a empresas israelíes y argentinas de todos los sectores industriales a presentar una propuesta conjunta de cooperación en I + D + i que genere productos, procesos o servicios de aplicación industrial, nuevos y tecnológicamente innovadores que conduzcan a la comercialización en el mercado nacional y / o global.En Argentina se pueden presentar empresas radicadas en el país que realicen I+D. En Israel serán elegibles las empresas registradas en ese país con operaciones de I+D. Las propuestas resulten aprobadas en ambos países, deberán solicitar financiación en cada país. En el caso de Argentina podrán presentar el proyecto en la línea ANR 4800 INT gestionada por el FONTAR. Las empresas Israelíes podrán solicitar financiación a la Autoridad de Innovación de Israel. Fecha de cierre13 de diciembre de 2018.El Programa de cooperación empresarial en I+D Argentina - Israel es un Marco Bilateral operado por ambos gobiernos para brindar apoyo activo, búsqueda de socios y financiamiento para emprendimientos conjuntos de I + D + i entre empresas argentinas e israelíes. Más informaciónCooperación empresarial Argentina e Israel 2018---</t>
+          <t>Se financiarán proyectos de investigación científica y desarrollo tecnológico conjuntos entre México y Argentina, en agroalimentos, biotecnología aplicada a la agricultura y zonas áridasSobre la convocatoriaEl Ministerio de Ciencia, Tecnología e Innovación Productiva y el Consejo Nacional de Ciencia y Tecnología de México (CONACYT) financiarán proyectos de investigación científica y desarrollo tecnológico conjuntos entre México y Argentina, con el objetivo de promover el desarrollo de proyectos de alto impacto de cooperación internacional en ciencia, tecnología e innovación y fortalecer la cooperación en materia científica y tecnológica en las siguientes áreas científicas: agroalimentos, biotecnología aplicada a la agricultura y zonas áridas. Fecha de cierre1 de junio de 2018 a las 18.00 horas.Cómo participarSe deberán presentar proyectos de investigación acordados por dos o más grupos de investigación de Argentina y México. Cada director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación en su país. La presentación deberá ser simultánea y de contenido idéntico en ambos países.El coordinador argentino deberá enviar su proyecto en formato digital a [Se deberán presentar proyectos de investigación acordados por dos o más grupos de investigación de Argentina y México. Cada Director deberá presentar los formularios debidamente cumplimentados ante la oficina coordinadora de la cooperación, en su país. La presentación deberá ser simultánea y de contenido idéntico en ambos países.El coordinador argentino deberá presentar su proyecto en formato digital al siguiente correo electrónico: [email protected]---</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13 de diciembre de 2018.</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>1 de junio de 2018 a las 18.00 horas.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/mincyt_-_bases_y_condiciones_mexico_-_argentina.pdf, https://www.argentina.gob.ar/sites/default/files/mincyt_-_formulario_mexico_-_argentina_-_categoria_b.doc, https://www.argentina.gob.ar/sites/default/files/mincyt_-_planilla_institucional_mexico_-_argentina.doc</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>2018</t>
@@ -3969,20 +3215,9 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/proyectos-argentina-israel</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/proyectos-mexico-y-argentina</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3990,24 +3225,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyectos empresariales entre Argentina y Alemania</t>
+          <t>Proyectos de tecnología para la inclusión social</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Se financiarán proyectos empresariales de desarrollo e innovación tecnológica a empresas que presenten proyectos colaborativos en cualquier rama de actividad y tecnología de base, para el desarrollo de tecnología innovadora a escala piloto y/o prototipo.Los proyectos deben promover la generación de soluciones tecnológicas cuyo desarrollo alcance una escala de laboratorio o equivalente y de lugar a un producto, proceso o servicio innovador con perspectivas de mercado, a escala piloto o de prototipo. En este sentido, los proyectos suponen beneficios para las partes de forma equilibrada.La convocatoria es promovida por el Ministerio de Ciencia junto el Ministerio Federal de Economía y Energía de Alemania. En el caso de Argentina, los proyectos serán financiados por el instrumento ANR Internacional de FONTAR.Cómo participarLos interesados deben presentar conjuntamente y en inglés el Formulario de solicitud de propuesta. El Ministerio de Ciencia puede brindar apoyo a las empresas argentinas para encontrar socios alemanes.Contacto: [email protected] FechasPrimera presentación: hasta el 31 de octubre de 2018.Plazo final: 15 de enero de 2019.---</t>
+          <t>El objetivo de la convocatoria es promover dinámicas de innovación entre actores sociales y entidades del Sistema Nacional de Ciencia, Tecnología e Innovación (SNCTI) a fin de generar nuevas modalidades de resolución de problemáticas sociales o productivas.Se espera cofinanciar propuestas que tengan estos objetivos y generen nuevos conocimientos asimilables, maquinarias y artefactos ajustados a escala y/o nuevas prácticas organizacionales.La convocatoria estará orientada a cofinanciar propuestas presentadas por un Núcleo Asociativo (NA) constituido por una o más asociaciones del territorio nacional, y una (o más) entidades del SNCTI. Fecha de cierre12 de octubre de 2018Serán elegibles en primer término, aquellas propuestas que incluyan componentes de diseño como factor estratégico de innovación, la falta de los mismos redundará en un menor puntaje sobre el proyecto en la ponderación final. Más informaciónProyectos de Tecnología para la Inclusión Social---</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/argentina_-_alemania_-_bases_y_condiciones.pdf, https://www.argentina.gob.ar/sites/default/files/argentina_-_alemania_-_formulario_de_solicitud_de_propuesta.pdf</t>
-        </is>
-      </c>
+          <t>12 de octubre de 2018</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
           <t>2018</t>
@@ -4020,20 +3251,9 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/proyectos-argentina-alemania</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/PTIS-2018</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4041,24 +3261,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyectos federales de innovación productiva 2017</t>
+          <t>Proyectos empresariales entre Argentina e Israel</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria fue dar solución, a partir de la generación y transferencia del conocimiento, a problemas sociales y productivos concretos, de alcance municipal, provincial o regional, identificados como prioritarios por las Autoridades Provinciales en Ciencia y Tecnología a través de proyectos del sector público y privado.Podían participar de la convocatoria personas jurídicas constituidas como tales al momento de la presentación del proyecto, los organismos gubernamentales y los organismos no gubernamentales. Fecha de cierre21 de febrero de 2018 12.00 PMSe destinará un monto total de $ 192.000.000, siendo los aportes no reembolsables de hasta $ 8.000.000, por jurisdicción. Más informaciónConsejo Federal de Ciencia y Tecnología---</t>
+          <t>Esta convocatoria tiene como objetivo invitar a empresas israelíes y argentinas de todos los sectores industriales a presentar una propuesta conjunta de cooperación en I + D + i que genere productos, procesos o servicios de aplicación industrial, nuevos y tecnológicamente innovadores que conduzcan a la comercialización en el mercado nacional y / o global.En Argentina se pueden presentar empresas radicadas en el país que realicen I+D. En Israel serán elegibles las empresas registradas en ese país con operaciones de I+D. Las propuestas resulten aprobadas en ambos países, deberán solicitar financiación en cada país. En el caso de Argentina podrán presentar el proyecto en la línea ANR 4800 INT gestionada por el FONTAR. Las empresas Israelíes podrán solicitar financiación a la Autoridad de Innovación de Israel. Fecha de cierre13 de diciembre de 2018.El Programa de cooperación empresarial en I+D Argentina - Israel es un Marco Bilateral operado por ambos gobiernos para brindar apoyo activo, búsqueda de socios y financiamiento para emprendimientos conjuntos de I + D + i entre empresas argentinas e israelíes. Más informaciónCooperación empresarial Argentina e Israel 2018---</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>21 de febrero de 2018 12.00 PM</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases-y-condiciones-pfip_2017.pdf, https://www.argentina.gob.ar/sites/default/files/anexos-pfip_2017.doc, https://www.argentina.gob.ar/sites/default/files/rs-2017-18360186-pfip_2017.pdf, https://www.argentina.gob.ar/sites/default/files/prorroga-pfip-2017.pdf, https://www.argentina.gob.ar/sites/default/files/presupuesto-general-pfip-asetur-detem-espro-pe.xlsx, https://www.argentina.gob.ar/sites/default/files/pfip_2017_resultado_de_elegibilidad.pdf</t>
-        </is>
-      </c>
+          <t>13 de diciembre de 2018.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
           <t>2018</t>
@@ -4071,20 +3287,9 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/pfip-2017</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/proyectos-argentina-israel</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4092,12 +3297,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Simposio sobre mares y costas</t>
+          <t>Proyectos empresariales entre Argentina y Alemania</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Se otorgarán 30 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El simposio incluye la disertación de especialistas en variadas temáticas en torno a los mares y costas, así como la discusión e intercambio de ideas y problemáticas de las diversas áreas. A continuación, se realizará un curso de posgrado (con certificación del Instituto de Altos Estudios Espaciales Mario Gulich de la UNC-CONAE) para la capacitación de los profesionales en el uso de datos satelitales y tecnologías afines como una herramienta para complementar sus desarrollos tanto de investigación como operativos.El objetivo principal de esta actividad es profundizar el conocimiento de los ambientes costeros y marinos mediante la integración de múltiples aspectos (físicos, biológicos, ambientales, climáticos, económicos y geo-políticos) con especial énfasis en la región de América Latina a través del uso de herramientas geoespaciales. Con esta actividad se espera contribuir a generar lazos y proyectos inter-institucionales e inter-disciplinarios, además de contribuir en la toma de decisiones de políticas gubernamentales con una visión sostenible de los recursos de nuestros mares y costas. Fecha de inscripciónHasta el 24 de junio de 2018 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>Se financiarán proyectos empresariales de desarrollo e innovación tecnológica a empresas que presenten proyectos colaborativos en cualquier rama de actividad y tecnología de base, para el desarrollo de tecnología innovadora a escala piloto y/o prototipo.Los proyectos deben promover la generación de soluciones tecnológicas cuyo desarrollo alcance una escala de laboratorio o equivalente y de lugar a un producto, proceso o servicio innovador con perspectivas de mercado, a escala piloto o de prototipo. En este sentido, los proyectos suponen beneficios para las partes de forma equilibrada.La convocatoria es promovida por el Ministerio de Ciencia junto el Ministerio Federal de Economía y Energía de Alemania. En el caso de Argentina, los proyectos serán financiados por el instrumento ANR Internacional de FONTAR.Cómo participarLos interesados deben presentar conjuntamente y en inglés el Formulario de solicitud de propuesta. El Ministerio de Ciencia puede brindar apoyo a las empresas argentinas para encontrar socios alemanes.Contacto: [email protected] FechasPrimera presentación: hasta el 31 de octubre de 2018.Plazo final: 15 de enero de 2019.---</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4105,7 +3310,11 @@
           <t>Ventanilla permanente</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/argentina_-_alemania_-_bases_y_condiciones.pdf, https://www.argentina.gob.ar/sites/default/files/argentina_-_alemania_-_formulario_de_solicitud_de_propuesta.pdf</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>2018</t>
@@ -4118,20 +3327,9 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/simposio-sobre-mares-y-costas</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/proyectos-argentina-alemania</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4139,20 +3337,24 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tercera escuela de genómica clínica</t>
+          <t>Proyectos federales de innovación productiva 2017</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Se otorgarán 30 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela tiene como objetivos presentar y enseñar a utilizar diferentes herramientas bioinformáticas que se utilizan para el análisis de datos genómicos en el contexto de la práctica médica y aplicar lo aprendido a la resolución de casos reales. Como objetivo adicional busca consolidar la red de trabajo latinoamericana en genómica traslacional iniciada en las anteriores ediciones. Fecha de inscripciónHasta el 30 de mayo de 2018.La actividad consiste en una serie de clases teórico-prácticas, sumadas a la realización de un mini-simposio sobre tecnologías de secuenciación de segunda y tercera generación, donde se espera la participación de especialistas nacionales e internacionales. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
+          <t>El objetivo de la convocatoria fue dar solución, a partir de la generación y transferencia del conocimiento, a problemas sociales y productivos concretos, de alcance municipal, provincial o regional, identificados como prioritarios por las Autoridades Provinciales en Ciencia y Tecnología a través de proyectos del sector público y privado.Podían participar de la convocatoria personas jurídicas constituidas como tales al momento de la presentación del proyecto, los organismos gubernamentales y los organismos no gubernamentales. Fecha de cierre21 de febrero de 2018 12.00 PMSe destinará un monto total de $ 192.000.000, siendo los aportes no reembolsables de hasta $ 8.000.000, por jurisdicción. Más informaciónConsejo Federal de Ciencia y Tecnología---</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ventanilla permanente</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>21 de febrero de 2018 12.00 PM</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases-y-condiciones-pfip_2017.pdf, https://www.argentina.gob.ar/sites/default/files/anexos-pfip_2017.doc, https://www.argentina.gob.ar/sites/default/files/rs-2017-18360186-pfip_2017.pdf, https://www.argentina.gob.ar/sites/default/files/prorroga-pfip-2017.pdf, https://www.argentina.gob.ar/sites/default/files/presupuesto-general-pfip-asetur-detem-espro-pe.xlsx, https://www.argentina.gob.ar/sites/default/files/pfip_2017_resultado_de_elegibilidad.pdf</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>2018</t>
@@ -4165,20 +3367,9 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/tercera-escuela-de-genomica-clinica</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/pfip-2017</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4186,27 +3377,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Apoyo tecnológico al sector turismo 2017</t>
+          <t>Simposio sobre mares y costas</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>El objetivo de la convocatoria es dar impulso y fortalecer aquellos destinos y productos turísticos que requieran innovación tecnológica para responder a la demanda existente y mejorar la oferta de servicios y desarrollo de centros regionales de turismo definidos como prioritarios en cada jurisdicción.Se financiaron proyectos presentados por organismos públicos o privados vinculados al sector turismo cuyas Ideas-Proyectos (IP) fueron sido aprobadas conjuntamente por el COFECYT y la Autoridad de Aplicación junto con el área de turismo correspondiente. Fecha de cierre21 de febrero de 2018 a las 12.00 PMPodían participar de la convocatoria aquellas personas jurídicas constituidas como tales al momento de la presentación del proyecto, los organismos gubernamentales y los organismos no gubernamentales que estén vinculados en forma directa o indirecta con el sector turismo y cuenten con los avales correspondientes de su jurisdicción para presentarse en la convocatoria. Más informaciónConsejo Federal de Ciencia y Tecnología---</t>
+          <t>Se otorgarán 30 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.El simposio incluye la disertación de especialistas en variadas temáticas en torno a los mares y costas, así como la discusión e intercambio de ideas y problemáticas de las diversas áreas. A continuación, se realizará un curso de posgrado (con certificación del Instituto de Altos Estudios Espaciales Mario Gulich de la UNC-CONAE) para la capacitación de los profesionales en el uso de datos satelitales y tecnologías afines como una herramienta para complementar sus desarrollos tanto de investigación como operativos.El objetivo principal de esta actividad es profundizar el conocimiento de los ambientes costeros y marinos mediante la integración de múltiples aspectos (físicos, biológicos, ambientales, climáticos, económicos y geo-políticos) con especial énfasis en la región de América Latina a través del uso de herramientas geoespaciales. Con esta actividad se espera contribuir a generar lazos y proyectos inter-institucionales e inter-disciplinarios, además de contribuir en la toma de decisiones de políticas gubernamentales con una visión sostenible de los recursos de nuestros mares y costas. Fecha de inscripciónHasta el 24 de junio de 2018 Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>21 de febrero de 2018 a las 12.00 PM</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_-asetur.pdf, https://www.argentina.gob.ar/sites/default/files/anexos-asetur.doc, https://www.argentina.gob.ar/sites/default/files/rs-2017-18360191-asetur.pdf, https://www.argentina.gob.ar/sites/default/files/prorroga-asetur-2017.pdf, https://www.argentina.gob.ar/sites/default/files/presupuesto-general-pfip-asetur-detem-espro-pe_0.xlsx, https://www.argentina.gob.ar/sites/default/files/asetur_2017_resultado_de_elegibilidad_0.pdf</t>
-        </is>
-      </c>
+          <t>Ventanilla permanente</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4216,20 +3403,9 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/asetur-2017</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/simposio-sobre-mares-y-costas</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4237,27 +3413,23 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Concurso Emprendedor Tecnológico</t>
+          <t>Tercera escuela de genómica clínica</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cien proyectos/startups accedieron a un proceso de capacitaciones a fin de desarrollar sus propuestas de negocios y de inversión para, finalmente, participar de un encuentro con potenciales inversores.Sobre la convocatoriaEl objetivo del concurso fue incentivar la creación y el fortalecimiento de empresas de base tecnológica (EBT) a través de capacitaciones que potencien las capacidades para el encuentro con inversores. El concurso estuvo destinado a personas jurídicas, inscriptas y legalmente constituidas, y personas físicas, que podía presentarse de forma unipersonal o grupal.Las propuestas estuvieron enmarcardas en las siguientes áreas temáticas:Ideas y/o Proyectos para la creación de una Empresa de Base TecnológicaIdeas y/o Proyectos para el fortalecimiento de una Empresas de Base Tecnológica (con menos de dos años de antigüedad).Tuvieron especial prioridad proyectos relacionados a la temática discapacidad y a los siguientes subsectores del sector alimentario: carnes, lácteos, harinas y bebidas. Criterios de evaluaciónLas propuestas fueron evaluadas por una Comisión ad hoc integrada por miembros del Ministerio de Ciencia, Tecnología e Innovación Productiva.La evaluación contempló los siguientes criterios:Capacidad del equipo emprendedor para desarrollar el proyecto;Factibilidad;Escalabilidad;Alcance producto;Carácter Innovador;Impacto Ambiental. Fecha de cierre13 de julio de 2017 18.00 horasMás informaciónDirección Nacional de Desarrollo Tecnológico e Innovación, (54-11) 4899-5000 Int: 3162, [email protected], Godoy Cruz 2320 (C1425FQD), Ciudad Autónoma de Buenos Aires.---</t>
+          <t>Se otorgarán 30 becas para investigadores que residan en Latinoamérica y a más de 70km de la Ciudad Autónoma de Buenos Aires. Las becas cubren pasaje, seguro, viáticos, estipendio y matrícula.La escuela tiene como objetivos presentar y enseñar a utilizar diferentes herramientas bioinformáticas que se utilizan para el análisis de datos genómicos en el contexto de la práctica médica y aplicar lo aprendido a la resolución de casos reales. Como objetivo adicional busca consolidar la red de trabajo latinoamericana en genómica traslacional iniciada en las anteriores ediciones. Fecha de inscripciónHasta el 30 de mayo de 2018.La actividad consiste en una serie de clases teórico-prácticas, sumadas a la realización de un mini-simposio sobre tecnologías de secuenciación de segunda y tercera generación, donde se espera la participación de especialistas nacionales e internacionales. Más informaciónCentro Latinoamericano de Formación Interdisciplinaria---</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13 de julio de 2017 18.00 horas</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/bases_concurso_emprendedor_tecnologico.pdf</t>
-        </is>
-      </c>
+          <t>Ventanilla permanente</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4267,20 +3439,9 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/concurso-emprendedor-tecnologico</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/tercera-escuela-de-genomica-clinica</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4288,22 +3449,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Innovación + impacto social</t>
+          <t>Apoyo tecnológico al sector turismo 2017</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Se convocó a proyectos de emprendedores sociales que desarrollen soluciones tecnológicas orientadas a la creación y/o la mejora de productos, la optimización de procesos productivos y la promoción de innovaciones en organizaciones sociales de Santiago del Estero.DEMANDAS1. Mejoras de la alimentación caprina2. Lavadero de lana3. Sistema de secado de polen4. Sistema de modernización sustentable de viviendas5. Sistema de riego para huertas6. Máquina picadora de tabacoLos proyectos seleccionados recibieron un subsidio hasta $100.000. Fecha de cierre10 de noviembre de 2017La convocatoria es promovida por el Ministerio de Ciencia, la Subsecretaría de Políticas en Ciencia Tecnología e Innovación Productiva a través de la Dirección Nacional de Desarrollo Tecnológico e Innovación y el Gobierno de Santiago del Estero a través de la Secretaría de Desarrollo, Ciencia, Tecnología y Gestión Pública.Datos de contactoDirección Nacional de Desarrollo Tecnológico e InnovaciónTeléfono/Fax: (54-11) 4899-5000 - int. 3162/3170.E-mail: [email protected]---</t>
+          <t>El objetivo de la convocatoria es dar impulso y fortalecer aquellos destinos y productos turísticos que requieran innovación tecnológica para responder a la demanda existente y mejorar la oferta de servicios y desarrollo de centros regionales de turismo definidos como prioritarios en cada jurisdicción.Se financiaron proyectos presentados por organismos públicos o privados vinculados al sector turismo cuyas Ideas-Proyectos (IP) fueron sido aprobadas conjuntamente por el COFECYT y la Autoridad de Aplicación junto con el área de turismo correspondiente. Fecha de cierre21 de febrero de 2018 a las 12.00 PMPodían participar de la convocatoria aquellas personas jurídicas constituidas como tales al momento de la presentación del proyecto, los organismos gubernamentales y los organismos no gubernamentales que estén vinculados en forma directa o indirecta con el sector turismo y cuenten con los avales correspondientes de su jurisdicción para presentarse en la convocatoria. Más informaciónConsejo Federal de Ciencia y Tecnología---</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10 de noviembre de 2017</t>
+          <t>21 de febrero de 2018 a las 12.00 PM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/sites/default/files/innovacion_social_-_bases_i_i_s.pdf, https://www.argentina.gob.ar/sites/default/files/innovacion_social_-_manual_emprendedores_sociales_2017.pdf, https://www.argentina.gob.ar/sites/default/files/innovacion_social_-_cuadro_presupuesto.xlsx</t>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_y_condiciones_-asetur.pdf, https://www.argentina.gob.ar/sites/default/files/anexos-asetur.doc, https://www.argentina.gob.ar/sites/default/files/rs-2017-18360191-asetur.pdf, https://www.argentina.gob.ar/sites/default/files/prorroga-asetur-2017.pdf, https://www.argentina.gob.ar/sites/default/files/presupuesto-general-pfip-asetur-detem-espro-pe_0.xlsx, https://www.argentina.gob.ar/sites/default/files/asetur_2017_resultado_de_elegibilidad_0.pdf</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4318,20 +3479,9 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/innovacion-impacto-social</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/asetur-2017</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4339,23 +3489,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Programa de cooperación MinCyT - CRG 2014</t>
+          <t>Concurso Emprendedor Tecnológico</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sobre la convocatoriaEl Ministerio de Ciencia, Tecnología e Innovación Productiva y el Centro de Regulación Genómica (CRG) de España, convocaron a la presentación de proyectos de investigación conjuntos en el marco del Acuerdo Marco para la Creación del Centro Bilateral en el Área de Bioinformática y Áreas Relacionadas (CBB).Los proyectos podían ser presentados en áreas vinculadas a la bioinformática: biología de sistemas, biología sintética, genómica, proteómica, entre otras. fecha límite de presentaciones se prorrogó al 16 de mayo. . Fecha de cierre16 de mayo de 2014---</t>
+          <t>Cien proyectos/startups accedieron a un proceso de capacitaciones a fin de desarrollar sus propuestas de negocios y de inversión para, finalmente, participar de un encuentro con potenciales inversores.Sobre la convocatoriaEl objetivo del concurso fue incentivar la creación y el fortalecimiento de empresas de base tecnológica (EBT) a través de capacitaciones que potencien las capacidades para el encuentro con inversores. El concurso estuvo destinado a personas jurídicas, inscriptas y legalmente constituidas, y personas físicas, que podía presentarse de forma unipersonal o grupal.Las propuestas estuvieron enmarcardas en las siguientes áreas temáticas:Ideas y/o Proyectos para la creación de una Empresa de Base TecnológicaIdeas y/o Proyectos para el fortalecimiento de una Empresas de Base Tecnológica (con menos de dos años de antigüedad).Tuvieron especial prioridad proyectos relacionados a la temática discapacidad y a los siguientes subsectores del sector alimentario: carnes, lácteos, harinas y bebidas. Criterios de evaluaciónLas propuestas fueron evaluadas por una Comisión ad hoc integrada por miembros del Ministerio de Ciencia, Tecnología e Innovación Productiva.La evaluación contempló los siguientes criterios:Capacidad del equipo emprendedor para desarrollar el proyecto;Factibilidad;Escalabilidad;Alcance producto;Carácter Innovador;Impacto Ambiental. Fecha de cierre13 de julio de 2017 18.00 horasMás informaciónDirección Nacional de Desarrollo Tecnológico e Innovación, (54-11) 4899-5000 Int: 3162, [email protected], Godoy Cruz 2320 (C1425FQD), Ciudad Autónoma de Buenos Aires.---</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>16 de mayo de 2014</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+          <t>13 de julio de 2017 18.00 horas</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/bases_concurso_emprendedor_tecnologico.pdf</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4365,20 +3519,9 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/programa-de-cooperacion-mincyt-crg-2014</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/concurso-emprendedor-tecnologico</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4386,46 +3529,111 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>Innovación + impacto social</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Se convocó a proyectos de emprendedores sociales que desarrollen soluciones tecnológicas orientadas a la creación y/o la mejora de productos, la optimización de procesos productivos y la promoción de innovaciones en organizaciones sociales de Santiago del Estero.DEMANDAS1. Mejoras de la alimentación caprina2. Lavadero de lana3. Sistema de secado de polen4. Sistema de modernización sustentable de viviendas5. Sistema de riego para huertas6. Máquina picadora de tabacoLos proyectos seleccionados recibieron un subsidio hasta $100.000. Fecha de cierre10 de noviembre de 2017La convocatoria es promovida por el Ministerio de Ciencia, la Subsecretaría de Políticas en Ciencia Tecnología e Innovación Productiva a través de la Dirección Nacional de Desarrollo Tecnológico e Innovación y el Gobierno de Santiago del Estero a través de la Secretaría de Desarrollo, Ciencia, Tecnología y Gestión Pública.Datos de contactoDirección Nacional de Desarrollo Tecnológico e InnovaciónTeléfono/Fax: (54-11) 4899-5000 - int. 3162/3170.E-mail: [email protected]---</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>10 de noviembre de 2017</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/sites/default/files/innovacion_social_-_bases_i_i_s.pdf, https://www.argentina.gob.ar/sites/default/files/innovacion_social_-_manual_emprendedores_sociales_2017.pdf, https://www.argentina.gob.ar/sites/default/files/innovacion_social_-_cuadro_presupuesto.xlsx</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Convocatoria Cerrada</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/innovacion-impacto-social</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Programa de cooperación MinCyT - CRG 2014</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sobre la convocatoriaEl Ministerio de Ciencia, Tecnología e Innovación Productiva y el Centro de Regulación Genómica (CRG) de España, convocaron a la presentación de proyectos de investigación conjuntos en el marco del Acuerdo Marco para la Creación del Centro Bilateral en el Área de Bioinformática y Áreas Relacionadas (CBB).Los proyectos podían ser presentados en áreas vinculadas a la bioinformática: biología de sistemas, biología sintética, genómica, proteómica, entre otras. fecha límite de presentaciones se prorrogó al 16 de mayo. . Fecha de cierre16 de mayo de 2014---</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>16 de mayo de 2014</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Convocatoria Cerrada</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/programa-de-cooperacion-mincyt-crg-2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>Centro Bilateral en Bioinformática - Convocatoria 2013</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>El Centro Bilateral en Bioinformática convocó a graduados universitarios (estudiantes de doctorando y post-doctorando o profesionales involucrados en servicios) para realizar el curso "High Throughput Sequencing: Lab methods and computational challenges". El objetivo es brindar conocimientos a investigadores jóvenes que ya tienen experiencia en el uso y/o análisis de técnicas de secuenciación de nueva generación (NGS) con entrenamiento avanzado tanto en el manejo de laboratorio como en las estrategias de análisis.El curso dará una visión general de las tecnologías de “high-throughput sequencing” pero se centrará en la plataforma de secuenciación de Illumina. La parte metodológica incluye secuenciación genómica, secuenciación de exoma, RNA-Seq, Chip-Seq, entre otras. Las estrategias de análisis se realizarán usando casos testigos como ensamblado de genomas de novo, análisis de variantes y resultados de ChIP-Seq.Los financiamientos fueron otorgados a los investigadores Santiago Revale (DNI 28.417.482) y Sergio Nemirovsky (DNI 25.129.906). Fecha del cursoDel 14 al 18 de octubre de 2013 en Barcelona, España---</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Ventanilla permanente</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Ventanilla permanente</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Convocatoria Cerrada</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Convocatoria Cerrada</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>https://www.argentina.gob.ar/ciencia/financiamiento/convocatorias-mincyt/centro-bilateral-en-bioinformatica-2013</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
